--- a/Scrum/sprintbacklogpohja.xlsx
+++ b/Scrum/sprintbacklogpohja.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="258">
   <si>
     <t>Kymppikerho - SCRUM BACKLOG</t>
   </si>
@@ -746,6 +746,75 @@
   <si>
     <t>Layout + Yhteenveto sivustoa</t>
   </si>
+  <si>
+    <t>Juha Sonck</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Muodostetaan kehitystiimi</t>
+  </si>
+  <si>
+    <t>Valmis</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Scrum Masterin valinta 1. sprintille</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>GitHubin testaus</t>
+  </si>
+  <si>
+    <t>kaikki</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>GitHub repositoryn muodotaminen</t>
+  </si>
+  <si>
+    <t>Seba</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>Visual Studio MVC-projektin luominen</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>Tehtävän määrittely</t>
+  </si>
+  <si>
+    <t>Minna, Anna</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>Procuct Backlog githubiin</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Minna</t>
+  </si>
+  <si>
+    <t>kehitystiimin muodostaminen, Scrum Masterin valinta</t>
+  </si>
 </sst>
 </file>
 
@@ -1152,7 +1221,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1366,6 +1435,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2226,7 +2301,7 @@
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="585">
+  <cellXfs count="586">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3314,6 +3389,132 @@
     <xf numFmtId="14" fontId="9" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3338,12 +3539,6 @@
     <xf numFmtId="0" fontId="7" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3356,125 +3551,89 @@
     <xf numFmtId="0" fontId="5" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="5" fillId="33" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="33" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="33" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="33" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="33" borderId="62" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="60" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="60" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="31" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3491,89 +3650,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="31" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="62" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="60" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="60" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="33" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="33" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="52" fillId="26" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3584,9 +3676,6 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3605,23 +3694,84 @@
     <xf numFmtId="0" fontId="55" fillId="34" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="29" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3646,137 +3796,119 @@
     <xf numFmtId="166" fontId="16" fillId="33" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="29" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="33" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="33" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="33" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="33" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3796,62 +3928,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="30" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3871,62 +4003,8 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4127,11 +4205,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="435676408"/>
-        <c:axId val="435673664"/>
+        <c:axId val="423212456"/>
+        <c:axId val="423216376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="435676408"/>
+        <c:axId val="423212456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,7 +4250,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435673664"/>
+        <c:crossAx val="423216376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4180,7 +4258,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435673664"/>
+        <c:axId val="423216376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4230,7 +4308,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435676408"/>
+        <c:crossAx val="423212456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4244,7 +4322,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4670,12 +4747,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="435679544"/>
-        <c:axId val="435674840"/>
+        <c:axId val="423212848"/>
+        <c:axId val="423211280"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="435679544"/>
+        <c:axId val="423212848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4711,7 +4788,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435674840"/>
+        <c:crossAx val="423211280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4719,7 +4796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="435674840"/>
+        <c:axId val="423211280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4764,7 +4841,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4823,7 +4899,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="435679544"/>
+        <c:crossAx val="423212848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4837,7 +4913,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5445,7 +5520,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5481,7 +5556,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5841,20 +5916,20 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="38"/>
-      <c r="B2" s="379" t="s">
+      <c r="B2" s="421" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="380"/>
-      <c r="D2" s="380"/>
-      <c r="E2" s="380"/>
-      <c r="F2" s="380"/>
-      <c r="G2" s="381"/>
-      <c r="H2" s="382"/>
-      <c r="I2" s="382"/>
-      <c r="J2" s="382"/>
-      <c r="K2" s="382"/>
-      <c r="L2" s="380"/>
-      <c r="M2" s="383"/>
+      <c r="C2" s="422"/>
+      <c r="D2" s="422"/>
+      <c r="E2" s="422"/>
+      <c r="F2" s="422"/>
+      <c r="G2" s="423"/>
+      <c r="H2" s="424"/>
+      <c r="I2" s="424"/>
+      <c r="J2" s="424"/>
+      <c r="K2" s="424"/>
+      <c r="L2" s="422"/>
+      <c r="M2" s="425"/>
       <c r="N2" s="39"/>
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
@@ -5870,17 +5945,17 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="384"/>
-      <c r="C3" s="385"/>
-      <c r="D3" s="385"/>
-      <c r="E3" s="385"/>
-      <c r="F3" s="385"/>
-      <c r="G3" s="385"/>
-      <c r="H3" s="385"/>
-      <c r="I3" s="385"/>
-      <c r="J3" s="385"/>
-      <c r="K3" s="385"/>
-      <c r="L3" s="386"/>
+      <c r="B3" s="426"/>
+      <c r="C3" s="427"/>
+      <c r="D3" s="427"/>
+      <c r="E3" s="427"/>
+      <c r="F3" s="427"/>
+      <c r="G3" s="427"/>
+      <c r="H3" s="427"/>
+      <c r="I3" s="427"/>
+      <c r="J3" s="427"/>
+      <c r="K3" s="427"/>
+      <c r="L3" s="428"/>
       <c r="M3" s="41" t="s">
         <v>1</v>
       </c>
@@ -5899,17 +5974,17 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
-      <c r="B4" s="384"/>
-      <c r="C4" s="385"/>
-      <c r="D4" s="385"/>
-      <c r="E4" s="385"/>
-      <c r="F4" s="385"/>
-      <c r="G4" s="385"/>
-      <c r="H4" s="385"/>
-      <c r="I4" s="385"/>
-      <c r="J4" s="385"/>
-      <c r="K4" s="385"/>
-      <c r="L4" s="386"/>
+      <c r="B4" s="426"/>
+      <c r="C4" s="427"/>
+      <c r="D4" s="427"/>
+      <c r="E4" s="427"/>
+      <c r="F4" s="427"/>
+      <c r="G4" s="427"/>
+      <c r="H4" s="427"/>
+      <c r="I4" s="427"/>
+      <c r="J4" s="427"/>
+      <c r="K4" s="427"/>
+      <c r="L4" s="428"/>
       <c r="M4" s="203"/>
       <c r="N4" s="39"/>
       <c r="O4" s="36"/>
@@ -5960,17 +6035,17 @@
       <c r="B6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="387"/>
-      <c r="D6" s="388"/>
-      <c r="E6" s="388"/>
-      <c r="F6" s="388"/>
-      <c r="G6" s="388"/>
-      <c r="H6" s="388"/>
-      <c r="I6" s="388"/>
-      <c r="J6" s="388"/>
-      <c r="K6" s="388"/>
-      <c r="L6" s="388"/>
-      <c r="M6" s="389"/>
+      <c r="C6" s="391"/>
+      <c r="D6" s="392"/>
+      <c r="E6" s="392"/>
+      <c r="F6" s="392"/>
+      <c r="G6" s="392"/>
+      <c r="H6" s="392"/>
+      <c r="I6" s="392"/>
+      <c r="J6" s="392"/>
+      <c r="K6" s="392"/>
+      <c r="L6" s="392"/>
+      <c r="M6" s="429"/>
       <c r="N6" s="39"/>
       <c r="O6" s="36"/>
       <c r="P6" s="36"/>
@@ -5989,17 +6064,17 @@
       <c r="B7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="390"/>
-      <c r="D7" s="391"/>
-      <c r="E7" s="391"/>
-      <c r="F7" s="391"/>
-      <c r="G7" s="391"/>
-      <c r="H7" s="391"/>
-      <c r="I7" s="391"/>
-      <c r="J7" s="391"/>
-      <c r="K7" s="391"/>
-      <c r="L7" s="391"/>
-      <c r="M7" s="392"/>
+      <c r="C7" s="430"/>
+      <c r="D7" s="431"/>
+      <c r="E7" s="431"/>
+      <c r="F7" s="431"/>
+      <c r="G7" s="431"/>
+      <c r="H7" s="431"/>
+      <c r="I7" s="431"/>
+      <c r="J7" s="431"/>
+      <c r="K7" s="431"/>
+      <c r="L7" s="431"/>
+      <c r="M7" s="432"/>
       <c r="N7" s="39"/>
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
@@ -6018,17 +6093,17 @@
       <c r="B8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="390"/>
-      <c r="D8" s="391"/>
-      <c r="E8" s="391"/>
-      <c r="F8" s="391"/>
-      <c r="G8" s="391"/>
-      <c r="H8" s="391"/>
-      <c r="I8" s="391"/>
-      <c r="J8" s="391"/>
-      <c r="K8" s="391"/>
-      <c r="L8" s="391"/>
-      <c r="M8" s="392"/>
+      <c r="C8" s="430"/>
+      <c r="D8" s="431"/>
+      <c r="E8" s="431"/>
+      <c r="F8" s="431"/>
+      <c r="G8" s="431"/>
+      <c r="H8" s="431"/>
+      <c r="I8" s="431"/>
+      <c r="J8" s="431"/>
+      <c r="K8" s="431"/>
+      <c r="L8" s="431"/>
+      <c r="M8" s="432"/>
       <c r="N8" s="39"/>
       <c r="O8" s="36"/>
       <c r="P8" s="36"/>
@@ -6047,17 +6122,17 @@
       <c r="B9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="393"/>
-      <c r="D9" s="394"/>
-      <c r="E9" s="394"/>
-      <c r="F9" s="394"/>
-      <c r="G9" s="394"/>
-      <c r="H9" s="394"/>
-      <c r="I9" s="394"/>
-      <c r="J9" s="394"/>
-      <c r="K9" s="394"/>
-      <c r="L9" s="394"/>
-      <c r="M9" s="395"/>
+      <c r="C9" s="407"/>
+      <c r="D9" s="408"/>
+      <c r="E9" s="408"/>
+      <c r="F9" s="408"/>
+      <c r="G9" s="408"/>
+      <c r="H9" s="408"/>
+      <c r="I9" s="408"/>
+      <c r="J9" s="408"/>
+      <c r="K9" s="408"/>
+      <c r="L9" s="408"/>
+      <c r="M9" s="409"/>
       <c r="N9" s="39"/>
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
@@ -6100,20 +6175,20 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="38"/>
-      <c r="B11" s="396" t="s">
+      <c r="B11" s="410" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="397"/>
-      <c r="D11" s="397"/>
-      <c r="E11" s="397"/>
-      <c r="F11" s="397"/>
-      <c r="G11" s="397"/>
-      <c r="H11" s="397"/>
-      <c r="I11" s="397"/>
-      <c r="J11" s="397"/>
-      <c r="K11" s="397"/>
-      <c r="L11" s="397"/>
-      <c r="M11" s="398"/>
+      <c r="C11" s="411"/>
+      <c r="D11" s="411"/>
+      <c r="E11" s="411"/>
+      <c r="F11" s="411"/>
+      <c r="G11" s="411"/>
+      <c r="H11" s="411"/>
+      <c r="I11" s="411"/>
+      <c r="J11" s="411"/>
+      <c r="K11" s="411"/>
+      <c r="L11" s="411"/>
+      <c r="M11" s="412"/>
       <c r="N11" s="39"/>
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
@@ -6138,14 +6213,14 @@
       <c r="D12" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="399" t="s">
+      <c r="E12" s="413" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="400"/>
-      <c r="G12" s="400"/>
-      <c r="H12" s="400"/>
-      <c r="I12" s="400"/>
-      <c r="J12" s="401"/>
+      <c r="F12" s="414"/>
+      <c r="G12" s="414"/>
+      <c r="H12" s="414"/>
+      <c r="I12" s="414"/>
+      <c r="J12" s="415"/>
       <c r="K12" s="354" t="s">
         <v>13</v>
       </c>
@@ -6163,27 +6238,27 @@
       <c r="S12" s="36"/>
       <c r="T12" s="36"/>
       <c r="U12" s="36"/>
-      <c r="V12" s="402" t="s">
+      <c r="V12" s="416" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="402"/>
-      <c r="X12" s="402"/>
+      <c r="W12" s="416"/>
+      <c r="X12" s="416"/>
       <c r="Y12" s="48"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
-      <c r="B13" s="403"/>
-      <c r="C13" s="404"/>
-      <c r="D13" s="404"/>
-      <c r="E13" s="405"/>
-      <c r="F13" s="406"/>
-      <c r="G13" s="407"/>
-      <c r="H13" s="407"/>
-      <c r="I13" s="407"/>
-      <c r="J13" s="408"/>
-      <c r="K13" s="412"/>
-      <c r="L13" s="409"/>
-      <c r="M13" s="411"/>
+      <c r="B13" s="383"/>
+      <c r="C13" s="385"/>
+      <c r="D13" s="385"/>
+      <c r="E13" s="417"/>
+      <c r="F13" s="418"/>
+      <c r="G13" s="419"/>
+      <c r="H13" s="419"/>
+      <c r="I13" s="419"/>
+      <c r="J13" s="420"/>
+      <c r="K13" s="389"/>
+      <c r="L13" s="387"/>
+      <c r="M13" s="379"/>
       <c r="N13" s="39"/>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
@@ -6205,18 +6280,18 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
-      <c r="B14" s="403"/>
-      <c r="C14" s="404"/>
-      <c r="D14" s="404"/>
-      <c r="E14" s="405"/>
-      <c r="F14" s="406"/>
-      <c r="G14" s="407"/>
-      <c r="H14" s="407"/>
-      <c r="I14" s="407"/>
-      <c r="J14" s="408"/>
-      <c r="K14" s="413"/>
-      <c r="L14" s="410"/>
-      <c r="M14" s="411"/>
+      <c r="B14" s="383"/>
+      <c r="C14" s="385"/>
+      <c r="D14" s="385"/>
+      <c r="E14" s="417"/>
+      <c r="F14" s="418"/>
+      <c r="G14" s="419"/>
+      <c r="H14" s="419"/>
+      <c r="I14" s="419"/>
+      <c r="J14" s="420"/>
+      <c r="K14" s="390"/>
+      <c r="L14" s="388"/>
+      <c r="M14" s="379"/>
       <c r="N14" s="39"/>
       <c r="O14" s="36"/>
       <c r="P14" s="36"/>
@@ -6240,18 +6315,18 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
-      <c r="B15" s="403"/>
-      <c r="C15" s="404"/>
-      <c r="D15" s="404"/>
-      <c r="E15" s="387"/>
-      <c r="F15" s="388"/>
-      <c r="G15" s="388"/>
-      <c r="H15" s="388"/>
-      <c r="I15" s="388"/>
-      <c r="J15" s="429"/>
-      <c r="K15" s="412"/>
-      <c r="L15" s="409"/>
-      <c r="M15" s="411"/>
+      <c r="B15" s="383"/>
+      <c r="C15" s="385"/>
+      <c r="D15" s="385"/>
+      <c r="E15" s="391"/>
+      <c r="F15" s="392"/>
+      <c r="G15" s="392"/>
+      <c r="H15" s="392"/>
+      <c r="I15" s="392"/>
+      <c r="J15" s="393"/>
+      <c r="K15" s="389"/>
+      <c r="L15" s="387"/>
+      <c r="M15" s="379"/>
       <c r="N15" s="39"/>
       <c r="O15" s="36"/>
       <c r="P15" s="36"/>
@@ -6275,18 +6350,18 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
-      <c r="B16" s="416"/>
-      <c r="C16" s="428"/>
-      <c r="D16" s="428"/>
-      <c r="E16" s="430"/>
-      <c r="F16" s="431"/>
-      <c r="G16" s="431"/>
-      <c r="H16" s="431"/>
-      <c r="I16" s="431"/>
-      <c r="J16" s="432"/>
-      <c r="K16" s="413"/>
-      <c r="L16" s="410"/>
-      <c r="M16" s="411"/>
+      <c r="B16" s="384"/>
+      <c r="C16" s="386"/>
+      <c r="D16" s="386"/>
+      <c r="E16" s="394"/>
+      <c r="F16" s="395"/>
+      <c r="G16" s="395"/>
+      <c r="H16" s="395"/>
+      <c r="I16" s="395"/>
+      <c r="J16" s="396"/>
+      <c r="K16" s="390"/>
+      <c r="L16" s="388"/>
+      <c r="M16" s="379"/>
       <c r="N16" s="39"/>
       <c r="O16" s="36"/>
       <c r="P16" s="36"/>
@@ -6310,18 +6385,18 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
-      <c r="B17" s="403"/>
-      <c r="C17" s="404"/>
-      <c r="D17" s="404"/>
-      <c r="E17" s="387"/>
-      <c r="F17" s="388"/>
-      <c r="G17" s="388"/>
-      <c r="H17" s="388"/>
-      <c r="I17" s="388"/>
-      <c r="J17" s="429"/>
-      <c r="K17" s="412"/>
-      <c r="L17" s="409"/>
-      <c r="M17" s="411"/>
+      <c r="B17" s="383"/>
+      <c r="C17" s="385"/>
+      <c r="D17" s="385"/>
+      <c r="E17" s="391"/>
+      <c r="F17" s="392"/>
+      <c r="G17" s="392"/>
+      <c r="H17" s="392"/>
+      <c r="I17" s="392"/>
+      <c r="J17" s="393"/>
+      <c r="K17" s="389"/>
+      <c r="L17" s="387"/>
+      <c r="M17" s="379"/>
       <c r="N17" s="39"/>
       <c r="O17" s="36"/>
       <c r="P17" s="36"/>
@@ -6337,18 +6412,18 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
-      <c r="B18" s="416"/>
-      <c r="C18" s="428"/>
-      <c r="D18" s="428"/>
-      <c r="E18" s="430"/>
-      <c r="F18" s="431"/>
-      <c r="G18" s="431"/>
-      <c r="H18" s="431"/>
-      <c r="I18" s="431"/>
-      <c r="J18" s="432"/>
-      <c r="K18" s="413"/>
-      <c r="L18" s="410"/>
-      <c r="M18" s="411"/>
+      <c r="B18" s="384"/>
+      <c r="C18" s="386"/>
+      <c r="D18" s="386"/>
+      <c r="E18" s="394"/>
+      <c r="F18" s="395"/>
+      <c r="G18" s="395"/>
+      <c r="H18" s="395"/>
+      <c r="I18" s="395"/>
+      <c r="J18" s="396"/>
+      <c r="K18" s="390"/>
+      <c r="L18" s="388"/>
+      <c r="M18" s="379"/>
       <c r="N18" s="39"/>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
@@ -6364,18 +6439,18 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
-      <c r="B19" s="403"/>
-      <c r="C19" s="404"/>
-      <c r="D19" s="404"/>
-      <c r="E19" s="419"/>
-      <c r="F19" s="420"/>
-      <c r="G19" s="420"/>
-      <c r="H19" s="420"/>
-      <c r="I19" s="420"/>
-      <c r="J19" s="421"/>
-      <c r="K19" s="417"/>
-      <c r="L19" s="410"/>
-      <c r="M19" s="411"/>
+      <c r="B19" s="383"/>
+      <c r="C19" s="385"/>
+      <c r="D19" s="385"/>
+      <c r="E19" s="401"/>
+      <c r="F19" s="402"/>
+      <c r="G19" s="402"/>
+      <c r="H19" s="402"/>
+      <c r="I19" s="402"/>
+      <c r="J19" s="403"/>
+      <c r="K19" s="399"/>
+      <c r="L19" s="388"/>
+      <c r="M19" s="379"/>
       <c r="N19" s="39"/>
       <c r="O19" s="36"/>
       <c r="P19" s="36"/>
@@ -6391,18 +6466,18 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="416"/>
-      <c r="C20" s="404"/>
-      <c r="D20" s="404"/>
-      <c r="E20" s="422"/>
-      <c r="F20" s="423"/>
-      <c r="G20" s="423"/>
-      <c r="H20" s="423"/>
-      <c r="I20" s="423"/>
-      <c r="J20" s="424"/>
-      <c r="K20" s="418"/>
-      <c r="L20" s="410"/>
-      <c r="M20" s="411"/>
+      <c r="B20" s="384"/>
+      <c r="C20" s="385"/>
+      <c r="D20" s="385"/>
+      <c r="E20" s="404"/>
+      <c r="F20" s="405"/>
+      <c r="G20" s="405"/>
+      <c r="H20" s="405"/>
+      <c r="I20" s="405"/>
+      <c r="J20" s="406"/>
+      <c r="K20" s="400"/>
+      <c r="L20" s="388"/>
+      <c r="M20" s="379"/>
       <c r="N20" s="39"/>
       <c r="O20" s="36"/>
       <c r="P20" s="36"/>
@@ -6445,14 +6520,14 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
-      <c r="B22" s="425" t="s">
+      <c r="B22" s="380" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="426"/>
-      <c r="D22" s="426"/>
-      <c r="E22" s="426"/>
-      <c r="F22" s="426"/>
-      <c r="G22" s="427"/>
+      <c r="C22" s="381"/>
+      <c r="D22" s="381"/>
+      <c r="E22" s="381"/>
+      <c r="F22" s="381"/>
+      <c r="G22" s="382"/>
       <c r="H22" s="63"/>
       <c r="I22" s="64"/>
       <c r="J22" s="64"/>
@@ -6474,7 +6549,7 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="65"/>
-      <c r="B23" s="414" t="s">
+      <c r="B23" s="397" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="66" t="s">
@@ -6511,7 +6586,7 @@
     </row>
     <row r="24" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="65"/>
-      <c r="B24" s="415"/>
+      <c r="B24" s="398"/>
       <c r="C24" s="71" t="s">
         <v>22</v>
       </c>
@@ -6978,6 +7053,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="E19:J20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="M15:M16"/>
@@ -6994,29 +7092,6 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="E15:J16"/>
     <mergeCell ref="E17:J18"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="E19:J20"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:J14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape"/>
@@ -7045,14 +7120,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="560" t="s">
+      <c r="A1" s="579" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="561"/>
-      <c r="C1" s="561"/>
-      <c r="D1" s="561"/>
-      <c r="E1" s="561"/>
-      <c r="F1" s="562"/>
+      <c r="B1" s="580"/>
+      <c r="C1" s="580"/>
+      <c r="D1" s="580"/>
+      <c r="E1" s="580"/>
+      <c r="F1" s="581"/>
       <c r="G1" s="173"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7065,11 +7140,11 @@
       <c r="C2" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="486" t="s">
+      <c r="D2" s="511" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="486"/>
-      <c r="F2" s="486"/>
+      <c r="E2" s="511"/>
+      <c r="F2" s="511"/>
       <c r="G2" s="175"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7084,11 +7159,11 @@
         <f>B3/4</f>
         <v>7.375</v>
       </c>
-      <c r="D3" s="563" t="s">
+      <c r="D3" s="582" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="564"/>
-      <c r="F3" s="565"/>
+      <c r="E3" s="583"/>
+      <c r="F3" s="584"/>
       <c r="G3" s="173"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7103,11 +7178,11 @@
         <f>B4/4</f>
         <v>9.75</v>
       </c>
-      <c r="D4" s="566" t="s">
+      <c r="D4" s="568" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="567"/>
-      <c r="F4" s="568"/>
+      <c r="E4" s="569"/>
+      <c r="F4" s="570"/>
       <c r="G4" s="173"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7122,9 +7197,9 @@
         <f>B5/4</f>
         <v>7.25</v>
       </c>
-      <c r="D5" s="566"/>
-      <c r="E5" s="567"/>
-      <c r="F5" s="568"/>
+      <c r="D5" s="568"/>
+      <c r="E5" s="569"/>
+      <c r="F5" s="570"/>
       <c r="G5" s="173"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7139,9 +7214,9 @@
         <f>B6/4</f>
         <v>4.75</v>
       </c>
-      <c r="D6" s="566"/>
-      <c r="E6" s="567"/>
-      <c r="F6" s="568"/>
+      <c r="D6" s="568"/>
+      <c r="E6" s="569"/>
+      <c r="F6" s="570"/>
       <c r="G6" s="173"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7156,78 +7231,78 @@
         <f>B7/4</f>
         <v>6.125</v>
       </c>
-      <c r="D7" s="566"/>
-      <c r="E7" s="567"/>
-      <c r="F7" s="568"/>
+      <c r="D7" s="568"/>
+      <c r="E7" s="569"/>
+      <c r="F7" s="570"/>
       <c r="G7" s="173"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="569" t="s">
+      <c r="A8" s="571" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="571">
+      <c r="B8" s="573">
         <f>IF((SUM(B3:B7)=0),"",SUM(B3:B7))</f>
         <v>141</v>
       </c>
-      <c r="C8" s="571">
+      <c r="C8" s="573">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v>35.25</v>
       </c>
-      <c r="D8" s="566"/>
-      <c r="E8" s="567"/>
-      <c r="F8" s="568"/>
+      <c r="D8" s="568"/>
+      <c r="E8" s="569"/>
+      <c r="F8" s="570"/>
       <c r="G8" s="173"/>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="570"/>
-      <c r="B9" s="572"/>
-      <c r="C9" s="573"/>
-      <c r="D9" s="574"/>
-      <c r="E9" s="575"/>
-      <c r="F9" s="576"/>
+      <c r="A9" s="572"/>
+      <c r="B9" s="574"/>
+      <c r="C9" s="575"/>
+      <c r="D9" s="576"/>
+      <c r="E9" s="577"/>
+      <c r="F9" s="578"/>
       <c r="G9" s="173"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="577" t="s">
+      <c r="A10" s="560" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="578"/>
-      <c r="C10" s="578"/>
-      <c r="D10" s="578"/>
-      <c r="E10" s="579"/>
-      <c r="F10" s="578"/>
+      <c r="B10" s="561"/>
+      <c r="C10" s="561"/>
+      <c r="D10" s="561"/>
+      <c r="E10" s="562"/>
+      <c r="F10" s="561"/>
       <c r="G10" s="175"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="580" t="s">
+      <c r="A11" s="563" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="414" t="s">
+      <c r="B11" s="397" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="399" t="s">
+      <c r="C11" s="413" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="401"/>
-      <c r="E11" s="581" t="s">
+      <c r="D11" s="415"/>
+      <c r="E11" s="564" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="583" t="s">
+      <c r="F11" s="566" t="s">
         <v>182</v>
       </c>
       <c r="G11" s="173"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="580"/>
-      <c r="B12" s="414"/>
+      <c r="A12" s="563"/>
+      <c r="B12" s="397"/>
       <c r="C12" s="369" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="180" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="582"/>
-      <c r="F12" s="584"/>
+      <c r="E12" s="565"/>
+      <c r="F12" s="567"/>
       <c r="G12" s="173"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8555,12 +8630,11 @@
   </sheetData>
   <autoFilter ref="A12:F12"/>
   <mergeCells count="18">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:A9"/>
@@ -8568,11 +8642,12 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8650,17 +8725,17 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="312"/>
-      <c r="B2" s="433" t="s">
+      <c r="B2" s="461" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="434"/>
-      <c r="D2" s="433"/>
-      <c r="E2" s="433"/>
-      <c r="F2" s="433"/>
-      <c r="G2" s="435"/>
-      <c r="H2" s="433"/>
-      <c r="I2" s="433"/>
-      <c r="J2" s="433"/>
+      <c r="C2" s="462"/>
+      <c r="D2" s="461"/>
+      <c r="E2" s="461"/>
+      <c r="F2" s="461"/>
+      <c r="G2" s="463"/>
+      <c r="H2" s="461"/>
+      <c r="I2" s="461"/>
+      <c r="J2" s="461"/>
       <c r="K2" s="313"/>
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
@@ -8699,10 +8774,10 @@
       <c r="B3" s="315" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="436" t="s">
+      <c r="C3" s="464" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="437"/>
+      <c r="D3" s="465"/>
       <c r="E3" s="316" t="s">
         <v>30</v>
       </c>
@@ -8756,7 +8831,7 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="312"/>
-      <c r="B4" s="438"/>
+      <c r="B4" s="454"/>
       <c r="C4" s="228"/>
       <c r="D4" s="323"/>
       <c r="E4" s="355"/>
@@ -8800,7 +8875,7 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="312"/>
-      <c r="B5" s="438"/>
+      <c r="B5" s="454"/>
       <c r="C5" s="228"/>
       <c r="D5" s="357"/>
       <c r="E5" s="355"/>
@@ -8844,7 +8919,7 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="312"/>
-      <c r="B6" s="438"/>
+      <c r="B6" s="454"/>
       <c r="C6" s="228"/>
       <c r="D6" s="357"/>
       <c r="E6" s="355"/>
@@ -8888,7 +8963,7 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="312"/>
-      <c r="B7" s="438"/>
+      <c r="B7" s="454"/>
       <c r="C7" s="228"/>
       <c r="D7" s="357"/>
       <c r="E7" s="370"/>
@@ -8932,7 +9007,7 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="312"/>
-      <c r="B8" s="438"/>
+      <c r="B8" s="454"/>
       <c r="C8" s="228"/>
       <c r="D8" s="357"/>
       <c r="E8" s="355"/>
@@ -8976,7 +9051,7 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="312"/>
-      <c r="B9" s="438"/>
+      <c r="B9" s="454"/>
       <c r="C9" s="284"/>
       <c r="D9" s="357"/>
       <c r="E9" s="355"/>
@@ -9020,15 +9095,15 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="312"/>
-      <c r="B10" s="439"/>
-      <c r="C10" s="440"/>
-      <c r="D10" s="441"/>
-      <c r="E10" s="442"/>
-      <c r="F10" s="443"/>
-      <c r="G10" s="444"/>
-      <c r="H10" s="442"/>
-      <c r="I10" s="442"/>
-      <c r="J10" s="442"/>
+      <c r="B10" s="451"/>
+      <c r="C10" s="453"/>
+      <c r="D10" s="438"/>
+      <c r="E10" s="436"/>
+      <c r="F10" s="452"/>
+      <c r="G10" s="439"/>
+      <c r="H10" s="436"/>
+      <c r="I10" s="436"/>
+      <c r="J10" s="436"/>
       <c r="K10" s="313"/>
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
@@ -9064,7 +9139,7 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="327"/>
-      <c r="B11" s="438"/>
+      <c r="B11" s="454"/>
       <c r="C11" s="228"/>
       <c r="D11" s="357"/>
       <c r="E11" s="355"/>
@@ -9108,7 +9183,7 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="327"/>
-      <c r="B12" s="438"/>
+      <c r="B12" s="454"/>
       <c r="C12" s="228"/>
       <c r="D12" s="357"/>
       <c r="E12" s="355"/>
@@ -9152,7 +9227,7 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="327"/>
-      <c r="B13" s="438"/>
+      <c r="B13" s="454"/>
       <c r="C13" s="228"/>
       <c r="D13" s="357"/>
       <c r="E13" s="355"/>
@@ -9196,7 +9271,7 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="327"/>
-      <c r="B14" s="438"/>
+      <c r="B14" s="454"/>
       <c r="C14" s="228"/>
       <c r="D14" s="357"/>
       <c r="E14" s="355"/>
@@ -9240,7 +9315,7 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="312"/>
-      <c r="B15" s="438"/>
+      <c r="B15" s="454"/>
       <c r="C15" s="228"/>
       <c r="D15" s="357"/>
       <c r="E15" s="355"/>
@@ -9284,7 +9359,7 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="312"/>
-      <c r="B16" s="438"/>
+      <c r="B16" s="454"/>
       <c r="C16" s="284"/>
       <c r="D16" s="357"/>
       <c r="E16" s="355"/>
@@ -9328,15 +9403,15 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="312"/>
-      <c r="B17" s="439"/>
-      <c r="C17" s="440"/>
-      <c r="D17" s="441"/>
-      <c r="E17" s="442"/>
-      <c r="F17" s="443"/>
-      <c r="G17" s="444"/>
-      <c r="H17" s="442"/>
-      <c r="I17" s="442"/>
-      <c r="J17" s="442"/>
+      <c r="B17" s="451"/>
+      <c r="C17" s="453"/>
+      <c r="D17" s="438"/>
+      <c r="E17" s="436"/>
+      <c r="F17" s="452"/>
+      <c r="G17" s="439"/>
+      <c r="H17" s="436"/>
+      <c r="I17" s="436"/>
+      <c r="J17" s="436"/>
       <c r="K17" s="313"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
@@ -9372,7 +9447,7 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="312"/>
-      <c r="B18" s="438"/>
+      <c r="B18" s="454"/>
       <c r="C18" s="228"/>
       <c r="D18" s="357"/>
       <c r="E18" s="355"/>
@@ -9416,7 +9491,7 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="312"/>
-      <c r="B19" s="438"/>
+      <c r="B19" s="454"/>
       <c r="C19" s="228"/>
       <c r="D19" s="357"/>
       <c r="E19" s="355"/>
@@ -9460,7 +9535,7 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="312"/>
-      <c r="B20" s="438"/>
+      <c r="B20" s="454"/>
       <c r="C20" s="228"/>
       <c r="D20" s="357"/>
       <c r="E20" s="355"/>
@@ -9504,7 +9579,7 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="312"/>
-      <c r="B21" s="438"/>
+      <c r="B21" s="454"/>
       <c r="C21" s="228"/>
       <c r="D21" s="357"/>
       <c r="E21" s="355"/>
@@ -9548,7 +9623,7 @@
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="312"/>
-      <c r="B22" s="438"/>
+      <c r="B22" s="454"/>
       <c r="C22" s="228"/>
       <c r="D22" s="357"/>
       <c r="E22" s="355"/>
@@ -9592,7 +9667,7 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="312"/>
-      <c r="B23" s="438"/>
+      <c r="B23" s="454"/>
       <c r="C23" s="351"/>
       <c r="D23" s="357"/>
       <c r="E23" s="355"/>
@@ -9636,15 +9711,15 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="312"/>
-      <c r="B24" s="439"/>
-      <c r="C24" s="440"/>
-      <c r="D24" s="441"/>
-      <c r="E24" s="442"/>
-      <c r="F24" s="443"/>
-      <c r="G24" s="444"/>
-      <c r="H24" s="442"/>
-      <c r="I24" s="442"/>
-      <c r="J24" s="442"/>
+      <c r="B24" s="451"/>
+      <c r="C24" s="453"/>
+      <c r="D24" s="438"/>
+      <c r="E24" s="436"/>
+      <c r="F24" s="452"/>
+      <c r="G24" s="439"/>
+      <c r="H24" s="436"/>
+      <c r="I24" s="436"/>
+      <c r="J24" s="436"/>
       <c r="K24" s="313"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
@@ -9680,7 +9755,7 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="312"/>
-      <c r="B25" s="438"/>
+      <c r="B25" s="454"/>
       <c r="C25" s="228"/>
       <c r="D25" s="357"/>
       <c r="E25" s="355"/>
@@ -9724,7 +9799,7 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="312"/>
-      <c r="B26" s="438"/>
+      <c r="B26" s="454"/>
       <c r="C26" s="228"/>
       <c r="D26" s="357"/>
       <c r="E26" s="355"/>
@@ -9768,7 +9843,7 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="312"/>
-      <c r="B27" s="438"/>
+      <c r="B27" s="454"/>
       <c r="C27" s="228"/>
       <c r="D27" s="357"/>
       <c r="E27" s="355"/>
@@ -9812,7 +9887,7 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="312"/>
-      <c r="B28" s="438"/>
+      <c r="B28" s="454"/>
       <c r="C28" s="228"/>
       <c r="D28" s="357"/>
       <c r="E28" s="355"/>
@@ -9856,7 +9931,7 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="312"/>
-      <c r="B29" s="438"/>
+      <c r="B29" s="454"/>
       <c r="C29" s="228"/>
       <c r="D29" s="357"/>
       <c r="E29" s="355"/>
@@ -9900,7 +9975,7 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="312"/>
-      <c r="B30" s="438"/>
+      <c r="B30" s="454"/>
       <c r="C30" s="351"/>
       <c r="D30" s="357"/>
       <c r="E30" s="355"/>
@@ -9944,15 +10019,15 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="312"/>
-      <c r="B31" s="439"/>
-      <c r="C31" s="440"/>
-      <c r="D31" s="441"/>
-      <c r="E31" s="442"/>
-      <c r="F31" s="443"/>
-      <c r="G31" s="444"/>
-      <c r="H31" s="442"/>
-      <c r="I31" s="442"/>
-      <c r="J31" s="442"/>
+      <c r="B31" s="451"/>
+      <c r="C31" s="453"/>
+      <c r="D31" s="438"/>
+      <c r="E31" s="436"/>
+      <c r="F31" s="452"/>
+      <c r="G31" s="439"/>
+      <c r="H31" s="436"/>
+      <c r="I31" s="436"/>
+      <c r="J31" s="436"/>
       <c r="K31" s="313"/>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
@@ -9988,7 +10063,7 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="312"/>
-      <c r="B32" s="438"/>
+      <c r="B32" s="454"/>
       <c r="C32" s="228"/>
       <c r="D32" s="357"/>
       <c r="E32" s="355"/>
@@ -10032,7 +10107,7 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="312"/>
-      <c r="B33" s="438"/>
+      <c r="B33" s="454"/>
       <c r="C33" s="228"/>
       <c r="D33" s="357"/>
       <c r="E33" s="355"/>
@@ -10076,7 +10151,7 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="312"/>
-      <c r="B34" s="438"/>
+      <c r="B34" s="454"/>
       <c r="C34" s="228"/>
       <c r="D34" s="357"/>
       <c r="E34" s="355"/>
@@ -10120,7 +10195,7 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="312"/>
-      <c r="B35" s="438"/>
+      <c r="B35" s="454"/>
       <c r="C35" s="228"/>
       <c r="D35" s="357"/>
       <c r="E35" s="355"/>
@@ -10164,7 +10239,7 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="312"/>
-      <c r="B36" s="438"/>
+      <c r="B36" s="454"/>
       <c r="C36" s="228"/>
       <c r="D36" s="357"/>
       <c r="E36" s="355"/>
@@ -10208,7 +10283,7 @@
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="312"/>
-      <c r="B37" s="438"/>
+      <c r="B37" s="454"/>
       <c r="C37" s="351"/>
       <c r="D37" s="357"/>
       <c r="E37" s="355"/>
@@ -10252,15 +10327,15 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="312"/>
-      <c r="B38" s="439"/>
-      <c r="C38" s="440"/>
-      <c r="D38" s="441"/>
-      <c r="E38" s="442"/>
-      <c r="F38" s="443"/>
-      <c r="G38" s="444"/>
-      <c r="H38" s="442"/>
-      <c r="I38" s="442"/>
-      <c r="J38" s="442"/>
+      <c r="B38" s="451"/>
+      <c r="C38" s="453"/>
+      <c r="D38" s="438"/>
+      <c r="E38" s="436"/>
+      <c r="F38" s="452"/>
+      <c r="G38" s="439"/>
+      <c r="H38" s="436"/>
+      <c r="I38" s="436"/>
+      <c r="J38" s="436"/>
       <c r="K38" s="313"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
@@ -10296,7 +10371,7 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="312"/>
-      <c r="B39" s="438"/>
+      <c r="B39" s="454"/>
       <c r="C39" s="228"/>
       <c r="D39" s="357"/>
       <c r="E39" s="355"/>
@@ -10340,7 +10415,7 @@
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="312"/>
-      <c r="B40" s="438"/>
+      <c r="B40" s="454"/>
       <c r="C40" s="228"/>
       <c r="D40" s="357"/>
       <c r="E40" s="355"/>
@@ -10384,7 +10459,7 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="312"/>
-      <c r="B41" s="438"/>
+      <c r="B41" s="454"/>
       <c r="C41" s="228"/>
       <c r="D41" s="357"/>
       <c r="E41" s="355"/>
@@ -10428,7 +10503,7 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="312"/>
-      <c r="B42" s="438"/>
+      <c r="B42" s="454"/>
       <c r="C42" s="228"/>
       <c r="D42" s="357"/>
       <c r="E42" s="355"/>
@@ -10472,7 +10547,7 @@
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="312"/>
-      <c r="B43" s="438"/>
+      <c r="B43" s="454"/>
       <c r="C43" s="228"/>
       <c r="D43" s="357"/>
       <c r="E43" s="355"/>
@@ -10516,7 +10591,7 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="312"/>
-      <c r="B44" s="438"/>
+      <c r="B44" s="454"/>
       <c r="C44" s="351"/>
       <c r="D44" s="357"/>
       <c r="E44" s="355"/>
@@ -10560,15 +10635,15 @@
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="312"/>
-      <c r="B45" s="439"/>
-      <c r="C45" s="440"/>
-      <c r="D45" s="441"/>
-      <c r="E45" s="442"/>
-      <c r="F45" s="443"/>
-      <c r="G45" s="444"/>
-      <c r="H45" s="442"/>
-      <c r="I45" s="442"/>
-      <c r="J45" s="442"/>
+      <c r="B45" s="451"/>
+      <c r="C45" s="453"/>
+      <c r="D45" s="438"/>
+      <c r="E45" s="436"/>
+      <c r="F45" s="452"/>
+      <c r="G45" s="439"/>
+      <c r="H45" s="436"/>
+      <c r="I45" s="436"/>
+      <c r="J45" s="436"/>
       <c r="K45" s="313"/>
       <c r="L45" s="36"/>
       <c r="M45" s="36"/>
@@ -10604,7 +10679,7 @@
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="312"/>
-      <c r="B46" s="438"/>
+      <c r="B46" s="454"/>
       <c r="C46" s="228"/>
       <c r="D46" s="357"/>
       <c r="E46" s="355"/>
@@ -10648,7 +10723,7 @@
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="312"/>
-      <c r="B47" s="438"/>
+      <c r="B47" s="454"/>
       <c r="C47" s="228"/>
       <c r="D47" s="357"/>
       <c r="E47" s="355"/>
@@ -10692,7 +10767,7 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="312"/>
-      <c r="B48" s="438"/>
+      <c r="B48" s="454"/>
       <c r="C48" s="228"/>
       <c r="D48" s="357"/>
       <c r="E48" s="355"/>
@@ -10736,7 +10811,7 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="312"/>
-      <c r="B49" s="438"/>
+      <c r="B49" s="454"/>
       <c r="C49" s="228"/>
       <c r="D49" s="357"/>
       <c r="E49" s="355"/>
@@ -10780,7 +10855,7 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="312"/>
-      <c r="B50" s="438"/>
+      <c r="B50" s="454"/>
       <c r="C50" s="228"/>
       <c r="D50" s="357"/>
       <c r="E50" s="355"/>
@@ -10824,7 +10899,7 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="312"/>
-      <c r="B51" s="438"/>
+      <c r="B51" s="454"/>
       <c r="C51" s="351"/>
       <c r="D51" s="357"/>
       <c r="E51" s="355"/>
@@ -10868,15 +10943,15 @@
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="312"/>
-      <c r="B52" s="439"/>
-      <c r="C52" s="440"/>
-      <c r="D52" s="441"/>
-      <c r="E52" s="442"/>
-      <c r="F52" s="443"/>
-      <c r="G52" s="444"/>
-      <c r="H52" s="442"/>
-      <c r="I52" s="442"/>
-      <c r="J52" s="442"/>
+      <c r="B52" s="451"/>
+      <c r="C52" s="453"/>
+      <c r="D52" s="438"/>
+      <c r="E52" s="436"/>
+      <c r="F52" s="452"/>
+      <c r="G52" s="439"/>
+      <c r="H52" s="436"/>
+      <c r="I52" s="436"/>
+      <c r="J52" s="436"/>
       <c r="K52" s="313"/>
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
@@ -10912,7 +10987,7 @@
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="312"/>
-      <c r="B53" s="438"/>
+      <c r="B53" s="454"/>
       <c r="C53" s="228"/>
       <c r="D53" s="357"/>
       <c r="E53" s="355"/>
@@ -10956,7 +11031,7 @@
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="312"/>
-      <c r="B54" s="438"/>
+      <c r="B54" s="454"/>
       <c r="C54" s="228"/>
       <c r="D54" s="357"/>
       <c r="E54" s="355"/>
@@ -11000,7 +11075,7 @@
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="312"/>
-      <c r="B55" s="438"/>
+      <c r="B55" s="454"/>
       <c r="C55" s="228"/>
       <c r="D55" s="357"/>
       <c r="E55" s="355"/>
@@ -11044,7 +11119,7 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="312"/>
-      <c r="B56" s="438"/>
+      <c r="B56" s="454"/>
       <c r="C56" s="228"/>
       <c r="D56" s="357"/>
       <c r="E56" s="355"/>
@@ -11088,7 +11163,7 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="312"/>
-      <c r="B57" s="438"/>
+      <c r="B57" s="454"/>
       <c r="C57" s="228"/>
       <c r="D57" s="357"/>
       <c r="E57" s="355"/>
@@ -11132,7 +11207,7 @@
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="312"/>
-      <c r="B58" s="438"/>
+      <c r="B58" s="454"/>
       <c r="C58" s="351"/>
       <c r="D58" s="357"/>
       <c r="E58" s="355"/>
@@ -11176,17 +11251,17 @@
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="312"/>
-      <c r="B59" s="445" t="s">
+      <c r="B59" s="455" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="446"/>
-      <c r="D59" s="447"/>
-      <c r="E59" s="448"/>
-      <c r="F59" s="449"/>
-      <c r="G59" s="450"/>
-      <c r="H59" s="448"/>
-      <c r="I59" s="448"/>
-      <c r="J59" s="448"/>
+      <c r="C59" s="456"/>
+      <c r="D59" s="457"/>
+      <c r="E59" s="458"/>
+      <c r="F59" s="459"/>
+      <c r="G59" s="460"/>
+      <c r="H59" s="458"/>
+      <c r="I59" s="458"/>
+      <c r="J59" s="458"/>
       <c r="K59" s="313"/>
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
@@ -11222,7 +11297,7 @@
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="312"/>
-      <c r="B60" s="451"/>
+      <c r="B60" s="446"/>
       <c r="C60" s="228"/>
       <c r="D60" s="356"/>
       <c r="E60" s="84"/>
@@ -11266,7 +11341,7 @@
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="312"/>
-      <c r="B61" s="451"/>
+      <c r="B61" s="446"/>
       <c r="C61" s="228"/>
       <c r="D61" s="356"/>
       <c r="E61" s="84"/>
@@ -11310,7 +11385,7 @@
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="312"/>
-      <c r="B62" s="451"/>
+      <c r="B62" s="446"/>
       <c r="C62" s="228"/>
       <c r="D62" s="356"/>
       <c r="E62" s="84"/>
@@ -11354,7 +11429,7 @@
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="312"/>
-      <c r="B63" s="451"/>
+      <c r="B63" s="446"/>
       <c r="C63" s="228"/>
       <c r="D63" s="356"/>
       <c r="E63" s="355"/>
@@ -11398,7 +11473,7 @@
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="312"/>
-      <c r="B64" s="451"/>
+      <c r="B64" s="446"/>
       <c r="C64" s="228"/>
       <c r="D64" s="356"/>
       <c r="E64" s="355"/>
@@ -11442,7 +11517,7 @@
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="312"/>
-      <c r="B65" s="451"/>
+      <c r="B65" s="446"/>
       <c r="C65" s="351"/>
       <c r="D65" s="356"/>
       <c r="E65" s="355"/>
@@ -11486,15 +11561,15 @@
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="312"/>
-      <c r="B66" s="439"/>
-      <c r="C66" s="452"/>
-      <c r="D66" s="441"/>
-      <c r="E66" s="442"/>
-      <c r="F66" s="443"/>
-      <c r="G66" s="444"/>
-      <c r="H66" s="442"/>
-      <c r="I66" s="442"/>
-      <c r="J66" s="442"/>
+      <c r="B66" s="451"/>
+      <c r="C66" s="437"/>
+      <c r="D66" s="438"/>
+      <c r="E66" s="436"/>
+      <c r="F66" s="452"/>
+      <c r="G66" s="439"/>
+      <c r="H66" s="436"/>
+      <c r="I66" s="436"/>
+      <c r="J66" s="436"/>
       <c r="K66" s="313"/>
       <c r="L66" s="36"/>
       <c r="M66" s="36"/>
@@ -11530,7 +11605,7 @@
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="312"/>
-      <c r="B67" s="451"/>
+      <c r="B67" s="446"/>
       <c r="C67" s="228"/>
       <c r="D67" s="356"/>
       <c r="E67" s="84"/>
@@ -11574,7 +11649,7 @@
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="312"/>
-      <c r="B68" s="451"/>
+      <c r="B68" s="446"/>
       <c r="C68" s="228"/>
       <c r="D68" s="356"/>
       <c r="E68" s="355"/>
@@ -11618,7 +11693,7 @@
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="312"/>
-      <c r="B69" s="451"/>
+      <c r="B69" s="446"/>
       <c r="C69" s="228"/>
       <c r="D69" s="356"/>
       <c r="E69" s="355"/>
@@ -11662,7 +11737,7 @@
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="312"/>
-      <c r="B70" s="451"/>
+      <c r="B70" s="446"/>
       <c r="C70" s="228"/>
       <c r="D70" s="356"/>
       <c r="E70" s="355"/>
@@ -11706,7 +11781,7 @@
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="312"/>
-      <c r="B71" s="451"/>
+      <c r="B71" s="446"/>
       <c r="C71" s="228"/>
       <c r="D71" s="356"/>
       <c r="E71" s="84"/>
@@ -11750,7 +11825,7 @@
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="312"/>
-      <c r="B72" s="451"/>
+      <c r="B72" s="446"/>
       <c r="C72" s="351"/>
       <c r="D72" s="356"/>
       <c r="E72" s="355"/>
@@ -11794,15 +11869,15 @@
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="312"/>
-      <c r="B73" s="439"/>
-      <c r="C73" s="452"/>
-      <c r="D73" s="441"/>
-      <c r="E73" s="442"/>
-      <c r="F73" s="443"/>
-      <c r="G73" s="444"/>
-      <c r="H73" s="442"/>
-      <c r="I73" s="442"/>
-      <c r="J73" s="442"/>
+      <c r="B73" s="451"/>
+      <c r="C73" s="437"/>
+      <c r="D73" s="438"/>
+      <c r="E73" s="436"/>
+      <c r="F73" s="452"/>
+      <c r="G73" s="439"/>
+      <c r="H73" s="436"/>
+      <c r="I73" s="436"/>
+      <c r="J73" s="436"/>
       <c r="K73" s="313"/>
       <c r="L73" s="36"/>
       <c r="M73" s="36"/>
@@ -11838,7 +11913,7 @@
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="312"/>
-      <c r="B74" s="451"/>
+      <c r="B74" s="446"/>
       <c r="C74" s="228"/>
       <c r="D74" s="356"/>
       <c r="E74" s="84"/>
@@ -11882,7 +11957,7 @@
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="312"/>
-      <c r="B75" s="451"/>
+      <c r="B75" s="446"/>
       <c r="C75" s="228"/>
       <c r="D75" s="356"/>
       <c r="E75" s="84"/>
@@ -11926,7 +12001,7 @@
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="312"/>
-      <c r="B76" s="451"/>
+      <c r="B76" s="446"/>
       <c r="C76" s="228"/>
       <c r="D76" s="356"/>
       <c r="E76" s="355"/>
@@ -11970,7 +12045,7 @@
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="312"/>
-      <c r="B77" s="451"/>
+      <c r="B77" s="446"/>
       <c r="C77" s="228"/>
       <c r="D77" s="356"/>
       <c r="E77" s="355"/>
@@ -12014,7 +12089,7 @@
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="312"/>
-      <c r="B78" s="451"/>
+      <c r="B78" s="446"/>
       <c r="C78" s="228"/>
       <c r="D78" s="356"/>
       <c r="E78" s="355"/>
@@ -12058,7 +12133,7 @@
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="312"/>
-      <c r="B79" s="451"/>
+      <c r="B79" s="446"/>
       <c r="C79" s="351"/>
       <c r="D79" s="356"/>
       <c r="E79" s="355"/>
@@ -12102,15 +12177,15 @@
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="312"/>
-      <c r="B80" s="439"/>
-      <c r="C80" s="452"/>
-      <c r="D80" s="441"/>
-      <c r="E80" s="442"/>
-      <c r="F80" s="443"/>
-      <c r="G80" s="444"/>
-      <c r="H80" s="442"/>
-      <c r="I80" s="442"/>
-      <c r="J80" s="442"/>
+      <c r="B80" s="451"/>
+      <c r="C80" s="437"/>
+      <c r="D80" s="438"/>
+      <c r="E80" s="436"/>
+      <c r="F80" s="452"/>
+      <c r="G80" s="439"/>
+      <c r="H80" s="436"/>
+      <c r="I80" s="436"/>
+      <c r="J80" s="436"/>
       <c r="K80" s="313"/>
       <c r="L80" s="36"/>
       <c r="M80" s="36"/>
@@ -12146,7 +12221,7 @@
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="312"/>
-      <c r="B81" s="451"/>
+      <c r="B81" s="446"/>
       <c r="C81" s="228"/>
       <c r="D81" s="356"/>
       <c r="E81" s="355"/>
@@ -12190,7 +12265,7 @@
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="312"/>
-      <c r="B82" s="451"/>
+      <c r="B82" s="446"/>
       <c r="C82" s="228"/>
       <c r="D82" s="356"/>
       <c r="E82" s="355"/>
@@ -12234,7 +12309,7 @@
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="312"/>
-      <c r="B83" s="451"/>
+      <c r="B83" s="446"/>
       <c r="C83" s="228"/>
       <c r="D83" s="356"/>
       <c r="E83" s="227"/>
@@ -12278,7 +12353,7 @@
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="312"/>
-      <c r="B84" s="451"/>
+      <c r="B84" s="446"/>
       <c r="C84" s="228"/>
       <c r="D84" s="356"/>
       <c r="E84" s="355"/>
@@ -12322,7 +12397,7 @@
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="312"/>
-      <c r="B85" s="451"/>
+      <c r="B85" s="446"/>
       <c r="C85" s="228"/>
       <c r="D85" s="356"/>
       <c r="E85" s="355"/>
@@ -12366,7 +12441,7 @@
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="312"/>
-      <c r="B86" s="451"/>
+      <c r="B86" s="446"/>
       <c r="C86" s="351"/>
       <c r="D86" s="356"/>
       <c r="E86" s="355"/>
@@ -12410,15 +12485,15 @@
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="312"/>
-      <c r="B87" s="439"/>
-      <c r="C87" s="452"/>
-      <c r="D87" s="441"/>
-      <c r="E87" s="442"/>
-      <c r="F87" s="443"/>
-      <c r="G87" s="444"/>
-      <c r="H87" s="442"/>
-      <c r="I87" s="442"/>
-      <c r="J87" s="442"/>
+      <c r="B87" s="451"/>
+      <c r="C87" s="437"/>
+      <c r="D87" s="438"/>
+      <c r="E87" s="436"/>
+      <c r="F87" s="452"/>
+      <c r="G87" s="439"/>
+      <c r="H87" s="436"/>
+      <c r="I87" s="436"/>
+      <c r="J87" s="436"/>
       <c r="K87" s="313"/>
       <c r="L87" s="36"/>
       <c r="M87" s="36"/>
@@ -12454,7 +12529,7 @@
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="312"/>
-      <c r="B88" s="451"/>
+      <c r="B88" s="446"/>
       <c r="C88" s="228"/>
       <c r="D88" s="356"/>
       <c r="E88" s="355"/>
@@ -12498,7 +12573,7 @@
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="312"/>
-      <c r="B89" s="453"/>
+      <c r="B89" s="447"/>
       <c r="C89" s="228"/>
       <c r="D89" s="356"/>
       <c r="E89" s="355"/>
@@ -12542,7 +12617,7 @@
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="312"/>
-      <c r="B90" s="453"/>
+      <c r="B90" s="447"/>
       <c r="C90" s="228"/>
       <c r="D90" s="356"/>
       <c r="E90" s="355"/>
@@ -12586,7 +12661,7 @@
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="312"/>
-      <c r="B91" s="453"/>
+      <c r="B91" s="447"/>
       <c r="C91" s="228"/>
       <c r="D91" s="356"/>
       <c r="E91" s="355"/>
@@ -12630,7 +12705,7 @@
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="312"/>
-      <c r="B92" s="453"/>
+      <c r="B92" s="447"/>
       <c r="C92" s="228"/>
       <c r="D92" s="356"/>
       <c r="E92" s="355"/>
@@ -12674,7 +12749,7 @@
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="312"/>
-      <c r="B93" s="453"/>
+      <c r="B93" s="447"/>
       <c r="C93" s="351"/>
       <c r="D93" s="356"/>
       <c r="E93" s="355"/>
@@ -12718,15 +12793,15 @@
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="312"/>
-      <c r="B94" s="442"/>
-      <c r="C94" s="452"/>
-      <c r="D94" s="441"/>
-      <c r="E94" s="442"/>
-      <c r="F94" s="442"/>
-      <c r="G94" s="444"/>
-      <c r="H94" s="442"/>
-      <c r="I94" s="442"/>
-      <c r="J94" s="442"/>
+      <c r="B94" s="436"/>
+      <c r="C94" s="437"/>
+      <c r="D94" s="438"/>
+      <c r="E94" s="436"/>
+      <c r="F94" s="436"/>
+      <c r="G94" s="439"/>
+      <c r="H94" s="436"/>
+      <c r="I94" s="436"/>
+      <c r="J94" s="436"/>
       <c r="K94" s="313"/>
       <c r="L94" s="36"/>
       <c r="M94" s="36"/>
@@ -12762,7 +12837,7 @@
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="312"/>
-      <c r="B95" s="453"/>
+      <c r="B95" s="447"/>
       <c r="C95" s="228"/>
       <c r="D95" s="356"/>
       <c r="E95" s="355"/>
@@ -12806,7 +12881,7 @@
     </row>
     <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="312"/>
-      <c r="B96" s="453"/>
+      <c r="B96" s="447"/>
       <c r="C96" s="228"/>
       <c r="D96" s="356"/>
       <c r="E96" s="355"/>
@@ -12850,7 +12925,7 @@
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="312"/>
-      <c r="B97" s="453"/>
+      <c r="B97" s="447"/>
       <c r="C97" s="228"/>
       <c r="D97" s="356"/>
       <c r="E97" s="355"/>
@@ -12894,7 +12969,7 @@
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" s="312"/>
-      <c r="B98" s="453"/>
+      <c r="B98" s="447"/>
       <c r="C98" s="228"/>
       <c r="D98" s="356"/>
       <c r="E98" s="355"/>
@@ -12938,7 +13013,7 @@
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" s="312"/>
-      <c r="B99" s="453"/>
+      <c r="B99" s="447"/>
       <c r="C99" s="228"/>
       <c r="D99" s="356"/>
       <c r="E99" s="355"/>
@@ -12982,7 +13057,7 @@
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" s="312"/>
-      <c r="B100" s="453"/>
+      <c r="B100" s="447"/>
       <c r="C100" s="351"/>
       <c r="D100" s="356"/>
       <c r="E100" s="355"/>
@@ -13026,15 +13101,15 @@
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="312"/>
-      <c r="B101" s="442"/>
-      <c r="C101" s="452"/>
-      <c r="D101" s="441"/>
-      <c r="E101" s="442"/>
-      <c r="F101" s="442"/>
-      <c r="G101" s="444"/>
-      <c r="H101" s="442"/>
-      <c r="I101" s="442"/>
-      <c r="J101" s="442"/>
+      <c r="B101" s="436"/>
+      <c r="C101" s="437"/>
+      <c r="D101" s="438"/>
+      <c r="E101" s="436"/>
+      <c r="F101" s="436"/>
+      <c r="G101" s="439"/>
+      <c r="H101" s="436"/>
+      <c r="I101" s="436"/>
+      <c r="J101" s="436"/>
       <c r="K101" s="313"/>
       <c r="L101" s="36"/>
       <c r="M101" s="36"/>
@@ -13070,7 +13145,7 @@
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A102" s="312"/>
-      <c r="B102" s="454"/>
+      <c r="B102" s="448"/>
       <c r="C102" s="228"/>
       <c r="D102" s="356"/>
       <c r="E102" s="355"/>
@@ -13114,7 +13189,7 @@
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" s="312"/>
-      <c r="B103" s="453"/>
+      <c r="B103" s="447"/>
       <c r="C103" s="228"/>
       <c r="D103" s="356"/>
       <c r="E103" s="355"/>
@@ -13158,7 +13233,7 @@
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A104" s="312"/>
-      <c r="B104" s="453"/>
+      <c r="B104" s="447"/>
       <c r="C104" s="228"/>
       <c r="D104" s="356"/>
       <c r="E104" s="355"/>
@@ -13202,7 +13277,7 @@
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A105" s="312"/>
-      <c r="B105" s="453"/>
+      <c r="B105" s="447"/>
       <c r="C105" s="228"/>
       <c r="D105" s="356"/>
       <c r="E105" s="355"/>
@@ -13246,7 +13321,7 @@
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A106" s="312"/>
-      <c r="B106" s="453"/>
+      <c r="B106" s="447"/>
       <c r="C106" s="228"/>
       <c r="D106" s="356"/>
       <c r="E106" s="355"/>
@@ -13290,7 +13365,7 @@
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" s="312"/>
-      <c r="B107" s="453"/>
+      <c r="B107" s="447"/>
       <c r="C107" s="351"/>
       <c r="D107" s="356"/>
       <c r="E107" s="355"/>
@@ -13334,17 +13409,17 @@
     </row>
     <row r="108" spans="1:42" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A108" s="312"/>
-      <c r="B108" s="455" t="s">
+      <c r="B108" s="449" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="455"/>
-      <c r="D108" s="455"/>
-      <c r="E108" s="455"/>
-      <c r="F108" s="455"/>
-      <c r="G108" s="456"/>
-      <c r="H108" s="455"/>
-      <c r="I108" s="455"/>
-      <c r="J108" s="455"/>
+      <c r="C108" s="449"/>
+      <c r="D108" s="449"/>
+      <c r="E108" s="449"/>
+      <c r="F108" s="449"/>
+      <c r="G108" s="450"/>
+      <c r="H108" s="449"/>
+      <c r="I108" s="449"/>
+      <c r="J108" s="449"/>
       <c r="K108" s="313"/>
       <c r="L108" s="36"/>
       <c r="M108" s="36"/>
@@ -13380,7 +13455,7 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" s="312"/>
-      <c r="B109" s="453"/>
+      <c r="B109" s="447"/>
       <c r="C109" s="228"/>
       <c r="D109" s="356"/>
       <c r="E109" s="355"/>
@@ -13424,7 +13499,7 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A110" s="312"/>
-      <c r="B110" s="453"/>
+      <c r="B110" s="447"/>
       <c r="C110" s="228"/>
       <c r="D110" s="356"/>
       <c r="E110" s="355"/>
@@ -13468,7 +13543,7 @@
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" s="312"/>
-      <c r="B111" s="453"/>
+      <c r="B111" s="447"/>
       <c r="C111" s="228"/>
       <c r="D111" s="356"/>
       <c r="E111" s="355"/>
@@ -13512,7 +13587,7 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A112" s="312"/>
-      <c r="B112" s="453"/>
+      <c r="B112" s="447"/>
       <c r="C112" s="228"/>
       <c r="D112" s="356"/>
       <c r="E112" s="355"/>
@@ -13556,7 +13631,7 @@
     </row>
     <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A113" s="312"/>
-      <c r="B113" s="453"/>
+      <c r="B113" s="447"/>
       <c r="C113" s="228"/>
       <c r="D113" s="356"/>
       <c r="E113" s="355"/>
@@ -13600,7 +13675,7 @@
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A114" s="312"/>
-      <c r="B114" s="453"/>
+      <c r="B114" s="447"/>
       <c r="C114" s="228"/>
       <c r="D114" s="356"/>
       <c r="E114" s="355"/>
@@ -13644,7 +13719,7 @@
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A115" s="312"/>
-      <c r="B115" s="453"/>
+      <c r="B115" s="447"/>
       <c r="C115" s="351"/>
       <c r="D115" s="356"/>
       <c r="E115" s="355"/>
@@ -13688,7 +13763,7 @@
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A116" s="312"/>
-      <c r="B116" s="453"/>
+      <c r="B116" s="447"/>
       <c r="C116" s="228"/>
       <c r="D116" s="356"/>
       <c r="E116" s="355"/>
@@ -13732,7 +13807,7 @@
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A117" s="312"/>
-      <c r="B117" s="453"/>
+      <c r="B117" s="447"/>
       <c r="C117" s="228"/>
       <c r="D117" s="356"/>
       <c r="E117" s="355"/>
@@ -13776,7 +13851,7 @@
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A118" s="312"/>
-      <c r="B118" s="453"/>
+      <c r="B118" s="447"/>
       <c r="C118" s="351"/>
       <c r="D118" s="356"/>
       <c r="E118" s="355"/>
@@ -13820,15 +13895,15 @@
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A119" s="312"/>
-      <c r="B119" s="442"/>
-      <c r="C119" s="452"/>
-      <c r="D119" s="441"/>
-      <c r="E119" s="442"/>
-      <c r="F119" s="442"/>
-      <c r="G119" s="444"/>
-      <c r="H119" s="442"/>
-      <c r="I119" s="442"/>
-      <c r="J119" s="442"/>
+      <c r="B119" s="436"/>
+      <c r="C119" s="437"/>
+      <c r="D119" s="438"/>
+      <c r="E119" s="436"/>
+      <c r="F119" s="436"/>
+      <c r="G119" s="439"/>
+      <c r="H119" s="436"/>
+      <c r="I119" s="436"/>
+      <c r="J119" s="436"/>
       <c r="K119" s="313"/>
       <c r="L119" s="36"/>
       <c r="M119" s="36"/>
@@ -13864,7 +13939,7 @@
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A120" s="312"/>
-      <c r="B120" s="453"/>
+      <c r="B120" s="447"/>
       <c r="C120" s="228"/>
       <c r="D120" s="356"/>
       <c r="E120" s="355"/>
@@ -13908,7 +13983,7 @@
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" s="36"/>
-      <c r="B121" s="453"/>
+      <c r="B121" s="447"/>
       <c r="C121" s="228"/>
       <c r="D121" s="356"/>
       <c r="E121" s="355"/>
@@ -13952,7 +14027,7 @@
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A122" s="36"/>
-      <c r="B122" s="453"/>
+      <c r="B122" s="447"/>
       <c r="C122" s="228"/>
       <c r="D122" s="356"/>
       <c r="E122" s="355"/>
@@ -13996,7 +14071,7 @@
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A123" s="36"/>
-      <c r="B123" s="453"/>
+      <c r="B123" s="447"/>
       <c r="C123" s="228"/>
       <c r="D123" s="356"/>
       <c r="E123" s="355"/>
@@ -14040,7 +14115,7 @@
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A124" s="36"/>
-      <c r="B124" s="453"/>
+      <c r="B124" s="447"/>
       <c r="C124" s="228"/>
       <c r="D124" s="356"/>
       <c r="E124" s="355"/>
@@ -14084,7 +14159,7 @@
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A125" s="36"/>
-      <c r="B125" s="453"/>
+      <c r="B125" s="447"/>
       <c r="C125" s="228"/>
       <c r="D125" s="356"/>
       <c r="E125" s="355"/>
@@ -14128,7 +14203,7 @@
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" s="36"/>
-      <c r="B126" s="453"/>
+      <c r="B126" s="447"/>
       <c r="C126" s="228"/>
       <c r="D126" s="356"/>
       <c r="E126" s="355"/>
@@ -14172,7 +14247,7 @@
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" s="36"/>
-      <c r="B127" s="453"/>
+      <c r="B127" s="447"/>
       <c r="C127" s="228"/>
       <c r="D127" s="356"/>
       <c r="E127" s="355"/>
@@ -14216,15 +14291,15 @@
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A128" s="312"/>
-      <c r="B128" s="442"/>
-      <c r="C128" s="452"/>
-      <c r="D128" s="441"/>
-      <c r="E128" s="442"/>
-      <c r="F128" s="442"/>
-      <c r="G128" s="444"/>
-      <c r="H128" s="442"/>
-      <c r="I128" s="442"/>
-      <c r="J128" s="442"/>
+      <c r="B128" s="436"/>
+      <c r="C128" s="437"/>
+      <c r="D128" s="438"/>
+      <c r="E128" s="436"/>
+      <c r="F128" s="436"/>
+      <c r="G128" s="439"/>
+      <c r="H128" s="436"/>
+      <c r="I128" s="436"/>
+      <c r="J128" s="436"/>
       <c r="K128" s="313"/>
       <c r="L128" s="36"/>
       <c r="M128" s="36"/>
@@ -14260,7 +14335,7 @@
     </row>
     <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129" s="312"/>
-      <c r="B129" s="453"/>
+      <c r="B129" s="447"/>
       <c r="C129" s="228"/>
       <c r="D129" s="356"/>
       <c r="E129" s="355"/>
@@ -14304,7 +14379,7 @@
     </row>
     <row r="130" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A130" s="36"/>
-      <c r="B130" s="453"/>
+      <c r="B130" s="447"/>
       <c r="C130" s="228"/>
       <c r="D130" s="356"/>
       <c r="E130" s="355"/>
@@ -14348,7 +14423,7 @@
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" s="36"/>
-      <c r="B131" s="453"/>
+      <c r="B131" s="447"/>
       <c r="C131" s="228"/>
       <c r="D131" s="356"/>
       <c r="E131" s="355"/>
@@ -14392,7 +14467,7 @@
     </row>
     <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132" s="36"/>
-      <c r="B132" s="453"/>
+      <c r="B132" s="447"/>
       <c r="C132" s="228"/>
       <c r="D132" s="356"/>
       <c r="E132" s="355"/>
@@ -14436,7 +14511,7 @@
     </row>
     <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" s="36"/>
-      <c r="B133" s="453"/>
+      <c r="B133" s="447"/>
       <c r="C133" s="228"/>
       <c r="D133" s="356"/>
       <c r="E133" s="355"/>
@@ -14480,7 +14555,7 @@
     </row>
     <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134" s="36"/>
-      <c r="B134" s="453"/>
+      <c r="B134" s="447"/>
       <c r="C134" s="351"/>
       <c r="D134" s="356"/>
       <c r="E134" s="358"/>
@@ -14524,15 +14599,15 @@
     </row>
     <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135" s="312"/>
-      <c r="B135" s="442"/>
-      <c r="C135" s="452"/>
-      <c r="D135" s="441"/>
-      <c r="E135" s="442"/>
-      <c r="F135" s="442"/>
-      <c r="G135" s="444"/>
-      <c r="H135" s="442"/>
-      <c r="I135" s="442"/>
-      <c r="J135" s="442"/>
+      <c r="B135" s="436"/>
+      <c r="C135" s="437"/>
+      <c r="D135" s="438"/>
+      <c r="E135" s="436"/>
+      <c r="F135" s="436"/>
+      <c r="G135" s="439"/>
+      <c r="H135" s="436"/>
+      <c r="I135" s="436"/>
+      <c r="J135" s="436"/>
       <c r="K135" s="313"/>
       <c r="L135" s="36"/>
       <c r="M135" s="36"/>
@@ -14568,7 +14643,7 @@
     </row>
     <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136" s="312"/>
-      <c r="B136" s="451"/>
+      <c r="B136" s="446"/>
       <c r="C136" s="228"/>
       <c r="D136" s="356"/>
       <c r="E136" s="355"/>
@@ -14612,7 +14687,7 @@
     </row>
     <row r="137" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A137" s="328"/>
-      <c r="B137" s="451"/>
+      <c r="B137" s="446"/>
       <c r="C137" s="228"/>
       <c r="D137" s="356"/>
       <c r="E137" s="355"/>
@@ -14656,7 +14731,7 @@
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138" s="36"/>
-      <c r="B138" s="451"/>
+      <c r="B138" s="446"/>
       <c r="C138" s="228"/>
       <c r="D138" s="356"/>
       <c r="E138" s="355"/>
@@ -14700,7 +14775,7 @@
     </row>
     <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" s="36"/>
-      <c r="B139" s="451"/>
+      <c r="B139" s="446"/>
       <c r="C139" s="228"/>
       <c r="D139" s="356"/>
       <c r="E139" s="355"/>
@@ -14744,7 +14819,7 @@
     </row>
     <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140" s="36"/>
-      <c r="B140" s="451"/>
+      <c r="B140" s="446"/>
       <c r="C140" s="228"/>
       <c r="D140" s="356"/>
       <c r="E140" s="355"/>
@@ -14788,7 +14863,7 @@
     </row>
     <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141" s="36"/>
-      <c r="B141" s="451"/>
+      <c r="B141" s="446"/>
       <c r="C141" s="228"/>
       <c r="D141" s="356"/>
       <c r="E141" s="355"/>
@@ -14832,7 +14907,7 @@
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142" s="36"/>
-      <c r="B142" s="451"/>
+      <c r="B142" s="446"/>
       <c r="C142" s="351"/>
       <c r="D142" s="356"/>
       <c r="E142" s="355"/>
@@ -14876,15 +14951,15 @@
     </row>
     <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143" s="312"/>
-      <c r="B143" s="442"/>
-      <c r="C143" s="452"/>
-      <c r="D143" s="441"/>
-      <c r="E143" s="442"/>
-      <c r="F143" s="442"/>
-      <c r="G143" s="444"/>
-      <c r="H143" s="442"/>
-      <c r="I143" s="442"/>
-      <c r="J143" s="442"/>
+      <c r="B143" s="436"/>
+      <c r="C143" s="437"/>
+      <c r="D143" s="438"/>
+      <c r="E143" s="436"/>
+      <c r="F143" s="436"/>
+      <c r="G143" s="439"/>
+      <c r="H143" s="436"/>
+      <c r="I143" s="436"/>
+      <c r="J143" s="436"/>
       <c r="K143" s="313"/>
       <c r="L143" s="36"/>
       <c r="M143" s="36"/>
@@ -14920,7 +14995,7 @@
     </row>
     <row r="144" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A144" s="312"/>
-      <c r="B144" s="451"/>
+      <c r="B144" s="446"/>
       <c r="C144" s="284"/>
       <c r="D144" s="351"/>
       <c r="E144" s="355"/>
@@ -14964,7 +15039,7 @@
     </row>
     <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145" s="36"/>
-      <c r="B145" s="451"/>
+      <c r="B145" s="446"/>
       <c r="C145" s="284"/>
       <c r="D145" s="351"/>
       <c r="E145" s="355"/>
@@ -15008,7 +15083,7 @@
     </row>
     <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146" s="36"/>
-      <c r="B146" s="451"/>
+      <c r="B146" s="446"/>
       <c r="C146" s="284"/>
       <c r="D146" s="351"/>
       <c r="E146" s="355"/>
@@ -15052,7 +15127,7 @@
     </row>
     <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147" s="36"/>
-      <c r="B147" s="451"/>
+      <c r="B147" s="446"/>
       <c r="C147" s="284"/>
       <c r="D147" s="351"/>
       <c r="E147" s="355"/>
@@ -15096,7 +15171,7 @@
     </row>
     <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148" s="36"/>
-      <c r="B148" s="451"/>
+      <c r="B148" s="446"/>
       <c r="C148" s="284"/>
       <c r="D148" s="351"/>
       <c r="E148" s="355"/>
@@ -15140,7 +15215,7 @@
     </row>
     <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149" s="36"/>
-      <c r="B149" s="451"/>
+      <c r="B149" s="446"/>
       <c r="C149" s="284"/>
       <c r="D149" s="351"/>
       <c r="E149" s="355"/>
@@ -15184,15 +15259,15 @@
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150" s="312"/>
-      <c r="B150" s="442"/>
-      <c r="C150" s="452"/>
-      <c r="D150" s="441"/>
-      <c r="E150" s="442"/>
-      <c r="F150" s="442"/>
-      <c r="G150" s="444"/>
-      <c r="H150" s="442"/>
-      <c r="I150" s="442"/>
-      <c r="J150" s="442"/>
+      <c r="B150" s="436"/>
+      <c r="C150" s="437"/>
+      <c r="D150" s="438"/>
+      <c r="E150" s="436"/>
+      <c r="F150" s="436"/>
+      <c r="G150" s="439"/>
+      <c r="H150" s="436"/>
+      <c r="I150" s="436"/>
+      <c r="J150" s="436"/>
       <c r="K150" s="313"/>
       <c r="L150" s="36"/>
       <c r="M150" s="36"/>
@@ -15228,7 +15303,7 @@
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" s="312"/>
-      <c r="B151" s="451"/>
+      <c r="B151" s="446"/>
       <c r="C151" s="284"/>
       <c r="D151" s="356"/>
       <c r="E151" s="355"/>
@@ -15272,7 +15347,7 @@
     </row>
     <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152" s="36"/>
-      <c r="B152" s="451"/>
+      <c r="B152" s="446"/>
       <c r="C152" s="284"/>
       <c r="D152" s="356"/>
       <c r="E152" s="355"/>
@@ -15316,7 +15391,7 @@
     </row>
     <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153" s="36"/>
-      <c r="B153" s="451"/>
+      <c r="B153" s="446"/>
       <c r="C153" s="284"/>
       <c r="D153" s="356"/>
       <c r="E153" s="355"/>
@@ -15360,7 +15435,7 @@
     </row>
     <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154" s="36"/>
-      <c r="B154" s="451"/>
+      <c r="B154" s="446"/>
       <c r="C154" s="284"/>
       <c r="D154" s="356"/>
       <c r="E154" s="355"/>
@@ -15404,7 +15479,7 @@
     </row>
     <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155" s="36"/>
-      <c r="B155" s="451"/>
+      <c r="B155" s="446"/>
       <c r="C155" s="284"/>
       <c r="D155" s="356"/>
       <c r="E155" s="355"/>
@@ -15448,7 +15523,7 @@
     </row>
     <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156" s="36"/>
-      <c r="B156" s="451"/>
+      <c r="B156" s="446"/>
       <c r="C156" s="284"/>
       <c r="D156" s="356"/>
       <c r="E156" s="355"/>
@@ -15492,15 +15567,15 @@
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
-      <c r="B157" s="442"/>
-      <c r="C157" s="452"/>
-      <c r="D157" s="441"/>
-      <c r="E157" s="442"/>
-      <c r="F157" s="442"/>
-      <c r="G157" s="444"/>
-      <c r="H157" s="442"/>
-      <c r="I157" s="442"/>
-      <c r="J157" s="442"/>
+      <c r="B157" s="436"/>
+      <c r="C157" s="437"/>
+      <c r="D157" s="438"/>
+      <c r="E157" s="436"/>
+      <c r="F157" s="436"/>
+      <c r="G157" s="439"/>
+      <c r="H157" s="436"/>
+      <c r="I157" s="436"/>
+      <c r="J157" s="436"/>
       <c r="K157" s="313"/>
       <c r="L157" s="36"/>
       <c r="M157" s="36"/>
@@ -15536,7 +15611,7 @@
     </row>
     <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
-      <c r="B158" s="451"/>
+      <c r="B158" s="446"/>
       <c r="C158" s="284"/>
       <c r="D158" s="351"/>
       <c r="E158" s="355"/>
@@ -15580,7 +15655,7 @@
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
-      <c r="B159" s="451"/>
+      <c r="B159" s="446"/>
       <c r="C159" s="284"/>
       <c r="D159" s="351"/>
       <c r="E159" s="355"/>
@@ -15624,7 +15699,7 @@
     </row>
     <row r="160" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
-      <c r="B160" s="451"/>
+      <c r="B160" s="446"/>
       <c r="C160" s="284"/>
       <c r="D160" s="351"/>
       <c r="E160" s="355"/>
@@ -15668,7 +15743,7 @@
     </row>
     <row r="161" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
-      <c r="B161" s="451"/>
+      <c r="B161" s="446"/>
       <c r="C161" s="284"/>
       <c r="D161" s="351"/>
       <c r="E161" s="355"/>
@@ -15712,7 +15787,7 @@
     </row>
     <row r="162" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
-      <c r="B162" s="451"/>
+      <c r="B162" s="446"/>
       <c r="C162" s="284"/>
       <c r="D162" s="351"/>
       <c r="E162" s="355"/>
@@ -15756,7 +15831,7 @@
     </row>
     <row r="163" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
-      <c r="B163" s="451"/>
+      <c r="B163" s="446"/>
       <c r="C163" s="284"/>
       <c r="D163" s="351"/>
       <c r="E163" s="355"/>
@@ -15800,15 +15875,15 @@
     </row>
     <row r="164" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
-      <c r="B164" s="444"/>
-      <c r="C164" s="460"/>
-      <c r="D164" s="461"/>
-      <c r="E164" s="444"/>
-      <c r="F164" s="444"/>
-      <c r="G164" s="444"/>
-      <c r="H164" s="444"/>
-      <c r="I164" s="444"/>
-      <c r="J164" s="444"/>
+      <c r="B164" s="439"/>
+      <c r="C164" s="440"/>
+      <c r="D164" s="441"/>
+      <c r="E164" s="439"/>
+      <c r="F164" s="439"/>
+      <c r="G164" s="439"/>
+      <c r="H164" s="439"/>
+      <c r="I164" s="439"/>
+      <c r="J164" s="439"/>
       <c r="K164" s="313"/>
       <c r="L164" s="36"/>
       <c r="M164" s="36"/>
@@ -15844,7 +15919,7 @@
     </row>
     <row r="165" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
-      <c r="B165" s="462"/>
+      <c r="B165" s="442"/>
       <c r="C165" s="284"/>
       <c r="D165" s="351"/>
       <c r="E165" s="231"/>
@@ -15888,7 +15963,7 @@
     </row>
     <row r="166" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
-      <c r="B166" s="462"/>
+      <c r="B166" s="442"/>
       <c r="C166" s="284"/>
       <c r="D166" s="351"/>
       <c r="E166" s="358"/>
@@ -15932,7 +16007,7 @@
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
-      <c r="B167" s="462"/>
+      <c r="B167" s="442"/>
       <c r="C167" s="284"/>
       <c r="D167" s="351"/>
       <c r="E167" s="355"/>
@@ -15976,7 +16051,7 @@
     </row>
     <row r="168" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
-      <c r="B168" s="462"/>
+      <c r="B168" s="442"/>
       <c r="C168" s="284"/>
       <c r="D168" s="351"/>
       <c r="E168" s="355"/>
@@ -16020,7 +16095,7 @@
     </row>
     <row r="169" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
-      <c r="B169" s="462"/>
+      <c r="B169" s="442"/>
       <c r="C169" s="284"/>
       <c r="D169" s="351"/>
       <c r="E169" s="358"/>
@@ -16064,7 +16139,7 @@
     </row>
     <row r="170" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
-      <c r="B170" s="462"/>
+      <c r="B170" s="442"/>
       <c r="C170" s="284"/>
       <c r="D170" s="351"/>
       <c r="E170" s="355"/>
@@ -16108,15 +16183,15 @@
     </row>
     <row r="171" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
-      <c r="B171" s="444"/>
-      <c r="C171" s="460"/>
-      <c r="D171" s="461"/>
-      <c r="E171" s="444"/>
-      <c r="F171" s="444"/>
-      <c r="G171" s="444"/>
-      <c r="H171" s="444"/>
-      <c r="I171" s="444"/>
-      <c r="J171" s="444"/>
+      <c r="B171" s="439"/>
+      <c r="C171" s="440"/>
+      <c r="D171" s="441"/>
+      <c r="E171" s="439"/>
+      <c r="F171" s="439"/>
+      <c r="G171" s="439"/>
+      <c r="H171" s="439"/>
+      <c r="I171" s="439"/>
+      <c r="J171" s="439"/>
       <c r="K171" s="313"/>
       <c r="L171" s="36"/>
       <c r="M171" s="36"/>
@@ -16152,7 +16227,7 @@
     </row>
     <row r="172" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
-      <c r="B172" s="463"/>
+      <c r="B172" s="443"/>
       <c r="C172" s="284"/>
       <c r="D172" s="351"/>
       <c r="E172" s="355"/>
@@ -16196,7 +16271,7 @@
     </row>
     <row r="173" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
-      <c r="B173" s="464"/>
+      <c r="B173" s="444"/>
       <c r="C173" s="284"/>
       <c r="D173" s="351"/>
       <c r="E173" s="355"/>
@@ -16240,7 +16315,7 @@
     </row>
     <row r="174" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
-      <c r="B174" s="464"/>
+      <c r="B174" s="444"/>
       <c r="C174" s="284"/>
       <c r="D174" s="351"/>
       <c r="E174" s="355"/>
@@ -16284,7 +16359,7 @@
     </row>
     <row r="175" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
-      <c r="B175" s="464"/>
+      <c r="B175" s="444"/>
       <c r="C175" s="284"/>
       <c r="D175" s="351"/>
       <c r="E175" s="355"/>
@@ -16328,7 +16403,7 @@
     </row>
     <row r="176" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
-      <c r="B176" s="464"/>
+      <c r="B176" s="444"/>
       <c r="C176" s="284"/>
       <c r="D176" s="351"/>
       <c r="E176" s="355"/>
@@ -16372,7 +16447,7 @@
     </row>
     <row r="177" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
-      <c r="B177" s="465"/>
+      <c r="B177" s="445"/>
       <c r="C177" s="284"/>
       <c r="D177" s="351"/>
       <c r="E177" s="355"/>
@@ -16416,15 +16491,15 @@
     </row>
     <row r="178" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
-      <c r="B178" s="442"/>
-      <c r="C178" s="452"/>
-      <c r="D178" s="441"/>
-      <c r="E178" s="442"/>
-      <c r="F178" s="442"/>
-      <c r="G178" s="444"/>
-      <c r="H178" s="442"/>
-      <c r="I178" s="442"/>
-      <c r="J178" s="442"/>
+      <c r="B178" s="436"/>
+      <c r="C178" s="437"/>
+      <c r="D178" s="438"/>
+      <c r="E178" s="436"/>
+      <c r="F178" s="436"/>
+      <c r="G178" s="439"/>
+      <c r="H178" s="436"/>
+      <c r="I178" s="436"/>
+      <c r="J178" s="436"/>
       <c r="K178" s="313"/>
       <c r="L178" s="36"/>
       <c r="M178" s="36"/>
@@ -16460,7 +16535,7 @@
     </row>
     <row r="179" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
-      <c r="B179" s="457"/>
+      <c r="B179" s="433"/>
       <c r="C179" s="284"/>
       <c r="D179" s="351"/>
       <c r="E179" s="355"/>
@@ -16504,7 +16579,7 @@
     </row>
     <row r="180" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
-      <c r="B180" s="458"/>
+      <c r="B180" s="434"/>
       <c r="C180" s="284"/>
       <c r="D180" s="351"/>
       <c r="E180" s="355"/>
@@ -16548,7 +16623,7 @@
     </row>
     <row r="181" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
-      <c r="B181" s="458"/>
+      <c r="B181" s="434"/>
       <c r="C181" s="284"/>
       <c r="D181" s="351"/>
       <c r="E181" s="355"/>
@@ -16592,7 +16667,7 @@
     </row>
     <row r="182" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
-      <c r="B182" s="458"/>
+      <c r="B182" s="434"/>
       <c r="C182" s="284"/>
       <c r="D182" s="356"/>
       <c r="E182" s="355"/>
@@ -16636,7 +16711,7 @@
     </row>
     <row r="183" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
-      <c r="B183" s="458"/>
+      <c r="B183" s="434"/>
       <c r="C183" s="284"/>
       <c r="D183" s="356"/>
       <c r="E183" s="355"/>
@@ -16680,7 +16755,7 @@
     </row>
     <row r="184" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
-      <c r="B184" s="459"/>
+      <c r="B184" s="435"/>
       <c r="C184" s="284"/>
       <c r="D184" s="356"/>
       <c r="E184" s="355"/>
@@ -16724,15 +16799,15 @@
     </row>
     <row r="185" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
-      <c r="B185" s="442"/>
-      <c r="C185" s="452"/>
-      <c r="D185" s="441"/>
-      <c r="E185" s="442"/>
-      <c r="F185" s="442"/>
-      <c r="G185" s="444"/>
-      <c r="H185" s="442"/>
-      <c r="I185" s="442"/>
-      <c r="J185" s="442"/>
+      <c r="B185" s="436"/>
+      <c r="C185" s="437"/>
+      <c r="D185" s="438"/>
+      <c r="E185" s="436"/>
+      <c r="F185" s="436"/>
+      <c r="G185" s="439"/>
+      <c r="H185" s="436"/>
+      <c r="I185" s="436"/>
+      <c r="J185" s="436"/>
       <c r="K185" s="313"/>
       <c r="L185" s="36"/>
       <c r="M185" s="36"/>
@@ -16768,7 +16843,7 @@
     </row>
     <row r="186" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
-      <c r="B186" s="457"/>
+      <c r="B186" s="433"/>
       <c r="C186" s="230"/>
       <c r="D186" s="356"/>
       <c r="E186" s="355"/>
@@ -16812,7 +16887,7 @@
     </row>
     <row r="187" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
-      <c r="B187" s="458"/>
+      <c r="B187" s="434"/>
       <c r="C187" s="230"/>
       <c r="D187" s="356"/>
       <c r="E187" s="355"/>
@@ -16856,7 +16931,7 @@
     </row>
     <row r="188" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
-      <c r="B188" s="458"/>
+      <c r="B188" s="434"/>
       <c r="C188" s="230"/>
       <c r="D188" s="356"/>
       <c r="E188" s="355"/>
@@ -16900,7 +16975,7 @@
     </row>
     <row r="189" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
-      <c r="B189" s="458"/>
+      <c r="B189" s="434"/>
       <c r="C189" s="230"/>
       <c r="D189" s="356"/>
       <c r="E189" s="355"/>
@@ -16944,7 +17019,7 @@
     </row>
     <row r="190" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
-      <c r="B190" s="458"/>
+      <c r="B190" s="434"/>
       <c r="C190" s="230"/>
       <c r="D190" s="356"/>
       <c r="E190" s="355"/>
@@ -16988,7 +17063,7 @@
     </row>
     <row r="191" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
-      <c r="B191" s="459"/>
+      <c r="B191" s="435"/>
       <c r="C191" s="230"/>
       <c r="D191" s="356"/>
       <c r="E191" s="355"/>
@@ -17032,15 +17107,15 @@
     </row>
     <row r="192" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
-      <c r="B192" s="442"/>
-      <c r="C192" s="452"/>
-      <c r="D192" s="441"/>
-      <c r="E192" s="442"/>
-      <c r="F192" s="442"/>
-      <c r="G192" s="444"/>
-      <c r="H192" s="442"/>
-      <c r="I192" s="442"/>
-      <c r="J192" s="442"/>
+      <c r="B192" s="436"/>
+      <c r="C192" s="437"/>
+      <c r="D192" s="438"/>
+      <c r="E192" s="436"/>
+      <c r="F192" s="436"/>
+      <c r="G192" s="439"/>
+      <c r="H192" s="436"/>
+      <c r="I192" s="436"/>
+      <c r="J192" s="436"/>
       <c r="K192" s="313"/>
       <c r="L192" s="36"/>
       <c r="M192" s="36"/>
@@ -18132,6 +18207,51 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:J73"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="B80:J80"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B94:J94"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B101:J101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="B108:J108"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="B119:J119"/>
+    <mergeCell ref="B120:B127"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="B135:J135"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="B143:J143"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="B150:J150"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="B158:B163"/>
     <mergeCell ref="B179:B184"/>
     <mergeCell ref="B185:J185"/>
     <mergeCell ref="B186:B191"/>
@@ -18141,51 +18261,6 @@
     <mergeCell ref="B171:J171"/>
     <mergeCell ref="B172:B177"/>
     <mergeCell ref="B178:J178"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="B150:J150"/>
-    <mergeCell ref="B151:B156"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="B135:J135"/>
-    <mergeCell ref="B136:B142"/>
-    <mergeCell ref="B143:J143"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="B108:J108"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="B119:J119"/>
-    <mergeCell ref="B120:B127"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:J94"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="B101:J101"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:J73"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="B80:J80"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B11:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18197,7 +18272,7 @@
   <dimension ref="A1:T59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:E31"/>
+      <selection activeCell="E5" sqref="E5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18246,14 +18321,14 @@
       <c r="D2" s="361" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="479" t="s">
+      <c r="E2" s="470" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="480"/>
-      <c r="G2" s="466" t="s">
+      <c r="F2" s="471"/>
+      <c r="G2" s="473" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="467"/>
+      <c r="H2" s="474"/>
       <c r="I2" s="361" t="s">
         <v>44</v>
       </c>
@@ -18273,13 +18348,19 @@
     </row>
     <row r="3" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
-      <c r="B3" s="31"/>
+      <c r="B3" s="31">
+        <v>1</v>
+      </c>
       <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="468"/>
-      <c r="F3" s="468"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="469"/>
+      <c r="D3" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="475" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="475"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="468"/>
       <c r="I3" s="201"/>
       <c r="J3" s="271"/>
       <c r="K3" s="21"/>
@@ -18294,13 +18375,17 @@
       <c r="T3" s="24"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
+      <c r="B4" s="25" t="s">
+        <v>65</v>
+      </c>
       <c r="C4" s="25"/>
       <c r="D4" s="31"/>
-      <c r="E4" s="477"/>
-      <c r="F4" s="477"/>
-      <c r="G4" s="469"/>
-      <c r="H4" s="469"/>
+      <c r="E4" s="472" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="472"/>
+      <c r="G4" s="468"/>
+      <c r="H4" s="468"/>
       <c r="I4" s="28"/>
       <c r="J4" s="213"/>
       <c r="K4" s="28"/>
@@ -18318,10 +18403,10 @@
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="477"/>
-      <c r="F5" s="477"/>
-      <c r="G5" s="469"/>
-      <c r="H5" s="469"/>
+      <c r="E5" s="472"/>
+      <c r="F5" s="472"/>
+      <c r="G5" s="468"/>
+      <c r="H5" s="468"/>
       <c r="I5" s="28"/>
       <c r="J5" s="213"/>
       <c r="K5" s="28"/>
@@ -18339,10 +18424,10 @@
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="469"/>
-      <c r="H6" s="469"/>
+      <c r="E6" s="472"/>
+      <c r="F6" s="472"/>
+      <c r="G6" s="468"/>
+      <c r="H6" s="468"/>
       <c r="I6" s="28"/>
       <c r="J6" s="213"/>
       <c r="K6" s="28"/>
@@ -18360,10 +18445,10 @@
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="477"/>
-      <c r="F7" s="477"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="469"/>
+      <c r="E7" s="472"/>
+      <c r="F7" s="472"/>
+      <c r="G7" s="468"/>
+      <c r="H7" s="468"/>
       <c r="I7" s="28"/>
       <c r="J7" s="213"/>
       <c r="K7" s="28"/>
@@ -18381,10 +18466,10 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="477"/>
-      <c r="F8" s="477"/>
-      <c r="G8" s="469"/>
-      <c r="H8" s="469"/>
+      <c r="E8" s="472"/>
+      <c r="F8" s="472"/>
+      <c r="G8" s="468"/>
+      <c r="H8" s="468"/>
       <c r="I8" s="28"/>
       <c r="J8" s="213"/>
       <c r="K8" s="28"/>
@@ -18402,10 +18487,10 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="477"/>
-      <c r="F9" s="477"/>
-      <c r="G9" s="469"/>
-      <c r="H9" s="469"/>
+      <c r="E9" s="472"/>
+      <c r="F9" s="472"/>
+      <c r="G9" s="468"/>
+      <c r="H9" s="468"/>
       <c r="I9" s="28"/>
       <c r="J9" s="213"/>
       <c r="K9" s="28"/>
@@ -18423,10 +18508,10 @@
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="477"/>
-      <c r="F10" s="477"/>
-      <c r="G10" s="469"/>
-      <c r="H10" s="469"/>
+      <c r="E10" s="472"/>
+      <c r="F10" s="472"/>
+      <c r="G10" s="468"/>
+      <c r="H10" s="468"/>
       <c r="I10" s="27"/>
       <c r="J10" s="213"/>
       <c r="K10" s="28"/>
@@ -18443,8 +18528,8 @@
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="93"/>
       <c r="D11" s="93"/>
-      <c r="E11" s="478"/>
-      <c r="F11" s="478"/>
+      <c r="E11" s="482"/>
+      <c r="F11" s="482"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="29"/>
@@ -18462,11 +18547,11 @@
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="94"/>
-      <c r="C12" s="471" t="s">
+      <c r="C12" s="477" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="472"/>
-      <c r="E12" s="473"/>
+      <c r="D12" s="478"/>
+      <c r="E12" s="479"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="211" t="s">
@@ -18520,10 +18605,10 @@
       <c r="C14" s="362" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="474" t="s">
+      <c r="D14" s="480" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="475"/>
+      <c r="E14" s="481"/>
       <c r="F14" s="200" t="s">
         <v>50</v>
       </c>
@@ -18551,13 +18636,21 @@
       <c r="T14" s="360"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="33"/>
+      <c r="B15" s="33" t="s">
+        <v>236</v>
+      </c>
       <c r="C15" s="360"/>
-      <c r="D15" s="482"/>
-      <c r="E15" s="482"/>
-      <c r="F15" s="34"/>
+      <c r="D15" s="469" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="469"/>
+      <c r="F15" s="585" t="s">
+        <v>238</v>
+      </c>
       <c r="G15" s="360"/>
-      <c r="H15" s="360"/>
+      <c r="H15" s="360" t="s">
+        <v>243</v>
+      </c>
       <c r="I15" s="360"/>
       <c r="J15" s="368"/>
       <c r="K15" s="360"/>
@@ -18572,13 +18665,21 @@
       <c r="T15" s="360"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="33"/>
+      <c r="B16" s="33" t="s">
+        <v>239</v>
+      </c>
       <c r="C16" s="360"/>
-      <c r="D16" s="476"/>
-      <c r="E16" s="476"/>
-      <c r="F16" s="34"/>
+      <c r="D16" s="466" t="s">
+        <v>240</v>
+      </c>
+      <c r="E16" s="466"/>
+      <c r="F16" s="585" t="s">
+        <v>238</v>
+      </c>
       <c r="G16" s="360"/>
-      <c r="H16" s="360"/>
+      <c r="H16" s="360" t="s">
+        <v>243</v>
+      </c>
       <c r="I16" s="360"/>
       <c r="J16" s="368"/>
       <c r="K16" s="360"/>
@@ -18593,13 +18694,21 @@
       <c r="T16" s="360"/>
     </row>
     <row r="17" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
+      <c r="B17" s="33" t="s">
+        <v>241</v>
+      </c>
       <c r="C17" s="360"/>
-      <c r="D17" s="470"/>
-      <c r="E17" s="470"/>
-      <c r="F17" s="34"/>
+      <c r="D17" s="476" t="s">
+        <v>242</v>
+      </c>
+      <c r="E17" s="476"/>
+      <c r="F17" s="585" t="s">
+        <v>238</v>
+      </c>
       <c r="G17" s="360"/>
-      <c r="H17" s="360"/>
+      <c r="H17" s="360" t="s">
+        <v>243</v>
+      </c>
       <c r="I17" s="360"/>
       <c r="J17" s="368"/>
       <c r="K17" s="360"/>
@@ -18614,13 +18723,21 @@
       <c r="T17" s="360"/>
     </row>
     <row r="18" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
+      <c r="B18" s="33" t="s">
+        <v>247</v>
+      </c>
       <c r="C18" s="360"/>
-      <c r="D18" s="476"/>
-      <c r="E18" s="476"/>
-      <c r="F18" s="34"/>
+      <c r="D18" s="466" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="466"/>
+      <c r="F18" s="585" t="s">
+        <v>238</v>
+      </c>
       <c r="G18" s="360"/>
-      <c r="H18" s="360"/>
+      <c r="H18" s="360" t="s">
+        <v>246</v>
+      </c>
       <c r="I18" s="360"/>
       <c r="J18" s="368"/>
       <c r="K18" s="360"/>
@@ -18635,13 +18752,21 @@
       <c r="T18" s="360"/>
     </row>
     <row r="19" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
+      <c r="B19" s="33" t="s">
+        <v>244</v>
+      </c>
       <c r="C19" s="360"/>
-      <c r="D19" s="476"/>
-      <c r="E19" s="476"/>
-      <c r="F19" s="34"/>
+      <c r="D19" s="466" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="466"/>
+      <c r="F19" s="585" t="s">
+        <v>238</v>
+      </c>
       <c r="G19" s="360"/>
-      <c r="H19" s="360"/>
+      <c r="H19" s="360" t="s">
+        <v>246</v>
+      </c>
       <c r="I19" s="360"/>
       <c r="J19" s="368"/>
       <c r="K19" s="360"/>
@@ -18656,13 +18781,19 @@
       <c r="T19" s="360"/>
     </row>
     <row r="20" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
+      <c r="B20" s="33" t="s">
+        <v>249</v>
+      </c>
       <c r="C20" s="360"/>
-      <c r="D20" s="476"/>
-      <c r="E20" s="476"/>
-      <c r="F20" s="34"/>
+      <c r="D20" s="466" t="s">
+        <v>250</v>
+      </c>
+      <c r="E20" s="466"/>
+      <c r="F20" s="585"/>
       <c r="G20" s="360"/>
-      <c r="H20" s="360"/>
+      <c r="H20" s="360" t="s">
+        <v>251</v>
+      </c>
       <c r="I20" s="360"/>
       <c r="J20" s="368"/>
       <c r="K20" s="360"/>
@@ -18673,13 +18804,21 @@
       <c r="T20" s="22"/>
     </row>
     <row r="21" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
+      <c r="B21" s="33" t="s">
+        <v>252</v>
+      </c>
       <c r="C21" s="360"/>
-      <c r="D21" s="476"/>
-      <c r="E21" s="476"/>
-      <c r="F21" s="34"/>
+      <c r="D21" s="466" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="466"/>
+      <c r="F21" s="585" t="s">
+        <v>238</v>
+      </c>
       <c r="G21" s="360"/>
-      <c r="H21" s="360"/>
+      <c r="H21" s="360" t="s">
+        <v>254</v>
+      </c>
       <c r="I21" s="360"/>
       <c r="J21" s="368"/>
       <c r="K21" s="360"/>
@@ -18692,9 +18831,9 @@
     <row r="22" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="33"/>
       <c r="C22" s="360"/>
-      <c r="D22" s="476"/>
-      <c r="E22" s="476"/>
-      <c r="F22" s="34"/>
+      <c r="D22" s="466"/>
+      <c r="E22" s="466"/>
+      <c r="F22" s="585"/>
       <c r="G22" s="360"/>
       <c r="H22" s="360"/>
       <c r="I22" s="360"/>
@@ -18711,7 +18850,7 @@
       <c r="C23" s="360"/>
       <c r="D23" s="359"/>
       <c r="E23" s="359"/>
-      <c r="F23" s="34"/>
+      <c r="F23" s="585"/>
       <c r="G23" s="360"/>
       <c r="H23" s="360"/>
       <c r="I23" s="360"/>
@@ -18728,7 +18867,7 @@
       <c r="C24" s="360"/>
       <c r="D24" s="359"/>
       <c r="E24" s="359"/>
-      <c r="F24" s="34"/>
+      <c r="F24" s="585"/>
       <c r="G24" s="360"/>
       <c r="H24" s="360"/>
       <c r="I24" s="360"/>
@@ -18743,9 +18882,9 @@
     <row r="25" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
       <c r="C25" s="360"/>
-      <c r="D25" s="476"/>
-      <c r="E25" s="476"/>
-      <c r="F25" s="34"/>
+      <c r="D25" s="466"/>
+      <c r="E25" s="466"/>
+      <c r="F25" s="585"/>
       <c r="G25" s="360"/>
       <c r="H25" s="360"/>
       <c r="I25" s="360"/>
@@ -18760,9 +18899,9 @@
     <row r="26" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
       <c r="C26" s="360"/>
-      <c r="D26" s="476"/>
-      <c r="E26" s="476"/>
-      <c r="F26" s="34"/>
+      <c r="D26" s="466"/>
+      <c r="E26" s="466"/>
+      <c r="F26" s="585"/>
       <c r="G26" s="360"/>
       <c r="H26" s="360"/>
       <c r="I26" s="360"/>
@@ -18781,9 +18920,9 @@
     <row r="27" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
       <c r="C27" s="360"/>
-      <c r="D27" s="476"/>
-      <c r="E27" s="476"/>
-      <c r="F27" s="34"/>
+      <c r="D27" s="466"/>
+      <c r="E27" s="466"/>
+      <c r="F27" s="585"/>
       <c r="G27" s="360"/>
       <c r="H27" s="360"/>
       <c r="I27" s="360"/>
@@ -18802,9 +18941,9 @@
     <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
       <c r="C28" s="360"/>
-      <c r="D28" s="476"/>
-      <c r="E28" s="476"/>
-      <c r="F28" s="34"/>
+      <c r="D28" s="466"/>
+      <c r="E28" s="466"/>
+      <c r="F28" s="585"/>
       <c r="G28" s="360"/>
       <c r="H28" s="360"/>
       <c r="I28" s="360"/>
@@ -18823,9 +18962,9 @@
     <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
       <c r="C29" s="360"/>
-      <c r="D29" s="476"/>
-      <c r="E29" s="476"/>
-      <c r="F29" s="34"/>
+      <c r="D29" s="466"/>
+      <c r="E29" s="466"/>
+      <c r="F29" s="585"/>
       <c r="G29" s="360"/>
       <c r="H29" s="360"/>
       <c r="I29" s="360"/>
@@ -18846,7 +18985,7 @@
       <c r="C30" s="360"/>
       <c r="D30" s="359"/>
       <c r="E30" s="359"/>
-      <c r="F30" s="34"/>
+      <c r="F30" s="585"/>
       <c r="G30" s="360"/>
       <c r="H30" s="360"/>
       <c r="I30" s="360"/>
@@ -18865,9 +19004,9 @@
     <row r="31" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="360"/>
-      <c r="D31" s="476"/>
-      <c r="E31" s="476"/>
-      <c r="F31" s="34"/>
+      <c r="D31" s="466"/>
+      <c r="E31" s="466"/>
+      <c r="F31" s="585"/>
       <c r="G31" s="360"/>
       <c r="H31" s="360"/>
       <c r="I31" s="360"/>
@@ -18886,9 +19025,9 @@
     <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="360"/>
-      <c r="D32" s="476"/>
-      <c r="E32" s="476"/>
-      <c r="F32" s="34"/>
+      <c r="D32" s="466"/>
+      <c r="E32" s="466"/>
+      <c r="F32" s="585"/>
       <c r="G32" s="360"/>
       <c r="H32" s="360"/>
       <c r="I32" s="360"/>
@@ -18907,9 +19046,9 @@
     <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="360"/>
-      <c r="D33" s="476"/>
-      <c r="E33" s="476"/>
-      <c r="F33" s="34"/>
+      <c r="D33" s="466"/>
+      <c r="E33" s="466"/>
+      <c r="F33" s="585"/>
       <c r="G33" s="360"/>
       <c r="H33" s="360"/>
       <c r="I33" s="360"/>
@@ -18928,9 +19067,9 @@
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="360"/>
-      <c r="D34" s="476"/>
-      <c r="E34" s="476"/>
-      <c r="F34" s="34"/>
+      <c r="D34" s="466"/>
+      <c r="E34" s="466"/>
+      <c r="F34" s="585"/>
       <c r="G34" s="360"/>
       <c r="H34" s="360"/>
       <c r="I34" s="360"/>
@@ -18949,9 +19088,9 @@
     <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
       <c r="C35" s="360"/>
-      <c r="D35" s="476"/>
-      <c r="E35" s="476"/>
-      <c r="F35" s="34"/>
+      <c r="D35" s="466"/>
+      <c r="E35" s="466"/>
+      <c r="F35" s="585"/>
       <c r="G35" s="360"/>
       <c r="H35" s="360"/>
       <c r="I35" s="360"/>
@@ -18970,9 +19109,9 @@
     <row r="36" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
       <c r="C36" s="360"/>
-      <c r="D36" s="476"/>
-      <c r="E36" s="476"/>
-      <c r="F36" s="34"/>
+      <c r="D36" s="466"/>
+      <c r="E36" s="466"/>
+      <c r="F36" s="585"/>
       <c r="G36" s="360"/>
       <c r="H36" s="360"/>
       <c r="I36" s="360"/>
@@ -18991,8 +19130,8 @@
     <row r="37" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
       <c r="C37" s="360"/>
-      <c r="D37" s="476"/>
-      <c r="E37" s="476"/>
+      <c r="D37" s="466"/>
+      <c r="E37" s="466"/>
       <c r="F37" s="360"/>
       <c r="G37" s="360"/>
       <c r="H37" s="360"/>
@@ -19012,8 +19151,8 @@
     <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="360"/>
-      <c r="D38" s="476"/>
-      <c r="E38" s="476"/>
+      <c r="D38" s="466"/>
+      <c r="E38" s="466"/>
       <c r="F38" s="360"/>
       <c r="G38" s="360"/>
       <c r="H38" s="360"/>
@@ -19033,8 +19172,8 @@
     <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="35"/>
       <c r="C39" s="360"/>
-      <c r="D39" s="476"/>
-      <c r="E39" s="476"/>
+      <c r="D39" s="466"/>
+      <c r="E39" s="466"/>
       <c r="F39" s="360"/>
       <c r="G39" s="360"/>
       <c r="H39" s="360"/>
@@ -19054,8 +19193,8 @@
     <row r="40" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="35"/>
       <c r="C40" s="360"/>
-      <c r="D40" s="481"/>
-      <c r="E40" s="481"/>
+      <c r="D40" s="467"/>
+      <c r="E40" s="467"/>
       <c r="F40" s="360"/>
       <c r="G40" s="360"/>
       <c r="H40" s="360"/>
@@ -19075,8 +19214,8 @@
     <row r="41" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="35"/>
       <c r="C41" s="360"/>
-      <c r="D41" s="481"/>
-      <c r="E41" s="481"/>
+      <c r="D41" s="467"/>
+      <c r="E41" s="467"/>
       <c r="F41" s="360"/>
       <c r="G41" s="360"/>
       <c r="H41" s="360"/>
@@ -19096,8 +19235,8 @@
     <row r="42" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="35"/>
       <c r="C42" s="360"/>
-      <c r="D42" s="481"/>
-      <c r="E42" s="481"/>
+      <c r="D42" s="467"/>
+      <c r="E42" s="467"/>
       <c r="F42" s="360"/>
       <c r="G42" s="360"/>
       <c r="H42" s="360"/>
@@ -19118,8 +19257,8 @@
       <c r="B43" s="35"/>
       <c r="C43" s="360"/>
       <c r="D43" s="360"/>
-      <c r="E43" s="481"/>
-      <c r="F43" s="481"/>
+      <c r="E43" s="467"/>
+      <c r="F43" s="467"/>
       <c r="G43" s="360"/>
       <c r="H43" s="360"/>
       <c r="I43" s="360"/>
@@ -19138,8 +19277,8 @@
     <row r="44" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="35"/>
       <c r="C44" s="360"/>
-      <c r="D44" s="481"/>
-      <c r="E44" s="481"/>
+      <c r="D44" s="467"/>
+      <c r="E44" s="467"/>
       <c r="F44" s="360"/>
       <c r="G44" s="360"/>
       <c r="H44" s="360"/>
@@ -19159,8 +19298,8 @@
     <row r="45" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="35"/>
       <c r="C45" s="360"/>
-      <c r="D45" s="481"/>
-      <c r="E45" s="481"/>
+      <c r="D45" s="467"/>
+      <c r="E45" s="467"/>
       <c r="F45" s="360"/>
       <c r="G45" s="360"/>
       <c r="H45" s="360"/>
@@ -19180,8 +19319,8 @@
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="35"/>
       <c r="C46" s="360"/>
-      <c r="D46" s="481"/>
-      <c r="E46" s="481"/>
+      <c r="D46" s="467"/>
+      <c r="E46" s="467"/>
       <c r="F46" s="360"/>
       <c r="G46" s="360"/>
       <c r="H46" s="360"/>
@@ -19201,8 +19340,8 @@
     <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="360"/>
       <c r="C47" s="360"/>
-      <c r="D47" s="481"/>
-      <c r="E47" s="481"/>
+      <c r="D47" s="467"/>
+      <c r="E47" s="467"/>
       <c r="F47" s="360"/>
       <c r="G47" s="360"/>
       <c r="H47" s="360"/>
@@ -19222,8 +19361,8 @@
     <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="360"/>
       <c r="C48" s="360"/>
-      <c r="D48" s="481"/>
-      <c r="E48" s="481"/>
+      <c r="D48" s="467"/>
+      <c r="E48" s="467"/>
       <c r="F48" s="360"/>
       <c r="G48" s="360"/>
       <c r="H48" s="360"/>
@@ -19243,8 +19382,8 @@
     <row r="49" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="360"/>
       <c r="C49" s="360"/>
-      <c r="D49" s="481"/>
-      <c r="E49" s="481"/>
+      <c r="D49" s="467"/>
+      <c r="E49" s="467"/>
       <c r="F49" s="360"/>
       <c r="G49" s="360"/>
       <c r="H49" s="360"/>
@@ -19264,8 +19403,8 @@
     <row r="50" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="360"/>
       <c r="C50" s="360"/>
-      <c r="D50" s="481"/>
-      <c r="E50" s="481"/>
+      <c r="D50" s="467"/>
+      <c r="E50" s="467"/>
       <c r="F50" s="360"/>
       <c r="G50" s="360"/>
       <c r="H50" s="360"/>
@@ -19285,8 +19424,8 @@
     <row r="51" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="360"/>
       <c r="C51" s="360"/>
-      <c r="D51" s="481"/>
-      <c r="E51" s="481"/>
+      <c r="D51" s="467"/>
+      <c r="E51" s="467"/>
       <c r="F51" s="360"/>
       <c r="G51" s="360"/>
       <c r="H51" s="360"/>
@@ -19433,6 +19572,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D32:E32"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="D36:E36"/>
@@ -19449,45 +19627,6 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19500,7 +19639,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="11" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:F38"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -19516,14 +19655,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="483" t="s">
+      <c r="A1" s="508" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="484"/>
-      <c r="C1" s="484"/>
-      <c r="D1" s="484"/>
-      <c r="E1" s="484"/>
-      <c r="F1" s="485"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="510"/>
       <c r="G1" s="69"/>
       <c r="H1" s="36"/>
     </row>
@@ -19537,51 +19676,59 @@
       <c r="C2" s="353" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="486" t="s">
+      <c r="D2" s="511" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="486"/>
-      <c r="F2" s="487"/>
+      <c r="E2" s="511"/>
+      <c r="F2" s="512"/>
       <c r="G2" s="83"/>
       <c r="H2" s="36"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
+      <c r="A3" s="74" t="s">
+        <v>246</v>
+      </c>
       <c r="B3" s="113"/>
       <c r="C3" s="210"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="489"/>
-      <c r="F3" s="490"/>
+      <c r="D3" s="513"/>
+      <c r="E3" s="514"/>
+      <c r="F3" s="515"/>
       <c r="G3" s="69"/>
       <c r="H3" s="36"/>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
+      <c r="A4" s="74" t="s">
+        <v>255</v>
+      </c>
       <c r="B4" s="113"/>
       <c r="C4" s="210"/>
-      <c r="D4" s="491"/>
-      <c r="E4" s="492"/>
-      <c r="F4" s="493"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="494"/>
       <c r="G4" s="69"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
+      <c r="A5" s="74" t="s">
+        <v>254</v>
+      </c>
       <c r="B5" s="113"/>
       <c r="C5" s="210"/>
-      <c r="D5" s="491"/>
-      <c r="E5" s="492"/>
-      <c r="F5" s="493"/>
+      <c r="D5" s="492"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="494"/>
       <c r="G5" s="69"/>
       <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
+      <c r="A6" s="74" t="s">
+        <v>256</v>
+      </c>
       <c r="B6" s="221"/>
       <c r="C6" s="210"/>
-      <c r="D6" s="491"/>
-      <c r="E6" s="492"/>
-      <c r="F6" s="493"/>
+      <c r="D6" s="492"/>
+      <c r="E6" s="493"/>
+      <c r="F6" s="494"/>
       <c r="G6" s="69"/>
       <c r="H6" s="36"/>
     </row>
@@ -19589,9 +19736,9 @@
       <c r="A7" s="79"/>
       <c r="B7" s="219"/>
       <c r="C7" s="210"/>
-      <c r="D7" s="494"/>
-      <c r="E7" s="494"/>
-      <c r="F7" s="494"/>
+      <c r="D7" s="495"/>
+      <c r="E7" s="495"/>
+      <c r="F7" s="495"/>
       <c r="G7" s="204"/>
       <c r="H7" s="36"/>
     </row>
@@ -19606,73 +19753,73 @@
       <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="495"/>
-      <c r="B9" s="497"/>
-      <c r="C9" s="499" t="str">
+      <c r="A9" s="496"/>
+      <c r="B9" s="498"/>
+      <c r="C9" s="500" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="501" t="s">
+      <c r="D9" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="503"/>
-      <c r="F9" s="505"/>
+      <c r="E9" s="504"/>
+      <c r="F9" s="506"/>
       <c r="G9" s="69"/>
       <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="496"/>
-      <c r="B10" s="498"/>
-      <c r="C10" s="500"/>
-      <c r="D10" s="502"/>
-      <c r="E10" s="504"/>
-      <c r="F10" s="506"/>
+      <c r="A10" s="497"/>
+      <c r="B10" s="499"/>
+      <c r="C10" s="501"/>
+      <c r="D10" s="503"/>
+      <c r="E10" s="505"/>
+      <c r="F10" s="507"/>
       <c r="G10" s="69"/>
       <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="507" t="s">
+      <c r="A11" s="483" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="508"/>
-      <c r="C11" s="509"/>
-      <c r="D11" s="508"/>
-      <c r="E11" s="435"/>
-      <c r="F11" s="510"/>
+      <c r="B11" s="484"/>
+      <c r="C11" s="485"/>
+      <c r="D11" s="484"/>
+      <c r="E11" s="463"/>
+      <c r="F11" s="486"/>
       <c r="G11" s="83"/>
       <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="511" t="s">
+      <c r="A12" s="487" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="414" t="s">
+      <c r="B12" s="397" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="512" t="s">
+      <c r="C12" s="488" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="513"/>
-      <c r="E12" s="514" t="s">
+      <c r="D12" s="489"/>
+      <c r="E12" s="490" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="515" t="s">
+      <c r="F12" s="491" t="s">
         <v>63</v>
       </c>
       <c r="G12" s="83"/>
       <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="511"/>
-      <c r="B13" s="414"/>
+      <c r="A13" s="487"/>
+      <c r="B13" s="397"/>
       <c r="C13" s="216" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="514"/>
-      <c r="F13" s="515"/>
+      <c r="E13" s="490"/>
+      <c r="F13" s="491"/>
       <c r="G13" s="83"/>
       <c r="H13" s="36"/>
     </row>
@@ -20648,12 +20795,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
@@ -20662,11 +20808,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20726,14 +20873,14 @@
       <c r="D2" s="361" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="479" t="s">
+      <c r="E2" s="470" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="480"/>
-      <c r="G2" s="466" t="s">
+      <c r="F2" s="471"/>
+      <c r="G2" s="473" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="467"/>
+      <c r="H2" s="474"/>
       <c r="I2" s="361" t="s">
         <v>44</v>
       </c>
@@ -20755,10 +20902,10 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="468"/>
-      <c r="F3" s="468"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="469"/>
+      <c r="E3" s="475"/>
+      <c r="F3" s="475"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="468"/>
       <c r="I3" s="201"/>
       <c r="J3" s="271"/>
       <c r="K3" s="21"/>
@@ -20775,10 +20922,10 @@
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="31"/>
-      <c r="E4" s="477"/>
-      <c r="F4" s="477"/>
-      <c r="G4" s="469"/>
-      <c r="H4" s="469"/>
+      <c r="E4" s="472"/>
+      <c r="F4" s="472"/>
+      <c r="G4" s="468"/>
+      <c r="H4" s="468"/>
       <c r="I4" s="28"/>
       <c r="J4" s="213"/>
       <c r="K4" s="21"/>
@@ -20795,10 +20942,10 @@
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="477"/>
-      <c r="F5" s="477"/>
-      <c r="G5" s="469"/>
-      <c r="H5" s="469"/>
+      <c r="E5" s="472"/>
+      <c r="F5" s="472"/>
+      <c r="G5" s="468"/>
+      <c r="H5" s="468"/>
       <c r="I5" s="28"/>
       <c r="J5" s="213"/>
       <c r="K5" s="21"/>
@@ -20815,10 +20962,10 @@
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="469"/>
-      <c r="H6" s="469"/>
+      <c r="E6" s="472"/>
+      <c r="F6" s="472"/>
+      <c r="G6" s="468"/>
+      <c r="H6" s="468"/>
       <c r="I6" s="28"/>
       <c r="J6" s="213"/>
       <c r="K6" s="21"/>
@@ -20835,10 +20982,10 @@
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="477"/>
-      <c r="F7" s="477"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="469"/>
+      <c r="E7" s="472"/>
+      <c r="F7" s="472"/>
+      <c r="G7" s="468"/>
+      <c r="H7" s="468"/>
       <c r="I7" s="28"/>
       <c r="J7" s="213"/>
       <c r="K7" s="21"/>
@@ -20855,10 +21002,10 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="477"/>
-      <c r="F8" s="477"/>
-      <c r="G8" s="469"/>
-      <c r="H8" s="469"/>
+      <c r="E8" s="472"/>
+      <c r="F8" s="472"/>
+      <c r="G8" s="468"/>
+      <c r="H8" s="468"/>
       <c r="I8" s="28"/>
       <c r="J8" s="213"/>
       <c r="K8" s="21"/>
@@ -20875,10 +21022,10 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="477"/>
-      <c r="F9" s="477"/>
-      <c r="G9" s="469"/>
-      <c r="H9" s="469"/>
+      <c r="E9" s="472"/>
+      <c r="F9" s="472"/>
+      <c r="G9" s="468"/>
+      <c r="H9" s="468"/>
       <c r="I9" s="28"/>
       <c r="J9" s="213"/>
       <c r="K9" s="21"/>
@@ -20894,8 +21041,8 @@
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="93"/>
       <c r="D10" s="93"/>
-      <c r="E10" s="478"/>
-      <c r="F10" s="478"/>
+      <c r="E10" s="482"/>
+      <c r="F10" s="482"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="29"/>
@@ -20912,11 +21059,11 @@
     </row>
     <row r="11" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="94"/>
-      <c r="C11" s="471" t="s">
+      <c r="C11" s="477" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="472"/>
-      <c r="E11" s="473"/>
+      <c r="D11" s="478"/>
+      <c r="E11" s="479"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="211" t="s">
@@ -20962,10 +21109,10 @@
       <c r="C13" s="362" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="474" t="s">
+      <c r="D13" s="480" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="475"/>
+      <c r="E13" s="481"/>
       <c r="F13" s="200" t="s">
         <v>50</v>
       </c>
@@ -20994,8 +21141,8 @@
     <row r="14" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="33"/>
       <c r="C14" s="360"/>
-      <c r="D14" s="482"/>
-      <c r="E14" s="482"/>
+      <c r="D14" s="469"/>
+      <c r="E14" s="469"/>
       <c r="F14" s="34"/>
       <c r="G14" s="360"/>
       <c r="H14" s="360"/>
@@ -21014,8 +21161,8 @@
     <row r="15" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="261"/>
       <c r="C15" s="360"/>
-      <c r="D15" s="476"/>
-      <c r="E15" s="476"/>
+      <c r="D15" s="466"/>
+      <c r="E15" s="466"/>
       <c r="F15" s="34"/>
       <c r="G15" s="360"/>
       <c r="H15" s="360"/>
@@ -21034,8 +21181,8 @@
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="261"/>
       <c r="C16" s="360"/>
-      <c r="D16" s="470"/>
-      <c r="E16" s="470"/>
+      <c r="D16" s="476"/>
+      <c r="E16" s="476"/>
       <c r="F16" s="34"/>
       <c r="G16" s="360"/>
       <c r="H16" s="360"/>
@@ -21054,8 +21201,8 @@
     <row r="17" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="33"/>
       <c r="C17" s="360"/>
-      <c r="D17" s="476"/>
-      <c r="E17" s="476"/>
+      <c r="D17" s="466"/>
+      <c r="E17" s="466"/>
       <c r="F17" s="34"/>
       <c r="G17" s="360"/>
       <c r="H17" s="360"/>
@@ -21074,8 +21221,8 @@
     <row r="18" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="33"/>
       <c r="C18" s="360"/>
-      <c r="D18" s="470"/>
-      <c r="E18" s="470"/>
+      <c r="D18" s="476"/>
+      <c r="E18" s="476"/>
       <c r="F18" s="34"/>
       <c r="G18" s="360"/>
       <c r="H18" s="360"/>
@@ -21094,8 +21241,8 @@
     <row r="19" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
       <c r="C19" s="360"/>
-      <c r="D19" s="476"/>
-      <c r="E19" s="476"/>
+      <c r="D19" s="466"/>
+      <c r="E19" s="466"/>
       <c r="F19" s="34"/>
       <c r="G19" s="360"/>
       <c r="H19" s="360"/>
@@ -21110,8 +21257,8 @@
     <row r="20" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
       <c r="C20" s="360"/>
-      <c r="D20" s="476"/>
-      <c r="E20" s="476"/>
+      <c r="D20" s="466"/>
+      <c r="E20" s="466"/>
       <c r="F20" s="34"/>
       <c r="G20" s="360"/>
       <c r="H20" s="360"/>
@@ -21126,8 +21273,8 @@
     <row r="21" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
       <c r="C21" s="360"/>
-      <c r="D21" s="476"/>
-      <c r="E21" s="476"/>
+      <c r="D21" s="466"/>
+      <c r="E21" s="466"/>
       <c r="F21" s="34"/>
       <c r="G21" s="360"/>
       <c r="H21" s="360"/>
@@ -21189,8 +21336,8 @@
     <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
       <c r="C25" s="360"/>
-      <c r="D25" s="476"/>
-      <c r="E25" s="476"/>
+      <c r="D25" s="466"/>
+      <c r="E25" s="466"/>
       <c r="F25" s="34"/>
       <c r="G25" s="360"/>
       <c r="H25" s="360"/>
@@ -21221,8 +21368,8 @@
     <row r="27" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
       <c r="C27" s="360"/>
-      <c r="D27" s="476"/>
-      <c r="E27" s="476"/>
+      <c r="D27" s="466"/>
+      <c r="E27" s="466"/>
       <c r="F27" s="34"/>
       <c r="G27" s="360"/>
       <c r="H27" s="360"/>
@@ -21253,8 +21400,8 @@
     <row r="29" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
       <c r="C29" s="360"/>
-      <c r="D29" s="476"/>
-      <c r="E29" s="476"/>
+      <c r="D29" s="466"/>
+      <c r="E29" s="466"/>
       <c r="F29" s="34"/>
       <c r="G29" s="360"/>
       <c r="H29" s="360"/>
@@ -21285,8 +21432,8 @@
     <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="360"/>
-      <c r="D31" s="476"/>
-      <c r="E31" s="476"/>
+      <c r="D31" s="466"/>
+      <c r="E31" s="466"/>
       <c r="F31" s="34"/>
       <c r="G31" s="360"/>
       <c r="H31" s="360"/>
@@ -21325,8 +21472,8 @@
     <row r="33" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="360"/>
-      <c r="D33" s="476"/>
-      <c r="E33" s="476"/>
+      <c r="D33" s="466"/>
+      <c r="E33" s="466"/>
       <c r="F33" s="34"/>
       <c r="G33" s="360"/>
       <c r="H33" s="360"/>
@@ -21345,8 +21492,8 @@
     <row r="34" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="360"/>
-      <c r="D34" s="476"/>
-      <c r="E34" s="476"/>
+      <c r="D34" s="466"/>
+      <c r="E34" s="466"/>
       <c r="F34" s="34"/>
       <c r="G34" s="360"/>
       <c r="H34" s="360"/>
@@ -21405,8 +21552,8 @@
     <row r="37" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
       <c r="C37" s="360"/>
-      <c r="D37" s="476"/>
-      <c r="E37" s="476"/>
+      <c r="D37" s="466"/>
+      <c r="E37" s="466"/>
       <c r="F37" s="34"/>
       <c r="G37" s="360"/>
       <c r="H37" s="360"/>
@@ -21425,8 +21572,8 @@
     <row r="38" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="360"/>
-      <c r="D38" s="476"/>
-      <c r="E38" s="476"/>
+      <c r="D38" s="466"/>
+      <c r="E38" s="466"/>
       <c r="F38" s="34"/>
       <c r="G38" s="360"/>
       <c r="H38" s="360"/>
@@ -21447,10 +21594,10 @@
         <v>65</v>
       </c>
       <c r="C39" s="360"/>
-      <c r="D39" s="476" t="s">
+      <c r="D39" s="466" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="476"/>
+      <c r="E39" s="466"/>
       <c r="F39" s="360" t="s">
         <v>65</v>
       </c>
@@ -21475,10 +21622,10 @@
         <v>65</v>
       </c>
       <c r="C40" s="360"/>
-      <c r="D40" s="476" t="s">
+      <c r="D40" s="466" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="476"/>
+      <c r="E40" s="466"/>
       <c r="F40" s="360" t="s">
         <v>65</v>
       </c>
@@ -21507,10 +21654,10 @@
         <v>65</v>
       </c>
       <c r="C41" s="360"/>
-      <c r="D41" s="476" t="s">
+      <c r="D41" s="466" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="476"/>
+      <c r="E41" s="466"/>
       <c r="F41" s="360" t="s">
         <v>65</v>
       </c>
@@ -21539,10 +21686,10 @@
         <v>65</v>
       </c>
       <c r="C42" s="360"/>
-      <c r="D42" s="476" t="s">
+      <c r="D42" s="466" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="476"/>
+      <c r="E42" s="466"/>
       <c r="F42" s="360" t="s">
         <v>65</v>
       </c>
@@ -21571,10 +21718,10 @@
         <v>65</v>
       </c>
       <c r="C43" s="360"/>
-      <c r="D43" s="476" t="s">
+      <c r="D43" s="466" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="476"/>
+      <c r="E43" s="466"/>
       <c r="F43" s="360" t="s">
         <v>65</v>
       </c>
@@ -21601,10 +21748,10 @@
     <row r="44" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="33"/>
       <c r="C44" s="360"/>
-      <c r="D44" s="476" t="s">
+      <c r="D44" s="466" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="476"/>
+      <c r="E44" s="466"/>
       <c r="F44" s="360"/>
       <c r="G44" s="360"/>
       <c r="H44" s="360" t="s">
@@ -21625,8 +21772,8 @@
     <row r="45" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="33"/>
       <c r="C45" s="360"/>
-      <c r="D45" s="476"/>
-      <c r="E45" s="476"/>
+      <c r="D45" s="466"/>
+      <c r="E45" s="466"/>
       <c r="F45" s="360"/>
       <c r="G45" s="360"/>
       <c r="H45" s="360"/>
@@ -21645,8 +21792,8 @@
     <row r="46" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="35"/>
       <c r="C46" s="360"/>
-      <c r="D46" s="476"/>
-      <c r="E46" s="476"/>
+      <c r="D46" s="466"/>
+      <c r="E46" s="466"/>
       <c r="F46" s="360"/>
       <c r="G46" s="360"/>
       <c r="H46" s="360"/>
@@ -21665,8 +21812,8 @@
     <row r="47" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="35"/>
       <c r="C47" s="360"/>
-      <c r="D47" s="481"/>
-      <c r="E47" s="481"/>
+      <c r="D47" s="467"/>
+      <c r="E47" s="467"/>
       <c r="F47" s="360"/>
       <c r="G47" s="360"/>
       <c r="H47" s="360"/>
@@ -21685,8 +21832,8 @@
     <row r="48" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="35"/>
       <c r="C48" s="360"/>
-      <c r="D48" s="481"/>
-      <c r="E48" s="481"/>
+      <c r="D48" s="467"/>
+      <c r="E48" s="467"/>
       <c r="F48" s="360"/>
       <c r="G48" s="360"/>
       <c r="H48" s="360"/>
@@ -21705,8 +21852,8 @@
     <row r="49" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="35"/>
       <c r="C49" s="360"/>
-      <c r="D49" s="481"/>
-      <c r="E49" s="481"/>
+      <c r="D49" s="467"/>
+      <c r="E49" s="467"/>
       <c r="F49" s="360"/>
       <c r="G49" s="360"/>
       <c r="H49" s="360"/>
@@ -21726,8 +21873,8 @@
       <c r="B50" s="35"/>
       <c r="C50" s="360"/>
       <c r="D50" s="360"/>
-      <c r="E50" s="481"/>
-      <c r="F50" s="481"/>
+      <c r="E50" s="467"/>
+      <c r="F50" s="467"/>
       <c r="G50" s="360"/>
       <c r="H50" s="360"/>
       <c r="I50" s="360"/>
@@ -21745,8 +21892,8 @@
     <row r="51" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="35"/>
       <c r="C51" s="360"/>
-      <c r="D51" s="481"/>
-      <c r="E51" s="481"/>
+      <c r="D51" s="467"/>
+      <c r="E51" s="467"/>
       <c r="F51" s="360"/>
       <c r="G51" s="360"/>
       <c r="H51" s="360"/>
@@ -21765,8 +21912,8 @@
     <row r="52" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="35"/>
       <c r="C52" s="360"/>
-      <c r="D52" s="481"/>
-      <c r="E52" s="481"/>
+      <c r="D52" s="467"/>
+      <c r="E52" s="467"/>
       <c r="F52" s="360"/>
       <c r="G52" s="360"/>
       <c r="H52" s="360"/>
@@ -21785,8 +21932,8 @@
     <row r="53" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="35"/>
       <c r="C53" s="360"/>
-      <c r="D53" s="481"/>
-      <c r="E53" s="481"/>
+      <c r="D53" s="467"/>
+      <c r="E53" s="467"/>
       <c r="F53" s="360"/>
       <c r="G53" s="360"/>
       <c r="H53" s="360"/>
@@ -21805,8 +21952,8 @@
     <row r="54" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="360"/>
       <c r="C54" s="360"/>
-      <c r="D54" s="481"/>
-      <c r="E54" s="481"/>
+      <c r="D54" s="467"/>
+      <c r="E54" s="467"/>
       <c r="F54" s="360"/>
       <c r="G54" s="360"/>
       <c r="H54" s="360"/>
@@ -21825,8 +21972,8 @@
     <row r="55" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="360"/>
       <c r="C55" s="360"/>
-      <c r="D55" s="481"/>
-      <c r="E55" s="481"/>
+      <c r="D55" s="467"/>
+      <c r="E55" s="467"/>
       <c r="F55" s="360"/>
       <c r="G55" s="360"/>
       <c r="H55" s="360"/>
@@ -21845,8 +21992,8 @@
     <row r="56" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="360"/>
       <c r="C56" s="360"/>
-      <c r="D56" s="481"/>
-      <c r="E56" s="481"/>
+      <c r="D56" s="467"/>
+      <c r="E56" s="467"/>
       <c r="F56" s="360"/>
       <c r="G56" s="360"/>
       <c r="H56" s="360"/>
@@ -21865,8 +22012,8 @@
     <row r="57" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="360"/>
       <c r="C57" s="360"/>
-      <c r="D57" s="481"/>
-      <c r="E57" s="481"/>
+      <c r="D57" s="467"/>
+      <c r="E57" s="467"/>
       <c r="F57" s="360"/>
       <c r="G57" s="360"/>
       <c r="H57" s="360"/>
@@ -21885,8 +22032,8 @@
     <row r="58" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="360"/>
       <c r="C58" s="360"/>
-      <c r="D58" s="481"/>
-      <c r="E58" s="481"/>
+      <c r="D58" s="467"/>
+      <c r="E58" s="467"/>
       <c r="F58" s="360"/>
       <c r="G58" s="360"/>
       <c r="H58" s="360"/>
@@ -22024,28 +22171,25 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="E50:F50"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
@@ -22060,25 +22204,28 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22108,14 +22255,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="483" t="s">
+      <c r="A1" s="508" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="484"/>
-      <c r="C1" s="484"/>
-      <c r="D1" s="484"/>
-      <c r="E1" s="484"/>
-      <c r="F1" s="485"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="510"/>
       <c r="G1" s="69"/>
       <c r="H1" s="36"/>
     </row>
@@ -22129,11 +22276,11 @@
       <c r="C2" s="353" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="486" t="s">
+      <c r="D2" s="511" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="486"/>
-      <c r="F2" s="487"/>
+      <c r="E2" s="511"/>
+      <c r="F2" s="512"/>
       <c r="G2" s="83"/>
       <c r="H2" s="36"/>
     </row>
@@ -22141,9 +22288,9 @@
       <c r="A3" s="74"/>
       <c r="B3" s="113"/>
       <c r="C3" s="210"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="489"/>
-      <c r="F3" s="490"/>
+      <c r="D3" s="513"/>
+      <c r="E3" s="514"/>
+      <c r="F3" s="515"/>
       <c r="G3" s="69"/>
       <c r="H3" s="36"/>
     </row>
@@ -22151,9 +22298,9 @@
       <c r="A4" s="74"/>
       <c r="B4" s="113"/>
       <c r="C4" s="210"/>
-      <c r="D4" s="491"/>
-      <c r="E4" s="492"/>
-      <c r="F4" s="493"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="494"/>
       <c r="G4" s="69"/>
       <c r="H4" s="36"/>
     </row>
@@ -22161,9 +22308,9 @@
       <c r="A5" s="74"/>
       <c r="B5" s="113"/>
       <c r="C5" s="210"/>
-      <c r="D5" s="491"/>
-      <c r="E5" s="492"/>
-      <c r="F5" s="493"/>
+      <c r="D5" s="492"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="494"/>
       <c r="G5" s="69"/>
       <c r="H5" s="36"/>
     </row>
@@ -22171,9 +22318,9 @@
       <c r="A6" s="74"/>
       <c r="B6" s="221"/>
       <c r="C6" s="210"/>
-      <c r="D6" s="491"/>
-      <c r="E6" s="492"/>
-      <c r="F6" s="493"/>
+      <c r="D6" s="492"/>
+      <c r="E6" s="493"/>
+      <c r="F6" s="494"/>
       <c r="G6" s="69"/>
       <c r="H6" s="36"/>
     </row>
@@ -22181,9 +22328,9 @@
       <c r="A7" s="79"/>
       <c r="B7" s="219"/>
       <c r="C7" s="210"/>
-      <c r="D7" s="494"/>
-      <c r="E7" s="494"/>
-      <c r="F7" s="494"/>
+      <c r="D7" s="495"/>
+      <c r="E7" s="495"/>
+      <c r="F7" s="495"/>
       <c r="G7" s="204"/>
       <c r="H7" s="36"/>
     </row>
@@ -22198,73 +22345,73 @@
       <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="495"/>
-      <c r="B9" s="497"/>
-      <c r="C9" s="499" t="str">
+      <c r="A9" s="496"/>
+      <c r="B9" s="498"/>
+      <c r="C9" s="500" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="501" t="s">
+      <c r="D9" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="503"/>
-      <c r="F9" s="505"/>
+      <c r="E9" s="504"/>
+      <c r="F9" s="506"/>
       <c r="G9" s="69"/>
       <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="496"/>
-      <c r="B10" s="498"/>
-      <c r="C10" s="500"/>
-      <c r="D10" s="502"/>
-      <c r="E10" s="504"/>
-      <c r="F10" s="506"/>
+      <c r="A10" s="497"/>
+      <c r="B10" s="499"/>
+      <c r="C10" s="501"/>
+      <c r="D10" s="503"/>
+      <c r="E10" s="505"/>
+      <c r="F10" s="507"/>
       <c r="G10" s="69"/>
       <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="507" t="s">
+      <c r="A11" s="483" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="508"/>
-      <c r="C11" s="509"/>
-      <c r="D11" s="508"/>
-      <c r="E11" s="435"/>
-      <c r="F11" s="510"/>
+      <c r="B11" s="484"/>
+      <c r="C11" s="485"/>
+      <c r="D11" s="484"/>
+      <c r="E11" s="463"/>
+      <c r="F11" s="486"/>
       <c r="G11" s="83"/>
       <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="511" t="s">
+      <c r="A12" s="487" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="414" t="s">
+      <c r="B12" s="397" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="512" t="s">
+      <c r="C12" s="488" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="513"/>
-      <c r="E12" s="514" t="s">
+      <c r="D12" s="489"/>
+      <c r="E12" s="490" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="515" t="s">
+      <c r="F12" s="491" t="s">
         <v>63</v>
       </c>
       <c r="G12" s="83"/>
       <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="511"/>
-      <c r="B13" s="414"/>
+      <c r="A13" s="487"/>
+      <c r="B13" s="397"/>
       <c r="C13" s="216" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="514"/>
-      <c r="F13" s="515"/>
+      <c r="E13" s="490"/>
+      <c r="F13" s="491"/>
       <c r="G13" s="83"/>
       <c r="H13" s="36"/>
     </row>
@@ -23140,12 +23287,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -23153,12 +23300,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23219,14 +23366,14 @@
       <c r="D2" s="361" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="479" t="s">
+      <c r="E2" s="470" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="480"/>
-      <c r="G2" s="466" t="s">
+      <c r="F2" s="471"/>
+      <c r="G2" s="473" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="467"/>
+      <c r="H2" s="474"/>
       <c r="I2" s="361" t="s">
         <v>44</v>
       </c>
@@ -23249,10 +23396,10 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="468"/>
-      <c r="F3" s="468"/>
-      <c r="G3" s="469"/>
-      <c r="H3" s="469"/>
+      <c r="E3" s="475"/>
+      <c r="F3" s="475"/>
+      <c r="G3" s="468"/>
+      <c r="H3" s="468"/>
       <c r="I3" s="201"/>
       <c r="J3" s="222"/>
       <c r="K3" s="21"/>
@@ -23270,10 +23417,10 @@
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="31"/>
-      <c r="E4" s="477"/>
-      <c r="F4" s="477"/>
-      <c r="G4" s="469"/>
-      <c r="H4" s="469"/>
+      <c r="E4" s="472"/>
+      <c r="F4" s="472"/>
+      <c r="G4" s="468"/>
+      <c r="H4" s="468"/>
       <c r="I4" s="28"/>
       <c r="J4" s="213"/>
       <c r="K4" s="28"/>
@@ -23291,10 +23438,10 @@
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="477"/>
-      <c r="F5" s="477"/>
-      <c r="G5" s="469"/>
-      <c r="H5" s="469"/>
+      <c r="E5" s="472"/>
+      <c r="F5" s="472"/>
+      <c r="G5" s="468"/>
+      <c r="H5" s="468"/>
       <c r="I5" s="28"/>
       <c r="J5" s="213"/>
       <c r="K5" s="28"/>
@@ -23312,10 +23459,10 @@
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="477"/>
-      <c r="F6" s="477"/>
-      <c r="G6" s="469"/>
-      <c r="H6" s="469"/>
+      <c r="E6" s="472"/>
+      <c r="F6" s="472"/>
+      <c r="G6" s="468"/>
+      <c r="H6" s="468"/>
       <c r="I6" s="28"/>
       <c r="J6" s="213"/>
       <c r="K6" s="28"/>
@@ -23331,8 +23478,8 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="31"/>
-      <c r="G7" s="469"/>
-      <c r="H7" s="469"/>
+      <c r="G7" s="468"/>
+      <c r="H7" s="468"/>
       <c r="I7" s="28"/>
       <c r="J7" s="213"/>
       <c r="K7" s="28"/>
@@ -23350,10 +23497,10 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="477"/>
-      <c r="F8" s="477"/>
-      <c r="G8" s="469"/>
-      <c r="H8" s="469"/>
+      <c r="E8" s="472"/>
+      <c r="F8" s="472"/>
+      <c r="G8" s="468"/>
+      <c r="H8" s="468"/>
       <c r="I8" s="28"/>
       <c r="J8" s="213"/>
       <c r="K8" s="28"/>
@@ -23371,10 +23518,10 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="477"/>
-      <c r="F9" s="477"/>
-      <c r="G9" s="469"/>
-      <c r="H9" s="469"/>
+      <c r="E9" s="472"/>
+      <c r="F9" s="472"/>
+      <c r="G9" s="468"/>
+      <c r="H9" s="468"/>
       <c r="I9" s="28"/>
       <c r="J9" s="213"/>
       <c r="K9" s="28"/>
@@ -23392,10 +23539,10 @@
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="477"/>
-      <c r="F10" s="477"/>
-      <c r="G10" s="469"/>
-      <c r="H10" s="469"/>
+      <c r="E10" s="472"/>
+      <c r="F10" s="472"/>
+      <c r="G10" s="468"/>
+      <c r="H10" s="468"/>
       <c r="I10" s="27"/>
       <c r="J10" s="213"/>
       <c r="K10" s="28"/>
@@ -23412,8 +23559,8 @@
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="93"/>
       <c r="D11" s="93"/>
-      <c r="E11" s="478"/>
-      <c r="F11" s="478"/>
+      <c r="E11" s="482"/>
+      <c r="F11" s="482"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="29"/>
@@ -23431,11 +23578,11 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="94"/>
-      <c r="C12" s="471" t="s">
+      <c r="C12" s="477" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="472"/>
-      <c r="E12" s="473"/>
+      <c r="D12" s="478"/>
+      <c r="E12" s="479"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="211" t="s">
@@ -23489,10 +23636,10 @@
       <c r="C14" s="362" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="474" t="s">
+      <c r="D14" s="480" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="475"/>
+      <c r="E14" s="481"/>
       <c r="F14" s="200" t="s">
         <v>50</v>
       </c>
@@ -23522,8 +23669,8 @@
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="280"/>
       <c r="C15" s="367"/>
-      <c r="D15" s="517"/>
-      <c r="E15" s="517"/>
+      <c r="D15" s="525"/>
+      <c r="E15" s="525"/>
       <c r="F15" s="276"/>
       <c r="G15" s="277"/>
       <c r="H15" s="277"/>
@@ -23543,8 +23690,8 @@
     <row r="16" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="280"/>
       <c r="C16" s="367"/>
-      <c r="D16" s="518"/>
-      <c r="E16" s="518"/>
+      <c r="D16" s="516"/>
+      <c r="E16" s="516"/>
       <c r="F16" s="276"/>
       <c r="G16" s="277"/>
       <c r="H16" s="277"/>
@@ -23564,8 +23711,8 @@
     <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="280"/>
       <c r="C17" s="367"/>
-      <c r="D17" s="519"/>
-      <c r="E17" s="519"/>
+      <c r="D17" s="526"/>
+      <c r="E17" s="526"/>
       <c r="F17" s="276"/>
       <c r="G17" s="277"/>
       <c r="H17" s="277"/>
@@ -23585,8 +23732,8 @@
     <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="273"/>
       <c r="C18" s="277"/>
-      <c r="D18" s="520"/>
-      <c r="E18" s="520"/>
+      <c r="D18" s="524"/>
+      <c r="E18" s="524"/>
       <c r="F18" s="276"/>
       <c r="G18" s="277"/>
       <c r="H18" s="277"/>
@@ -23606,8 +23753,8 @@
     <row r="19" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="273"/>
       <c r="C19" s="277"/>
-      <c r="D19" s="521"/>
-      <c r="E19" s="521"/>
+      <c r="D19" s="523"/>
+      <c r="E19" s="523"/>
       <c r="F19" s="276"/>
       <c r="G19" s="277"/>
       <c r="H19" s="277"/>
@@ -23627,8 +23774,8 @@
     <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="273"/>
       <c r="C20" s="277"/>
-      <c r="D20" s="521"/>
-      <c r="E20" s="521"/>
+      <c r="D20" s="523"/>
+      <c r="E20" s="523"/>
       <c r="F20" s="276"/>
       <c r="G20" s="277"/>
       <c r="H20" s="277"/>
@@ -23678,8 +23825,8 @@
     <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="273"/>
       <c r="C23" s="277"/>
-      <c r="D23" s="520"/>
-      <c r="E23" s="520"/>
+      <c r="D23" s="524"/>
+      <c r="E23" s="524"/>
       <c r="F23" s="276"/>
       <c r="G23" s="277"/>
       <c r="H23" s="277"/>
@@ -23695,8 +23842,8 @@
     <row r="24" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="273"/>
       <c r="C24" s="277"/>
-      <c r="D24" s="521"/>
-      <c r="E24" s="521"/>
+      <c r="D24" s="523"/>
+      <c r="E24" s="523"/>
       <c r="F24" s="276"/>
       <c r="G24" s="277"/>
       <c r="H24" s="277"/>
@@ -23712,8 +23859,8 @@
     <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="273"/>
       <c r="C25" s="277"/>
-      <c r="D25" s="521"/>
-      <c r="E25" s="521"/>
+      <c r="D25" s="523"/>
+      <c r="E25" s="523"/>
       <c r="F25" s="276"/>
       <c r="G25" s="277"/>
       <c r="H25" s="277"/>
@@ -23771,8 +23918,8 @@
     <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="273"/>
       <c r="C28" s="277"/>
-      <c r="D28" s="520"/>
-      <c r="E28" s="520"/>
+      <c r="D28" s="524"/>
+      <c r="E28" s="524"/>
       <c r="F28" s="276"/>
       <c r="G28" s="277"/>
       <c r="H28" s="277"/>
@@ -23792,8 +23939,8 @@
     <row r="29" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="273"/>
       <c r="C29" s="277"/>
-      <c r="D29" s="521"/>
-      <c r="E29" s="521"/>
+      <c r="D29" s="523"/>
+      <c r="E29" s="523"/>
       <c r="F29" s="276"/>
       <c r="G29" s="277"/>
       <c r="H29" s="277"/>
@@ -23813,8 +23960,8 @@
     <row r="30" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="273"/>
       <c r="C30" s="277"/>
-      <c r="D30" s="521"/>
-      <c r="E30" s="521"/>
+      <c r="D30" s="523"/>
+      <c r="E30" s="523"/>
       <c r="F30" s="276"/>
       <c r="G30" s="277"/>
       <c r="H30" s="277"/>
@@ -23876,8 +24023,8 @@
     <row r="33" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="273"/>
       <c r="C33" s="277"/>
-      <c r="D33" s="520"/>
-      <c r="E33" s="520"/>
+      <c r="D33" s="524"/>
+      <c r="E33" s="524"/>
       <c r="F33" s="276"/>
       <c r="G33" s="277"/>
       <c r="H33" s="277"/>
@@ -23897,8 +24044,8 @@
     <row r="34" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="273"/>
       <c r="C34" s="277"/>
-      <c r="D34" s="521"/>
-      <c r="E34" s="521"/>
+      <c r="D34" s="523"/>
+      <c r="E34" s="523"/>
       <c r="F34" s="276"/>
       <c r="G34" s="277"/>
       <c r="H34" s="277"/>
@@ -23918,8 +24065,8 @@
     <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="273"/>
       <c r="C35" s="277"/>
-      <c r="D35" s="521"/>
-      <c r="E35" s="521"/>
+      <c r="D35" s="523"/>
+      <c r="E35" s="523"/>
       <c r="F35" s="276"/>
       <c r="G35" s="277"/>
       <c r="H35" s="277"/>
@@ -23981,8 +24128,8 @@
     <row r="38" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="273"/>
       <c r="C38" s="277"/>
-      <c r="D38" s="520"/>
-      <c r="E38" s="520"/>
+      <c r="D38" s="524"/>
+      <c r="E38" s="524"/>
       <c r="F38" s="276"/>
       <c r="G38" s="277"/>
       <c r="H38" s="277"/>
@@ -24002,8 +24149,8 @@
     <row r="39" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="273"/>
       <c r="C39" s="277"/>
-      <c r="D39" s="521"/>
-      <c r="E39" s="521"/>
+      <c r="D39" s="523"/>
+      <c r="E39" s="523"/>
       <c r="F39" s="276"/>
       <c r="G39" s="277"/>
       <c r="H39" s="277"/>
@@ -24023,8 +24170,8 @@
     <row r="40" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="273"/>
       <c r="C40" s="277"/>
-      <c r="D40" s="521"/>
-      <c r="E40" s="521"/>
+      <c r="D40" s="523"/>
+      <c r="E40" s="523"/>
       <c r="F40" s="276"/>
       <c r="G40" s="277"/>
       <c r="H40" s="277"/>
@@ -24086,8 +24233,8 @@
     <row r="43" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="273"/>
       <c r="C43" s="277"/>
-      <c r="D43" s="523"/>
-      <c r="E43" s="523"/>
+      <c r="D43" s="521"/>
+      <c r="E43" s="521"/>
       <c r="F43" s="297"/>
       <c r="G43" s="277"/>
       <c r="H43" s="277"/>
@@ -24107,8 +24254,8 @@
     <row r="44" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="273"/>
       <c r="C44" s="277"/>
-      <c r="D44" s="521"/>
-      <c r="E44" s="521"/>
+      <c r="D44" s="523"/>
+      <c r="E44" s="523"/>
       <c r="F44" s="297"/>
       <c r="G44" s="277"/>
       <c r="H44" s="277"/>
@@ -24128,8 +24275,8 @@
     <row r="45" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="273"/>
       <c r="C45" s="277"/>
-      <c r="D45" s="521"/>
-      <c r="E45" s="521"/>
+      <c r="D45" s="523"/>
+      <c r="E45" s="523"/>
       <c r="F45" s="297"/>
       <c r="G45" s="277"/>
       <c r="H45" s="277"/>
@@ -24191,8 +24338,8 @@
     <row r="48" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="280"/>
       <c r="C48" s="367"/>
-      <c r="D48" s="525"/>
-      <c r="E48" s="525"/>
+      <c r="D48" s="518"/>
+      <c r="E48" s="518"/>
       <c r="F48" s="276"/>
       <c r="G48" s="277"/>
       <c r="H48" s="277"/>
@@ -24212,8 +24359,8 @@
     <row r="49" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="273"/>
       <c r="C49" s="277"/>
-      <c r="D49" s="523"/>
-      <c r="E49" s="523"/>
+      <c r="D49" s="521"/>
+      <c r="E49" s="521"/>
       <c r="F49" s="276"/>
       <c r="G49" s="277"/>
       <c r="H49" s="277"/>
@@ -24233,8 +24380,8 @@
     <row r="50" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="273"/>
       <c r="C50" s="277"/>
-      <c r="D50" s="521"/>
-      <c r="E50" s="521"/>
+      <c r="D50" s="523"/>
+      <c r="E50" s="523"/>
       <c r="F50" s="276"/>
       <c r="G50" s="277"/>
       <c r="H50" s="277"/>
@@ -24254,8 +24401,8 @@
     <row r="51" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="273"/>
       <c r="C51" s="277"/>
-      <c r="D51" s="521"/>
-      <c r="E51" s="521"/>
+      <c r="D51" s="523"/>
+      <c r="E51" s="523"/>
       <c r="F51" s="276"/>
       <c r="G51" s="277"/>
       <c r="H51" s="277"/>
@@ -24312,8 +24459,8 @@
     <row r="54" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="273"/>
       <c r="C54" s="277"/>
-      <c r="D54" s="523"/>
-      <c r="E54" s="523"/>
+      <c r="D54" s="521"/>
+      <c r="E54" s="521"/>
       <c r="F54" s="276"/>
       <c r="G54" s="277"/>
       <c r="H54" s="277"/>
@@ -24328,8 +24475,8 @@
     <row r="55" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="273"/>
       <c r="C55" s="277"/>
-      <c r="D55" s="521"/>
-      <c r="E55" s="521"/>
+      <c r="D55" s="523"/>
+      <c r="E55" s="523"/>
       <c r="F55" s="276"/>
       <c r="G55" s="277"/>
       <c r="H55" s="277"/>
@@ -24343,8 +24490,8 @@
     <row r="56" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="273"/>
       <c r="C56" s="277"/>
-      <c r="D56" s="521"/>
-      <c r="E56" s="521"/>
+      <c r="D56" s="523"/>
+      <c r="E56" s="523"/>
       <c r="F56" s="276"/>
       <c r="G56" s="277"/>
       <c r="H56" s="277"/>
@@ -24388,8 +24535,8 @@
     <row r="59" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="273"/>
       <c r="C59" s="277"/>
-      <c r="D59" s="523"/>
-      <c r="E59" s="523"/>
+      <c r="D59" s="521"/>
+      <c r="E59" s="521"/>
       <c r="F59" s="276"/>
       <c r="G59" s="277"/>
       <c r="H59" s="277"/>
@@ -24403,8 +24550,8 @@
     <row r="60" spans="2:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B60" s="274"/>
       <c r="C60" s="278"/>
-      <c r="D60" s="521"/>
-      <c r="E60" s="521"/>
+      <c r="D60" s="523"/>
+      <c r="E60" s="523"/>
       <c r="F60" s="276"/>
       <c r="G60" s="278"/>
       <c r="H60" s="277"/>
@@ -24414,8 +24561,8 @@
     <row r="61" spans="2:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B61" s="274"/>
       <c r="C61" s="278"/>
-      <c r="D61" s="521"/>
-      <c r="E61" s="521"/>
+      <c r="D61" s="523"/>
+      <c r="E61" s="523"/>
       <c r="F61" s="276"/>
       <c r="G61" s="278"/>
       <c r="H61" s="277"/>
@@ -24447,8 +24594,8 @@
     <row r="64" spans="2:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B64" s="274"/>
       <c r="C64" s="278"/>
-      <c r="D64" s="523"/>
-      <c r="E64" s="523"/>
+      <c r="D64" s="521"/>
+      <c r="E64" s="521"/>
       <c r="F64" s="276"/>
       <c r="G64" s="278"/>
       <c r="H64" s="277"/>
@@ -24458,8 +24605,8 @@
     <row r="65" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B65" s="274"/>
       <c r="C65" s="278"/>
-      <c r="D65" s="521"/>
-      <c r="E65" s="521"/>
+      <c r="D65" s="523"/>
+      <c r="E65" s="523"/>
       <c r="F65" s="276"/>
       <c r="G65" s="278"/>
       <c r="H65" s="277"/>
@@ -24469,8 +24616,8 @@
     <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B66" s="274"/>
       <c r="C66" s="278"/>
-      <c r="D66" s="521"/>
-      <c r="E66" s="521"/>
+      <c r="D66" s="523"/>
+      <c r="E66" s="523"/>
       <c r="F66" s="276"/>
       <c r="G66" s="278"/>
       <c r="H66" s="277"/>
@@ -24502,8 +24649,8 @@
     <row r="69" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B69" s="274"/>
       <c r="C69" s="278"/>
-      <c r="D69" s="523"/>
-      <c r="E69" s="523"/>
+      <c r="D69" s="521"/>
+      <c r="E69" s="521"/>
       <c r="F69" s="276"/>
       <c r="G69" s="278"/>
       <c r="H69" s="277"/>
@@ -24513,8 +24660,8 @@
     <row r="70" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B70" s="274"/>
       <c r="C70" s="278"/>
-      <c r="D70" s="521"/>
-      <c r="E70" s="521"/>
+      <c r="D70" s="523"/>
+      <c r="E70" s="523"/>
       <c r="F70" s="276"/>
       <c r="G70" s="278"/>
       <c r="H70" s="277"/>
@@ -24524,8 +24671,8 @@
     <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B71" s="274"/>
       <c r="C71" s="278"/>
-      <c r="D71" s="521"/>
-      <c r="E71" s="521"/>
+      <c r="D71" s="523"/>
+      <c r="E71" s="523"/>
       <c r="F71" s="276"/>
       <c r="G71" s="278"/>
       <c r="H71" s="277"/>
@@ -24557,8 +24704,8 @@
     <row r="74" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B74" s="281"/>
       <c r="C74" s="279"/>
-      <c r="D74" s="518"/>
-      <c r="E74" s="518"/>
+      <c r="D74" s="516"/>
+      <c r="E74" s="516"/>
       <c r="F74" s="276"/>
       <c r="G74" s="278"/>
       <c r="H74" s="277"/>
@@ -24568,8 +24715,8 @@
     <row r="75" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B75" s="274"/>
       <c r="C75" s="278"/>
-      <c r="D75" s="526"/>
-      <c r="E75" s="526"/>
+      <c r="D75" s="519"/>
+      <c r="E75" s="519"/>
       <c r="F75" s="276"/>
       <c r="G75" s="278"/>
       <c r="H75" s="376"/>
@@ -24579,8 +24726,8 @@
     <row r="76" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B76" s="274"/>
       <c r="C76" s="278"/>
-      <c r="D76" s="526"/>
-      <c r="E76" s="526"/>
+      <c r="D76" s="519"/>
+      <c r="E76" s="519"/>
       <c r="F76" s="276"/>
       <c r="G76" s="278"/>
       <c r="H76" s="376"/>
@@ -24590,8 +24737,8 @@
     <row r="77" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B77" s="274"/>
       <c r="C77" s="278"/>
-      <c r="D77" s="527"/>
-      <c r="E77" s="527"/>
+      <c r="D77" s="520"/>
+      <c r="E77" s="520"/>
       <c r="F77" s="276"/>
       <c r="G77" s="278"/>
       <c r="H77" s="376"/>
@@ -24601,8 +24748,8 @@
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="274"/>
       <c r="C78" s="278"/>
-      <c r="D78" s="527"/>
-      <c r="E78" s="527"/>
+      <c r="D78" s="520"/>
+      <c r="E78" s="520"/>
       <c r="F78" s="276"/>
       <c r="G78" s="278"/>
       <c r="H78" s="376"/>
@@ -24612,8 +24759,8 @@
     <row r="79" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B79" s="281"/>
       <c r="C79" s="279"/>
-      <c r="D79" s="518"/>
-      <c r="E79" s="518"/>
+      <c r="D79" s="516"/>
+      <c r="E79" s="516"/>
       <c r="F79" s="276"/>
       <c r="G79" s="278"/>
       <c r="H79" s="376"/>
@@ -24623,8 +24770,8 @@
     <row r="80" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B80" s="274"/>
       <c r="C80" s="278"/>
-      <c r="D80" s="524"/>
-      <c r="E80" s="524"/>
+      <c r="D80" s="517"/>
+      <c r="E80" s="517"/>
       <c r="F80" s="276"/>
       <c r="G80" s="278"/>
       <c r="H80" s="376"/>
@@ -24634,8 +24781,8 @@
     <row r="81" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B81" s="281"/>
       <c r="C81" s="279"/>
-      <c r="D81" s="518"/>
-      <c r="E81" s="518"/>
+      <c r="D81" s="516"/>
+      <c r="E81" s="516"/>
       <c r="F81" s="276"/>
       <c r="G81" s="278"/>
       <c r="H81" s="376"/>
@@ -24645,8 +24792,8 @@
     <row r="82" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B82" s="281"/>
       <c r="C82" s="279"/>
-      <c r="D82" s="518"/>
-      <c r="E82" s="518"/>
+      <c r="D82" s="516"/>
+      <c r="E82" s="516"/>
       <c r="F82" s="337"/>
       <c r="G82" s="278"/>
       <c r="H82" s="376"/>
@@ -24654,71 +24801,151 @@
       <c r="J82" s="377"/>
     </row>
     <row r="83" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D83" s="481"/>
-      <c r="E83" s="481"/>
+      <c r="D83" s="467"/>
+      <c r="E83" s="467"/>
     </row>
     <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D84" s="481"/>
-      <c r="E84" s="481"/>
+      <c r="D84" s="467"/>
+      <c r="E84" s="467"/>
     </row>
     <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D85" s="481"/>
-      <c r="E85" s="481"/>
+      <c r="D85" s="467"/>
+      <c r="E85" s="467"/>
     </row>
     <row r="86" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D86" s="481"/>
-      <c r="E86" s="481"/>
+      <c r="D86" s="467"/>
+      <c r="E86" s="467"/>
     </row>
     <row r="87" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D87" s="481"/>
-      <c r="E87" s="481"/>
+      <c r="D87" s="467"/>
+      <c r="E87" s="467"/>
     </row>
     <row r="88" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D88" s="481"/>
-      <c r="E88" s="481"/>
+      <c r="D88" s="467"/>
+      <c r="E88" s="467"/>
     </row>
     <row r="89" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D89" s="481"/>
-      <c r="E89" s="481"/>
+      <c r="D89" s="467"/>
+      <c r="E89" s="467"/>
     </row>
     <row r="90" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D90" s="481"/>
-      <c r="E90" s="481"/>
+      <c r="D90" s="467"/>
+      <c r="E90" s="467"/>
     </row>
     <row r="91" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D91" s="481"/>
-      <c r="E91" s="481"/>
+      <c r="D91" s="467"/>
+      <c r="E91" s="467"/>
     </row>
     <row r="92" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D92" s="516"/>
-      <c r="E92" s="516"/>
+      <c r="D92" s="527"/>
+      <c r="E92" s="527"/>
     </row>
     <row r="93" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D93" s="516"/>
-      <c r="E93" s="516"/>
+      <c r="D93" s="527"/>
+      <c r="E93" s="527"/>
     </row>
     <row r="94" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D94" s="516"/>
-      <c r="E94" s="516"/>
+      <c r="D94" s="527"/>
+      <c r="E94" s="527"/>
     </row>
     <row r="95" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D95" s="481"/>
-      <c r="E95" s="481"/>
+      <c r="D95" s="467"/>
+      <c r="E95" s="467"/>
     </row>
     <row r="96" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D96" s="481"/>
-      <c r="E96" s="481"/>
+      <c r="D96" s="467"/>
+      <c r="E96" s="467"/>
     </row>
     <row r="97" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D97" s="481"/>
-      <c r="E97" s="481"/>
+      <c r="D97" s="467"/>
+      <c r="E97" s="467"/>
     </row>
     <row r="98" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D98" s="481"/>
-      <c r="E98" s="481"/>
+      <c r="D98" s="467"/>
+      <c r="E98" s="467"/>
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="D81:E81"/>
@@ -24743,86 +24970,6 @@
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24850,14 +24997,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="483" t="s">
+      <c r="A1" s="508" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="484"/>
-      <c r="C1" s="484"/>
-      <c r="D1" s="484"/>
-      <c r="E1" s="484"/>
-      <c r="F1" s="485"/>
+      <c r="B1" s="509"/>
+      <c r="C1" s="509"/>
+      <c r="D1" s="509"/>
+      <c r="E1" s="509"/>
+      <c r="F1" s="510"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="100" t="s">
@@ -24869,51 +25016,51 @@
       <c r="C2" s="353" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="486" t="s">
+      <c r="D2" s="511" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="486"/>
-      <c r="F2" s="487"/>
+      <c r="E2" s="511"/>
+      <c r="F2" s="512"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="74"/>
       <c r="B3" s="340"/>
       <c r="C3" s="210"/>
-      <c r="D3" s="488"/>
-      <c r="E3" s="489"/>
-      <c r="F3" s="490"/>
+      <c r="D3" s="513"/>
+      <c r="E3" s="514"/>
+      <c r="F3" s="515"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74"/>
       <c r="B4" s="340"/>
       <c r="C4" s="210"/>
-      <c r="D4" s="491"/>
-      <c r="E4" s="492"/>
-      <c r="F4" s="493"/>
+      <c r="D4" s="492"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="494"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74"/>
       <c r="B5" s="340"/>
       <c r="C5" s="210"/>
-      <c r="D5" s="491"/>
-      <c r="E5" s="492"/>
-      <c r="F5" s="493"/>
+      <c r="D5" s="492"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="494"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="74"/>
       <c r="B6" s="340"/>
       <c r="C6" s="210"/>
-      <c r="D6" s="491"/>
-      <c r="E6" s="492"/>
-      <c r="F6" s="493"/>
+      <c r="D6" s="492"/>
+      <c r="E6" s="493"/>
+      <c r="F6" s="494"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79"/>
       <c r="B7" s="340"/>
       <c r="C7" s="210"/>
-      <c r="D7" s="494"/>
-      <c r="E7" s="494"/>
-      <c r="F7" s="494"/>
+      <c r="D7" s="495"/>
+      <c r="E7" s="495"/>
+      <c r="F7" s="495"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="74"/>
@@ -24924,70 +25071,70 @@
       <c r="F8" s="343"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="495" t="s">
+      <c r="A9" s="496" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="529" t="str">
+      <c r="B9" s="528" t="str">
         <f>IF((SUM(B3:B7)=0),"",SUM(B3:B7))</f>
         <v/>
       </c>
-      <c r="C9" s="499" t="str">
+      <c r="C9" s="500" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="501" t="s">
+      <c r="D9" s="502" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="533"/>
-      <c r="F9" s="531"/>
+      <c r="E9" s="532"/>
+      <c r="F9" s="530"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="496"/>
-      <c r="B10" s="530"/>
-      <c r="C10" s="500"/>
-      <c r="D10" s="502"/>
-      <c r="E10" s="534"/>
-      <c r="F10" s="532"/>
+      <c r="A10" s="497"/>
+      <c r="B10" s="529"/>
+      <c r="C10" s="501"/>
+      <c r="D10" s="503"/>
+      <c r="E10" s="533"/>
+      <c r="F10" s="531"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="507" t="s">
+      <c r="A11" s="483" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="508"/>
-      <c r="C11" s="509"/>
-      <c r="D11" s="508"/>
-      <c r="E11" s="435"/>
-      <c r="F11" s="510"/>
+      <c r="B11" s="484"/>
+      <c r="C11" s="485"/>
+      <c r="D11" s="484"/>
+      <c r="E11" s="463"/>
+      <c r="F11" s="486"/>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="511" t="s">
+      <c r="A12" s="487" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="414" t="s">
+      <c r="B12" s="397" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="512" t="s">
+      <c r="C12" s="488" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="513"/>
-      <c r="E12" s="514" t="s">
+      <c r="D12" s="489"/>
+      <c r="E12" s="490" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="528" t="s">
+      <c r="F12" s="534" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="511"/>
-      <c r="B13" s="414"/>
+      <c r="A13" s="487"/>
+      <c r="B13" s="397"/>
       <c r="C13" s="216" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="514"/>
-      <c r="F13" s="528"/>
+      <c r="E13" s="490"/>
+      <c r="F13" s="534"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="202">
@@ -25896,12 +26043,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -25909,12 +26056,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25963,14 +26110,14 @@
       <c r="C2" s="374" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="535" t="s">
+      <c r="D2" s="554" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="536"/>
-      <c r="F2" s="537" t="s">
+      <c r="E2" s="555"/>
+      <c r="F2" s="556" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="536"/>
+      <c r="G2" s="555"/>
       <c r="H2" s="374" t="s">
         <v>91</v>
       </c>
@@ -25992,14 +26139,14 @@
       <c r="C3" s="125" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="538" t="s">
+      <c r="D3" s="557" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="538"/>
-      <c r="F3" s="539" t="s">
+      <c r="E3" s="557"/>
+      <c r="F3" s="558" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="540"/>
+      <c r="G3" s="559"/>
       <c r="H3" s="126"/>
       <c r="I3" s="124"/>
       <c r="J3" s="127"/>
@@ -26013,10 +26160,10 @@
       <c r="A4" s="123"/>
       <c r="B4" s="124"/>
       <c r="C4" s="375"/>
-      <c r="D4" s="540"/>
-      <c r="E4" s="540"/>
-      <c r="F4" s="539"/>
-      <c r="G4" s="540"/>
+      <c r="D4" s="559"/>
+      <c r="E4" s="559"/>
+      <c r="F4" s="558"/>
+      <c r="G4" s="559"/>
       <c r="H4" s="126"/>
       <c r="I4" s="124"/>
       <c r="J4" s="129"/>
@@ -26079,10 +26226,10 @@
     </row>
     <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="370"/>
-      <c r="B8" s="541" t="s">
+      <c r="B8" s="546" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="542"/>
+      <c r="C8" s="547"/>
       <c r="D8" s="134"/>
       <c r="E8" s="134"/>
       <c r="F8" s="139"/>
@@ -26120,10 +26267,10 @@
       <c r="B10" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="543" t="s">
+      <c r="C10" s="548" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="544"/>
+      <c r="D10" s="549"/>
       <c r="E10" s="373" t="s">
         <v>54</v>
       </c>
@@ -26152,16 +26299,16 @@
     </row>
     <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="122"/>
-      <c r="B11" s="545" t="s">
+      <c r="B11" s="550" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="545"/>
-      <c r="D11" s="546"/>
-      <c r="E11" s="547"/>
-      <c r="F11" s="548"/>
-      <c r="G11" s="547"/>
-      <c r="H11" s="547"/>
-      <c r="I11" s="547"/>
+      <c r="C11" s="550"/>
+      <c r="D11" s="551"/>
+      <c r="E11" s="552"/>
+      <c r="F11" s="553"/>
+      <c r="G11" s="552"/>
+      <c r="H11" s="552"/>
+      <c r="I11" s="552"/>
       <c r="J11" s="148"/>
       <c r="K11" s="148"/>
       <c r="L11" s="370"/>
@@ -26209,10 +26356,10 @@
       <c r="B13" s="372" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="549" t="s">
+      <c r="C13" s="537" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="549"/>
+      <c r="D13" s="537"/>
       <c r="E13" s="149">
         <v>5</v>
       </c>
@@ -26296,10 +26443,10 @@
       <c r="B16" s="372" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="549" t="s">
+      <c r="C16" s="537" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="549"/>
+      <c r="D16" s="537"/>
       <c r="E16" s="149">
         <v>15</v>
       </c>
@@ -26367,10 +26514,10 @@
       <c r="B19" s="155" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="549" t="s">
+      <c r="C19" s="537" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="550"/>
+      <c r="D19" s="535"/>
       <c r="E19" s="149">
         <v>44</v>
       </c>
@@ -26411,10 +26558,10 @@
       <c r="B21" s="372" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="551" t="s">
+      <c r="C21" s="540" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="552"/>
+      <c r="D21" s="541"/>
       <c r="E21" s="149">
         <v>32</v>
       </c>
@@ -26434,10 +26581,10 @@
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="370"/>
       <c r="B22" s="370"/>
-      <c r="C22" s="549" t="s">
+      <c r="C22" s="537" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="550"/>
+      <c r="D22" s="535"/>
       <c r="E22" s="370">
         <v>20</v>
       </c>
@@ -26457,10 +26604,10 @@
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="371"/>
       <c r="B23" s="372"/>
-      <c r="C23" s="549" t="s">
+      <c r="C23" s="537" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="550"/>
+      <c r="D23" s="535"/>
       <c r="E23" s="371">
         <v>9</v>
       </c>
@@ -26480,10 +26627,10 @@
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="371"/>
       <c r="B24" s="372"/>
-      <c r="C24" s="549" t="s">
+      <c r="C24" s="537" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="550"/>
+      <c r="D24" s="535"/>
       <c r="E24" s="371">
         <v>25</v>
       </c>
@@ -26503,10 +26650,10 @@
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="371"/>
       <c r="B25" s="372"/>
-      <c r="C25" s="549" t="s">
+      <c r="C25" s="537" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="549"/>
+      <c r="D25" s="537"/>
       <c r="E25" s="371">
         <v>27</v>
       </c>
@@ -26526,10 +26673,10 @@
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="371"/>
       <c r="B26" s="372"/>
-      <c r="C26" s="549" t="s">
+      <c r="C26" s="537" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="550"/>
+      <c r="D26" s="535"/>
       <c r="E26" s="371">
         <v>17</v>
       </c>
@@ -26548,16 +26695,16 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="371"/>
-      <c r="B27" s="553" t="s">
+      <c r="B27" s="536" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="554"/>
-      <c r="D27" s="555"/>
-      <c r="E27" s="556"/>
-      <c r="F27" s="557"/>
-      <c r="G27" s="556"/>
-      <c r="H27" s="556"/>
-      <c r="I27" s="556"/>
+      <c r="C27" s="542"/>
+      <c r="D27" s="543"/>
+      <c r="E27" s="544"/>
+      <c r="F27" s="545"/>
+      <c r="G27" s="544"/>
+      <c r="H27" s="544"/>
+      <c r="I27" s="544"/>
       <c r="J27" s="156"/>
       <c r="K27" s="156"/>
       <c r="L27" s="370"/>
@@ -26587,10 +26734,10 @@
       <c r="B29" s="370" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="551" t="s">
+      <c r="C29" s="540" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="551"/>
+      <c r="D29" s="540"/>
       <c r="E29" s="370">
         <v>26</v>
       </c>
@@ -26610,10 +26757,10 @@
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="371"/>
       <c r="B30" s="372"/>
-      <c r="C30" s="549" t="s">
+      <c r="C30" s="537" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="550"/>
+      <c r="D30" s="535"/>
       <c r="E30" s="149" t="s">
         <v>134</v>
       </c>
@@ -26631,10 +26778,10 @@
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="371"/>
       <c r="B31" s="372"/>
-      <c r="C31" s="549" t="s">
+      <c r="C31" s="537" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="550"/>
+      <c r="D31" s="535"/>
       <c r="E31" s="149">
         <v>24</v>
       </c>
@@ -26654,10 +26801,10 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="371"/>
       <c r="B32" s="372"/>
-      <c r="C32" s="549" t="s">
+      <c r="C32" s="537" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="550"/>
+      <c r="D32" s="535"/>
       <c r="E32" s="149">
         <v>40</v>
       </c>
@@ -26675,10 +26822,10 @@
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="371"/>
       <c r="B33" s="372"/>
-      <c r="C33" s="549" t="s">
+      <c r="C33" s="537" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="550"/>
+      <c r="D33" s="535"/>
       <c r="E33" s="149">
         <v>29</v>
       </c>
@@ -26696,10 +26843,10 @@
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="371"/>
       <c r="B34" s="372"/>
-      <c r="C34" s="549" t="s">
+      <c r="C34" s="537" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="550"/>
+      <c r="D34" s="535"/>
       <c r="E34" s="149">
         <v>22</v>
       </c>
@@ -26717,10 +26864,10 @@
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="371"/>
       <c r="B35" s="372"/>
-      <c r="C35" s="549" t="s">
+      <c r="C35" s="537" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="550"/>
+      <c r="D35" s="535"/>
       <c r="E35" s="149">
         <v>32</v>
       </c>
@@ -26774,10 +26921,10 @@
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="371"/>
       <c r="B38" s="155"/>
-      <c r="C38" s="551" t="s">
+      <c r="C38" s="540" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="552"/>
+      <c r="D38" s="541"/>
       <c r="E38" s="149">
         <v>12</v>
       </c>
@@ -26797,8 +26944,8 @@
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="371"/>
       <c r="B39" s="155"/>
-      <c r="C39" s="549"/>
-      <c r="D39" s="550"/>
+      <c r="C39" s="537"/>
+      <c r="D39" s="535"/>
       <c r="E39" s="149"/>
       <c r="F39" s="139"/>
       <c r="G39" s="153"/>
@@ -26814,10 +26961,10 @@
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="371"/>
       <c r="B40" s="372"/>
-      <c r="C40" s="549" t="s">
+      <c r="C40" s="537" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="550"/>
+      <c r="D40" s="535"/>
       <c r="E40" s="149">
         <v>32</v>
       </c>
@@ -26921,16 +27068,16 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="371"/>
-      <c r="B46" s="553" t="s">
+      <c r="B46" s="536" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="553"/>
-      <c r="D46" s="553"/>
-      <c r="E46" s="553"/>
-      <c r="F46" s="553"/>
-      <c r="G46" s="553"/>
-      <c r="H46" s="553"/>
-      <c r="I46" s="553"/>
+      <c r="C46" s="536"/>
+      <c r="D46" s="536"/>
+      <c r="E46" s="536"/>
+      <c r="F46" s="536"/>
+      <c r="G46" s="536"/>
+      <c r="H46" s="536"/>
+      <c r="I46" s="536"/>
       <c r="J46" s="160"/>
       <c r="K46" s="160"/>
       <c r="L46" s="371"/>
@@ -26943,10 +27090,10 @@
         <v>107</v>
       </c>
       <c r="B47" s="372"/>
-      <c r="C47" s="549" t="s">
+      <c r="C47" s="537" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="549"/>
+      <c r="D47" s="537"/>
       <c r="E47" s="149">
         <v>11</v>
       </c>
@@ -26968,8 +27115,8 @@
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="371"/>
       <c r="B48" s="155"/>
-      <c r="C48" s="549"/>
-      <c r="D48" s="549"/>
+      <c r="C48" s="537"/>
+      <c r="D48" s="537"/>
       <c r="E48" s="149"/>
       <c r="F48" s="139"/>
       <c r="G48" s="153"/>
@@ -26987,10 +27134,10 @@
         <v>107</v>
       </c>
       <c r="B49" s="372"/>
-      <c r="C49" s="549" t="s">
+      <c r="C49" s="537" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="549"/>
+      <c r="D49" s="537"/>
       <c r="E49" s="149">
         <v>10</v>
       </c>
@@ -27012,8 +27159,8 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="371"/>
       <c r="B50" s="155"/>
-      <c r="C50" s="549"/>
-      <c r="D50" s="549"/>
+      <c r="C50" s="537"/>
+      <c r="D50" s="537"/>
       <c r="E50" s="149"/>
       <c r="F50" s="139"/>
       <c r="G50" s="153"/>
@@ -27046,8 +27193,8 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="370"/>
       <c r="B52" s="372"/>
-      <c r="C52" s="549"/>
-      <c r="D52" s="550"/>
+      <c r="C52" s="537"/>
+      <c r="D52" s="535"/>
       <c r="E52" s="371"/>
       <c r="F52" s="161"/>
       <c r="G52" s="371"/>
@@ -27079,16 +27226,16 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="371"/>
-      <c r="B54" s="553" t="s">
+      <c r="B54" s="536" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="553"/>
-      <c r="D54" s="553"/>
-      <c r="E54" s="553"/>
-      <c r="F54" s="553"/>
-      <c r="G54" s="553"/>
-      <c r="H54" s="553"/>
-      <c r="I54" s="553"/>
+      <c r="C54" s="536"/>
+      <c r="D54" s="536"/>
+      <c r="E54" s="536"/>
+      <c r="F54" s="536"/>
+      <c r="G54" s="536"/>
+      <c r="H54" s="536"/>
+      <c r="I54" s="536"/>
       <c r="J54" s="160"/>
       <c r="K54" s="160"/>
       <c r="L54" s="371"/>
@@ -27099,10 +27246,10 @@
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="371"/>
       <c r="B55" s="372"/>
-      <c r="C55" s="549" t="s">
+      <c r="C55" s="537" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="550"/>
+      <c r="D55" s="535"/>
       <c r="E55" s="162">
         <v>26</v>
       </c>
@@ -27122,10 +27269,10 @@
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="371"/>
       <c r="B56" s="155"/>
-      <c r="C56" s="549" t="s">
+      <c r="C56" s="537" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="549"/>
+      <c r="D56" s="537"/>
       <c r="E56" s="162">
         <v>55</v>
       </c>
@@ -27161,16 +27308,16 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="371"/>
-      <c r="B58" s="553" t="s">
+      <c r="B58" s="536" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="553"/>
-      <c r="D58" s="553"/>
-      <c r="E58" s="553"/>
-      <c r="F58" s="553"/>
-      <c r="G58" s="553"/>
-      <c r="H58" s="553"/>
-      <c r="I58" s="553"/>
+      <c r="C58" s="536"/>
+      <c r="D58" s="536"/>
+      <c r="E58" s="536"/>
+      <c r="F58" s="536"/>
+      <c r="G58" s="536"/>
+      <c r="H58" s="536"/>
+      <c r="I58" s="536"/>
       <c r="J58" s="160"/>
       <c r="K58" s="160"/>
       <c r="L58" s="371"/>
@@ -27183,10 +27330,10 @@
       <c r="B59" s="372" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="549" t="s">
+      <c r="C59" s="537" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="549"/>
+      <c r="D59" s="537"/>
       <c r="E59" s="149">
         <v>32</v>
       </c>
@@ -27206,10 +27353,10 @@
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="370"/>
       <c r="B60" s="370"/>
-      <c r="C60" s="550" t="s">
+      <c r="C60" s="535" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="550"/>
+      <c r="D60" s="535"/>
       <c r="E60" s="149">
         <v>50</v>
       </c>
@@ -27229,10 +27376,10 @@
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="370"/>
       <c r="B61" s="370"/>
-      <c r="C61" s="550" t="s">
+      <c r="C61" s="535" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="550"/>
+      <c r="D61" s="535"/>
       <c r="E61" s="149">
         <v>16</v>
       </c>
@@ -27273,10 +27420,10 @@
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="370"/>
       <c r="B63" s="370"/>
-      <c r="C63" s="550" t="s">
+      <c r="C63" s="535" t="s">
         <v>153</v>
       </c>
-      <c r="D63" s="550"/>
+      <c r="D63" s="535"/>
       <c r="E63" s="149">
         <v>14</v>
       </c>
@@ -27405,10 +27552,10 @@
       <c r="B68" s="372" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="549" t="s">
+      <c r="C68" s="537" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="549"/>
+      <c r="D68" s="537"/>
       <c r="E68" s="149">
         <v>28</v>
       </c>
@@ -27490,16 +27637,16 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="371"/>
-      <c r="B71" s="553" t="s">
+      <c r="B71" s="536" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="553"/>
-      <c r="D71" s="553"/>
-      <c r="E71" s="553"/>
-      <c r="F71" s="553"/>
-      <c r="G71" s="553"/>
-      <c r="H71" s="553"/>
-      <c r="I71" s="553"/>
+      <c r="C71" s="536"/>
+      <c r="D71" s="536"/>
+      <c r="E71" s="536"/>
+      <c r="F71" s="536"/>
+      <c r="G71" s="536"/>
+      <c r="H71" s="536"/>
+      <c r="I71" s="536"/>
       <c r="J71" s="132"/>
       <c r="K71" s="132"/>
       <c r="L71" s="371"/>
@@ -27515,10 +27662,10 @@
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="371"/>
       <c r="B72" s="371"/>
-      <c r="C72" s="550" t="s">
+      <c r="C72" s="535" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="550"/>
+      <c r="D72" s="535"/>
       <c r="E72" s="371">
         <v>20</v>
       </c>
@@ -27545,10 +27692,10 @@
       <c r="B73" s="372" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="550" t="s">
+      <c r="C73" s="535" t="s">
         <v>166</v>
       </c>
-      <c r="D73" s="550"/>
+      <c r="D73" s="535"/>
       <c r="E73" s="371">
         <v>16</v>
       </c>
@@ -27642,16 +27789,16 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="371"/>
-      <c r="B77" s="553" t="s">
+      <c r="B77" s="536" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="553"/>
-      <c r="D77" s="553"/>
-      <c r="E77" s="553"/>
-      <c r="F77" s="553"/>
-      <c r="G77" s="553"/>
-      <c r="H77" s="553"/>
-      <c r="I77" s="553"/>
+      <c r="C77" s="536"/>
+      <c r="D77" s="536"/>
+      <c r="E77" s="536"/>
+      <c r="F77" s="536"/>
+      <c r="G77" s="536"/>
+      <c r="H77" s="536"/>
+      <c r="I77" s="536"/>
       <c r="J77" s="160"/>
       <c r="K77" s="160"/>
       <c r="L77" s="371"/>
@@ -27667,15 +27814,15 @@
     <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="371"/>
       <c r="B78" s="371"/>
-      <c r="C78" s="549" t="s">
+      <c r="C78" s="537" t="s">
         <v>170</v>
       </c>
-      <c r="D78" s="549"/>
-      <c r="E78" s="549"/>
-      <c r="F78" s="549"/>
-      <c r="G78" s="549"/>
-      <c r="H78" s="549"/>
-      <c r="I78" s="549"/>
+      <c r="D78" s="537"/>
+      <c r="E78" s="537"/>
+      <c r="F78" s="537"/>
+      <c r="G78" s="537"/>
+      <c r="H78" s="537"/>
+      <c r="I78" s="537"/>
       <c r="J78" s="132"/>
       <c r="K78" s="132"/>
       <c r="L78" s="371"/>
@@ -27691,13 +27838,13 @@
     <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="371"/>
       <c r="B79" s="371"/>
-      <c r="C79" s="558"/>
-      <c r="D79" s="558"/>
-      <c r="E79" s="558"/>
-      <c r="F79" s="558"/>
-      <c r="G79" s="558"/>
-      <c r="H79" s="558"/>
-      <c r="I79" s="558"/>
+      <c r="C79" s="538"/>
+      <c r="D79" s="538"/>
+      <c r="E79" s="538"/>
+      <c r="F79" s="538"/>
+      <c r="G79" s="538"/>
+      <c r="H79" s="538"/>
+      <c r="I79" s="538"/>
       <c r="J79" s="132"/>
       <c r="K79" s="132"/>
       <c r="L79" s="371"/>
@@ -27737,10 +27884,10 @@
         <v>171</v>
       </c>
       <c r="B81" s="171"/>
-      <c r="C81" s="559" t="s">
+      <c r="C81" s="539" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="559"/>
+      <c r="D81" s="539"/>
       <c r="E81" s="171"/>
       <c r="F81" s="171"/>
       <c r="G81" s="171"/>
@@ -27779,63 +27926,86 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="9d8ac2f3-6a14-4865-bb23-fc45479f0d06">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100B8D9964B2276D74DB02A1C08F4EF5649" ma:contentTypeVersion="3" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="3c79f91ed31c1f0c784324ebb7f2fba8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9d8ac2f3-6a14-4865-bb23-fc45479f0d06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4970c376837a35b11232fcf574238a8b" ns2:_="">
     <xsd:import namespace="9d8ac2f3-6a14-4865-bb23-fc45479f0d06"/>
@@ -27989,30 +28159,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="9d8ac2f3-6a14-4865-bb23-fc45479f0d06">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="9d8ac2f3-6a14-4865-bb23-fc45479f0d06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F307465-E603-4C2B-B833-85968FBDECC3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -28028,28 +28199,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A54E358B-517D-4392-B403-2ECFF28C0FE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9d8ac2f3-6a14-4865-bb23-fc45479f0d06"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Scrum/sprintbacklogpohja.xlsx
+++ b/Scrum/sprintbacklogpohja.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="275">
   <si>
     <t>Kymppikerho - SCRUM BACKLOG</t>
   </si>
@@ -844,6 +844,27 @@
   </si>
   <si>
     <t>Sprint 3.11. Tämän hetkisten tuotosten palautus</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Visual Studio, sisäänkirjautumisen ohjelmoiminen, nappien tekeminen</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>Tietokannan suunnittelua</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Järjestelmien ja ohjelmien käyttökuntoon laitto</t>
+  </si>
+  <si>
+    <t>Teemu</t>
   </si>
 </sst>
 </file>
@@ -3426,6 +3447,132 @@
     <xf numFmtId="0" fontId="51" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3450,12 +3597,6 @@
     <xf numFmtId="0" fontId="7" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3468,125 +3609,89 @@
     <xf numFmtId="0" fontId="5" fillId="33" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="167" fontId="5" fillId="33" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="33" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="33" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="33" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="33" borderId="62" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="60" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="60" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="31" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3603,89 +3708,22 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="33" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="31" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="62" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="60" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="60" fillId="36" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="33" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="33" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="52" fillId="26" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3696,9 +3734,6 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3717,23 +3752,84 @@
     <xf numFmtId="0" fontId="55" fillId="34" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="29" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="33" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3758,137 +3854,119 @@
     <xf numFmtId="166" fontId="16" fillId="33" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="33" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="33" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="33" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="29" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="33" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="33" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="36" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="33" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="33" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="33" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="36" fillId="33" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="30" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3908,62 +3986,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="30" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3982,63 +4060,6 @@
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="31" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="31" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -4239,11 +4260,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="455732912"/>
-        <c:axId val="455734088"/>
+        <c:axId val="486389896"/>
+        <c:axId val="486389504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="455732912"/>
+        <c:axId val="486389896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4284,7 +4305,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455734088"/>
+        <c:crossAx val="486389504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4292,7 +4313,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455734088"/>
+        <c:axId val="486389504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4342,7 +4363,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455732912"/>
+        <c:crossAx val="486389896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4781,12 +4802,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="455730560"/>
-        <c:axId val="457504984"/>
+        <c:axId val="487566128"/>
+        <c:axId val="487564560"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="455730560"/>
+        <c:axId val="487566128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4822,7 +4843,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="457504984"/>
+        <c:crossAx val="487564560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4830,7 +4851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="457504984"/>
+        <c:axId val="487564560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,7 +4954,7 @@
             <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455730560"/>
+        <c:crossAx val="487566128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5554,7 +5575,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5590,7 +5611,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5950,20 +5971,20 @@
     </row>
     <row r="2" spans="1:25" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="37"/>
-      <c r="B2" s="382" t="s">
+      <c r="B2" s="424" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="384"/>
-      <c r="H2" s="385"/>
-      <c r="I2" s="385"/>
-      <c r="J2" s="385"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="383"/>
-      <c r="M2" s="386"/>
+      <c r="C2" s="425"/>
+      <c r="D2" s="425"/>
+      <c r="E2" s="425"/>
+      <c r="F2" s="425"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="427"/>
+      <c r="I2" s="427"/>
+      <c r="J2" s="427"/>
+      <c r="K2" s="427"/>
+      <c r="L2" s="425"/>
+      <c r="M2" s="428"/>
       <c r="N2" s="38"/>
       <c r="O2" s="35"/>
       <c r="P2" s="35"/>
@@ -5979,17 +6000,17 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
-      <c r="B3" s="387"/>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="388"/>
-      <c r="F3" s="388"/>
-      <c r="G3" s="388"/>
-      <c r="H3" s="388"/>
-      <c r="I3" s="388"/>
-      <c r="J3" s="388"/>
-      <c r="K3" s="388"/>
-      <c r="L3" s="389"/>
+      <c r="B3" s="429"/>
+      <c r="C3" s="430"/>
+      <c r="D3" s="430"/>
+      <c r="E3" s="430"/>
+      <c r="F3" s="430"/>
+      <c r="G3" s="430"/>
+      <c r="H3" s="430"/>
+      <c r="I3" s="430"/>
+      <c r="J3" s="430"/>
+      <c r="K3" s="430"/>
+      <c r="L3" s="431"/>
       <c r="M3" s="40" t="s">
         <v>1</v>
       </c>
@@ -6008,17 +6029,17 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="39"/>
-      <c r="B4" s="387"/>
-      <c r="C4" s="388"/>
-      <c r="D4" s="388"/>
-      <c r="E4" s="388"/>
-      <c r="F4" s="388"/>
-      <c r="G4" s="388"/>
-      <c r="H4" s="388"/>
-      <c r="I4" s="388"/>
-      <c r="J4" s="388"/>
-      <c r="K4" s="388"/>
-      <c r="L4" s="389"/>
+      <c r="B4" s="429"/>
+      <c r="C4" s="430"/>
+      <c r="D4" s="430"/>
+      <c r="E4" s="430"/>
+      <c r="F4" s="430"/>
+      <c r="G4" s="430"/>
+      <c r="H4" s="430"/>
+      <c r="I4" s="430"/>
+      <c r="J4" s="430"/>
+      <c r="K4" s="430"/>
+      <c r="L4" s="431"/>
       <c r="M4" s="202"/>
       <c r="N4" s="38"/>
       <c r="O4" s="35"/>
@@ -6069,17 +6090,17 @@
       <c r="B6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="390"/>
-      <c r="D6" s="391"/>
-      <c r="E6" s="391"/>
-      <c r="F6" s="391"/>
-      <c r="G6" s="391"/>
-      <c r="H6" s="391"/>
-      <c r="I6" s="391"/>
-      <c r="J6" s="391"/>
-      <c r="K6" s="391"/>
-      <c r="L6" s="391"/>
-      <c r="M6" s="392"/>
+      <c r="C6" s="394"/>
+      <c r="D6" s="395"/>
+      <c r="E6" s="395"/>
+      <c r="F6" s="395"/>
+      <c r="G6" s="395"/>
+      <c r="H6" s="395"/>
+      <c r="I6" s="395"/>
+      <c r="J6" s="395"/>
+      <c r="K6" s="395"/>
+      <c r="L6" s="395"/>
+      <c r="M6" s="432"/>
       <c r="N6" s="38"/>
       <c r="O6" s="35"/>
       <c r="P6" s="35"/>
@@ -6098,17 +6119,17 @@
       <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="393"/>
-      <c r="D7" s="394"/>
-      <c r="E7" s="394"/>
-      <c r="F7" s="394"/>
-      <c r="G7" s="394"/>
-      <c r="H7" s="394"/>
-      <c r="I7" s="394"/>
-      <c r="J7" s="394"/>
-      <c r="K7" s="394"/>
-      <c r="L7" s="394"/>
-      <c r="M7" s="395"/>
+      <c r="C7" s="433"/>
+      <c r="D7" s="434"/>
+      <c r="E7" s="434"/>
+      <c r="F7" s="434"/>
+      <c r="G7" s="434"/>
+      <c r="H7" s="434"/>
+      <c r="I7" s="434"/>
+      <c r="J7" s="434"/>
+      <c r="K7" s="434"/>
+      <c r="L7" s="434"/>
+      <c r="M7" s="435"/>
       <c r="N7" s="38"/>
       <c r="O7" s="35"/>
       <c r="P7" s="35"/>
@@ -6127,17 +6148,17 @@
       <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="393"/>
-      <c r="D8" s="394"/>
-      <c r="E8" s="394"/>
-      <c r="F8" s="394"/>
-      <c r="G8" s="394"/>
-      <c r="H8" s="394"/>
-      <c r="I8" s="394"/>
-      <c r="J8" s="394"/>
-      <c r="K8" s="394"/>
-      <c r="L8" s="394"/>
-      <c r="M8" s="395"/>
+      <c r="C8" s="433"/>
+      <c r="D8" s="434"/>
+      <c r="E8" s="434"/>
+      <c r="F8" s="434"/>
+      <c r="G8" s="434"/>
+      <c r="H8" s="434"/>
+      <c r="I8" s="434"/>
+      <c r="J8" s="434"/>
+      <c r="K8" s="434"/>
+      <c r="L8" s="434"/>
+      <c r="M8" s="435"/>
       <c r="N8" s="38"/>
       <c r="O8" s="35"/>
       <c r="P8" s="35"/>
@@ -6156,17 +6177,17 @@
       <c r="B9" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="396"/>
-      <c r="D9" s="397"/>
-      <c r="E9" s="397"/>
-      <c r="F9" s="397"/>
-      <c r="G9" s="397"/>
-      <c r="H9" s="397"/>
-      <c r="I9" s="397"/>
-      <c r="J9" s="397"/>
-      <c r="K9" s="397"/>
-      <c r="L9" s="397"/>
-      <c r="M9" s="398"/>
+      <c r="C9" s="410"/>
+      <c r="D9" s="411"/>
+      <c r="E9" s="411"/>
+      <c r="F9" s="411"/>
+      <c r="G9" s="411"/>
+      <c r="H9" s="411"/>
+      <c r="I9" s="411"/>
+      <c r="J9" s="411"/>
+      <c r="K9" s="411"/>
+      <c r="L9" s="411"/>
+      <c r="M9" s="412"/>
       <c r="N9" s="38"/>
       <c r="O9" s="35"/>
       <c r="P9" s="35"/>
@@ -6209,20 +6230,20 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
-      <c r="B11" s="399" t="s">
+      <c r="B11" s="413" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="400"/>
-      <c r="D11" s="400"/>
-      <c r="E11" s="400"/>
-      <c r="F11" s="400"/>
-      <c r="G11" s="400"/>
-      <c r="H11" s="400"/>
-      <c r="I11" s="400"/>
-      <c r="J11" s="400"/>
-      <c r="K11" s="400"/>
-      <c r="L11" s="400"/>
-      <c r="M11" s="401"/>
+      <c r="C11" s="414"/>
+      <c r="D11" s="414"/>
+      <c r="E11" s="414"/>
+      <c r="F11" s="414"/>
+      <c r="G11" s="414"/>
+      <c r="H11" s="414"/>
+      <c r="I11" s="414"/>
+      <c r="J11" s="414"/>
+      <c r="K11" s="414"/>
+      <c r="L11" s="414"/>
+      <c r="M11" s="415"/>
       <c r="N11" s="38"/>
       <c r="O11" s="35"/>
       <c r="P11" s="35"/>
@@ -6247,14 +6268,14 @@
       <c r="D12" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="402" t="s">
+      <c r="E12" s="416" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="403"/>
-      <c r="G12" s="403"/>
-      <c r="H12" s="403"/>
-      <c r="I12" s="403"/>
-      <c r="J12" s="404"/>
+      <c r="F12" s="417"/>
+      <c r="G12" s="417"/>
+      <c r="H12" s="417"/>
+      <c r="I12" s="417"/>
+      <c r="J12" s="418"/>
       <c r="K12" s="353" t="s">
         <v>13</v>
       </c>
@@ -6272,27 +6293,27 @@
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
-      <c r="V12" s="405" t="s">
+      <c r="V12" s="419" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="405"/>
-      <c r="X12" s="405"/>
+      <c r="W12" s="419"/>
+      <c r="X12" s="419"/>
       <c r="Y12" s="47"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="39"/>
-      <c r="B13" s="406"/>
-      <c r="C13" s="407"/>
-      <c r="D13" s="407"/>
-      <c r="E13" s="408"/>
-      <c r="F13" s="409"/>
-      <c r="G13" s="410"/>
-      <c r="H13" s="410"/>
-      <c r="I13" s="410"/>
-      <c r="J13" s="411"/>
-      <c r="K13" s="415"/>
-      <c r="L13" s="412"/>
-      <c r="M13" s="414"/>
+      <c r="B13" s="386"/>
+      <c r="C13" s="388"/>
+      <c r="D13" s="388"/>
+      <c r="E13" s="420"/>
+      <c r="F13" s="421"/>
+      <c r="G13" s="422"/>
+      <c r="H13" s="422"/>
+      <c r="I13" s="422"/>
+      <c r="J13" s="423"/>
+      <c r="K13" s="392"/>
+      <c r="L13" s="390"/>
+      <c r="M13" s="382"/>
       <c r="N13" s="38"/>
       <c r="O13" s="35"/>
       <c r="P13" s="35"/>
@@ -6314,18 +6335,18 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="39"/>
-      <c r="B14" s="406"/>
-      <c r="C14" s="407"/>
-      <c r="D14" s="407"/>
-      <c r="E14" s="408"/>
-      <c r="F14" s="409"/>
-      <c r="G14" s="410"/>
-      <c r="H14" s="410"/>
-      <c r="I14" s="410"/>
-      <c r="J14" s="411"/>
-      <c r="K14" s="416"/>
-      <c r="L14" s="413"/>
-      <c r="M14" s="414"/>
+      <c r="B14" s="386"/>
+      <c r="C14" s="388"/>
+      <c r="D14" s="388"/>
+      <c r="E14" s="420"/>
+      <c r="F14" s="421"/>
+      <c r="G14" s="422"/>
+      <c r="H14" s="422"/>
+      <c r="I14" s="422"/>
+      <c r="J14" s="423"/>
+      <c r="K14" s="393"/>
+      <c r="L14" s="391"/>
+      <c r="M14" s="382"/>
       <c r="N14" s="38"/>
       <c r="O14" s="35"/>
       <c r="P14" s="35"/>
@@ -6349,18 +6370,18 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="39"/>
-      <c r="B15" s="406"/>
-      <c r="C15" s="407"/>
-      <c r="D15" s="407"/>
-      <c r="E15" s="390"/>
-      <c r="F15" s="391"/>
-      <c r="G15" s="391"/>
-      <c r="H15" s="391"/>
-      <c r="I15" s="391"/>
-      <c r="J15" s="432"/>
-      <c r="K15" s="415"/>
-      <c r="L15" s="412"/>
-      <c r="M15" s="414"/>
+      <c r="B15" s="386"/>
+      <c r="C15" s="388"/>
+      <c r="D15" s="388"/>
+      <c r="E15" s="394"/>
+      <c r="F15" s="395"/>
+      <c r="G15" s="395"/>
+      <c r="H15" s="395"/>
+      <c r="I15" s="395"/>
+      <c r="J15" s="396"/>
+      <c r="K15" s="392"/>
+      <c r="L15" s="390"/>
+      <c r="M15" s="382"/>
       <c r="N15" s="38"/>
       <c r="O15" s="35"/>
       <c r="P15" s="35"/>
@@ -6384,18 +6405,18 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
-      <c r="B16" s="419"/>
-      <c r="C16" s="431"/>
-      <c r="D16" s="431"/>
-      <c r="E16" s="433"/>
-      <c r="F16" s="434"/>
-      <c r="G16" s="434"/>
-      <c r="H16" s="434"/>
-      <c r="I16" s="434"/>
-      <c r="J16" s="435"/>
-      <c r="K16" s="416"/>
-      <c r="L16" s="413"/>
-      <c r="M16" s="414"/>
+      <c r="B16" s="387"/>
+      <c r="C16" s="389"/>
+      <c r="D16" s="389"/>
+      <c r="E16" s="397"/>
+      <c r="F16" s="398"/>
+      <c r="G16" s="398"/>
+      <c r="H16" s="398"/>
+      <c r="I16" s="398"/>
+      <c r="J16" s="399"/>
+      <c r="K16" s="393"/>
+      <c r="L16" s="391"/>
+      <c r="M16" s="382"/>
       <c r="N16" s="38"/>
       <c r="O16" s="35"/>
       <c r="P16" s="35"/>
@@ -6419,18 +6440,18 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="39"/>
-      <c r="B17" s="406"/>
-      <c r="C17" s="407"/>
-      <c r="D17" s="407"/>
-      <c r="E17" s="390"/>
-      <c r="F17" s="391"/>
-      <c r="G17" s="391"/>
-      <c r="H17" s="391"/>
-      <c r="I17" s="391"/>
-      <c r="J17" s="432"/>
-      <c r="K17" s="415"/>
-      <c r="L17" s="412"/>
-      <c r="M17" s="414"/>
+      <c r="B17" s="386"/>
+      <c r="C17" s="388"/>
+      <c r="D17" s="388"/>
+      <c r="E17" s="394"/>
+      <c r="F17" s="395"/>
+      <c r="G17" s="395"/>
+      <c r="H17" s="395"/>
+      <c r="I17" s="395"/>
+      <c r="J17" s="396"/>
+      <c r="K17" s="392"/>
+      <c r="L17" s="390"/>
+      <c r="M17" s="382"/>
       <c r="N17" s="38"/>
       <c r="O17" s="35"/>
       <c r="P17" s="35"/>
@@ -6446,18 +6467,18 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="39"/>
-      <c r="B18" s="419"/>
-      <c r="C18" s="431"/>
-      <c r="D18" s="431"/>
-      <c r="E18" s="433"/>
-      <c r="F18" s="434"/>
-      <c r="G18" s="434"/>
-      <c r="H18" s="434"/>
-      <c r="I18" s="434"/>
-      <c r="J18" s="435"/>
-      <c r="K18" s="416"/>
-      <c r="L18" s="413"/>
-      <c r="M18" s="414"/>
+      <c r="B18" s="387"/>
+      <c r="C18" s="389"/>
+      <c r="D18" s="389"/>
+      <c r="E18" s="397"/>
+      <c r="F18" s="398"/>
+      <c r="G18" s="398"/>
+      <c r="H18" s="398"/>
+      <c r="I18" s="398"/>
+      <c r="J18" s="399"/>
+      <c r="K18" s="393"/>
+      <c r="L18" s="391"/>
+      <c r="M18" s="382"/>
       <c r="N18" s="38"/>
       <c r="O18" s="35"/>
       <c r="P18" s="35"/>
@@ -6473,18 +6494,18 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="39"/>
-      <c r="B19" s="406"/>
-      <c r="C19" s="407"/>
-      <c r="D19" s="407"/>
-      <c r="E19" s="422"/>
-      <c r="F19" s="423"/>
-      <c r="G19" s="423"/>
-      <c r="H19" s="423"/>
-      <c r="I19" s="423"/>
-      <c r="J19" s="424"/>
-      <c r="K19" s="420"/>
-      <c r="L19" s="413"/>
-      <c r="M19" s="414"/>
+      <c r="B19" s="386"/>
+      <c r="C19" s="388"/>
+      <c r="D19" s="388"/>
+      <c r="E19" s="404"/>
+      <c r="F19" s="405"/>
+      <c r="G19" s="405"/>
+      <c r="H19" s="405"/>
+      <c r="I19" s="405"/>
+      <c r="J19" s="406"/>
+      <c r="K19" s="402"/>
+      <c r="L19" s="391"/>
+      <c r="M19" s="382"/>
       <c r="N19" s="38"/>
       <c r="O19" s="35"/>
       <c r="P19" s="35"/>
@@ -6500,18 +6521,18 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="39"/>
-      <c r="B20" s="419"/>
-      <c r="C20" s="407"/>
-      <c r="D20" s="407"/>
-      <c r="E20" s="425"/>
-      <c r="F20" s="426"/>
-      <c r="G20" s="426"/>
-      <c r="H20" s="426"/>
-      <c r="I20" s="426"/>
-      <c r="J20" s="427"/>
-      <c r="K20" s="421"/>
-      <c r="L20" s="413"/>
-      <c r="M20" s="414"/>
+      <c r="B20" s="387"/>
+      <c r="C20" s="388"/>
+      <c r="D20" s="388"/>
+      <c r="E20" s="407"/>
+      <c r="F20" s="408"/>
+      <c r="G20" s="408"/>
+      <c r="H20" s="408"/>
+      <c r="I20" s="408"/>
+      <c r="J20" s="409"/>
+      <c r="K20" s="403"/>
+      <c r="L20" s="391"/>
+      <c r="M20" s="382"/>
       <c r="N20" s="38"/>
       <c r="O20" s="35"/>
       <c r="P20" s="35"/>
@@ -6554,14 +6575,14 @@
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
-      <c r="B22" s="428" t="s">
+      <c r="B22" s="383" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="429"/>
-      <c r="D22" s="429"/>
-      <c r="E22" s="429"/>
-      <c r="F22" s="429"/>
-      <c r="G22" s="430"/>
+      <c r="C22" s="384"/>
+      <c r="D22" s="384"/>
+      <c r="E22" s="384"/>
+      <c r="F22" s="384"/>
+      <c r="G22" s="385"/>
       <c r="H22" s="62"/>
       <c r="I22" s="63"/>
       <c r="J22" s="63"/>
@@ -6583,7 +6604,7 @@
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="64"/>
-      <c r="B23" s="417" t="s">
+      <c r="B23" s="400" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="65" t="s">
@@ -6620,7 +6641,7 @@
     </row>
     <row r="24" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="64"/>
-      <c r="B24" s="418"/>
+      <c r="B24" s="401"/>
       <c r="C24" s="70" t="s">
         <v>22</v>
       </c>
@@ -7087,6 +7108,29 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:L4"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="C7:M7"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:M9"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:J14"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="E19:J20"/>
     <mergeCell ref="M19:M20"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="M15:M16"/>
@@ -7103,29 +7147,6 @@
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="E15:J16"/>
     <mergeCell ref="E17:J18"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="E19:J20"/>
-    <mergeCell ref="C9:M9"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:J14"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:L4"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="C7:M7"/>
-    <mergeCell ref="C8:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape"/>
@@ -7154,14 +7175,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="563" t="s">
+      <c r="A1" s="582" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="564"/>
-      <c r="C1" s="564"/>
-      <c r="D1" s="564"/>
-      <c r="E1" s="564"/>
-      <c r="F1" s="565"/>
+      <c r="B1" s="583"/>
+      <c r="C1" s="583"/>
+      <c r="D1" s="583"/>
+      <c r="E1" s="583"/>
+      <c r="F1" s="584"/>
       <c r="G1" s="172"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7174,11 +7195,11 @@
       <c r="C2" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="489" t="s">
+      <c r="D2" s="514" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="489"/>
-      <c r="F2" s="489"/>
+      <c r="E2" s="514"/>
+      <c r="F2" s="514"/>
       <c r="G2" s="174"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7193,11 +7214,11 @@
         <f>B3/4</f>
         <v>7.375</v>
       </c>
-      <c r="D3" s="566" t="s">
+      <c r="D3" s="585" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="567"/>
-      <c r="F3" s="568"/>
+      <c r="E3" s="586"/>
+      <c r="F3" s="587"/>
       <c r="G3" s="172"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7212,11 +7233,11 @@
         <f>B4/4</f>
         <v>9.75</v>
       </c>
-      <c r="D4" s="569" t="s">
+      <c r="D4" s="571" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="570"/>
-      <c r="F4" s="571"/>
+      <c r="E4" s="572"/>
+      <c r="F4" s="573"/>
       <c r="G4" s="172"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7231,9 +7252,9 @@
         <f>B5/4</f>
         <v>7.25</v>
       </c>
-      <c r="D5" s="569"/>
-      <c r="E5" s="570"/>
-      <c r="F5" s="571"/>
+      <c r="D5" s="571"/>
+      <c r="E5" s="572"/>
+      <c r="F5" s="573"/>
       <c r="G5" s="172"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7248,9 +7269,9 @@
         <f>B6/4</f>
         <v>4.75</v>
       </c>
-      <c r="D6" s="569"/>
-      <c r="E6" s="570"/>
-      <c r="F6" s="571"/>
+      <c r="D6" s="571"/>
+      <c r="E6" s="572"/>
+      <c r="F6" s="573"/>
       <c r="G6" s="172"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7265,78 +7286,78 @@
         <f>B7/4</f>
         <v>6.125</v>
       </c>
-      <c r="D7" s="569"/>
-      <c r="E7" s="570"/>
-      <c r="F7" s="571"/>
+      <c r="D7" s="571"/>
+      <c r="E7" s="572"/>
+      <c r="F7" s="573"/>
       <c r="G7" s="172"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="572" t="s">
+      <c r="A8" s="574" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="574">
+      <c r="B8" s="576">
         <f>IF((SUM(B3:B7)=0),"",SUM(B3:B7))</f>
         <v>141</v>
       </c>
-      <c r="C8" s="574">
+      <c r="C8" s="576">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v>35.25</v>
       </c>
-      <c r="D8" s="569"/>
-      <c r="E8" s="570"/>
-      <c r="F8" s="571"/>
+      <c r="D8" s="571"/>
+      <c r="E8" s="572"/>
+      <c r="F8" s="573"/>
       <c r="G8" s="172"/>
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="573"/>
-      <c r="B9" s="575"/>
-      <c r="C9" s="576"/>
-      <c r="D9" s="577"/>
-      <c r="E9" s="578"/>
-      <c r="F9" s="579"/>
+      <c r="A9" s="575"/>
+      <c r="B9" s="577"/>
+      <c r="C9" s="578"/>
+      <c r="D9" s="579"/>
+      <c r="E9" s="580"/>
+      <c r="F9" s="581"/>
       <c r="G9" s="172"/>
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="580" t="s">
+      <c r="A10" s="563" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="581"/>
-      <c r="C10" s="581"/>
-      <c r="D10" s="581"/>
-      <c r="E10" s="582"/>
-      <c r="F10" s="581"/>
+      <c r="B10" s="564"/>
+      <c r="C10" s="564"/>
+      <c r="D10" s="564"/>
+      <c r="E10" s="565"/>
+      <c r="F10" s="564"/>
       <c r="G10" s="174"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="583" t="s">
+      <c r="A11" s="566" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="417" t="s">
+      <c r="B11" s="400" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="402" t="s">
+      <c r="C11" s="416" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="404"/>
-      <c r="E11" s="584" t="s">
+      <c r="D11" s="418"/>
+      <c r="E11" s="567" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="586" t="s">
+      <c r="F11" s="569" t="s">
         <v>182</v>
       </c>
       <c r="G11" s="172"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="583"/>
-      <c r="B12" s="417"/>
+      <c r="A12" s="566"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="368" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="E12" s="585"/>
-      <c r="F12" s="587"/>
+      <c r="E12" s="568"/>
+      <c r="F12" s="570"/>
       <c r="G12" s="172"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -8664,12 +8685,11 @@
   </sheetData>
   <autoFilter ref="A12:F12"/>
   <mergeCells count="18">
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A8:A9"/>
@@ -8677,11 +8697,12 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8759,17 +8780,17 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="311"/>
-      <c r="B2" s="436" t="s">
+      <c r="B2" s="464" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="437"/>
-      <c r="D2" s="436"/>
-      <c r="E2" s="436"/>
-      <c r="F2" s="436"/>
-      <c r="G2" s="438"/>
-      <c r="H2" s="436"/>
-      <c r="I2" s="436"/>
-      <c r="J2" s="436"/>
+      <c r="C2" s="465"/>
+      <c r="D2" s="464"/>
+      <c r="E2" s="464"/>
+      <c r="F2" s="464"/>
+      <c r="G2" s="466"/>
+      <c r="H2" s="464"/>
+      <c r="I2" s="464"/>
+      <c r="J2" s="464"/>
       <c r="K2" s="312"/>
       <c r="L2" s="35"/>
       <c r="M2" s="35"/>
@@ -8808,10 +8829,10 @@
       <c r="B3" s="314" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="439" t="s">
+      <c r="C3" s="467" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="440"/>
+      <c r="D3" s="468"/>
       <c r="E3" s="315" t="s">
         <v>30</v>
       </c>
@@ -8865,7 +8886,7 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="311"/>
-      <c r="B4" s="441"/>
+      <c r="B4" s="457"/>
       <c r="C4" s="227"/>
       <c r="D4" s="322"/>
       <c r="E4" s="354"/>
@@ -8909,7 +8930,7 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="311"/>
-      <c r="B5" s="441"/>
+      <c r="B5" s="457"/>
       <c r="C5" s="227"/>
       <c r="D5" s="356"/>
       <c r="E5" s="354"/>
@@ -8953,7 +8974,7 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="311"/>
-      <c r="B6" s="441"/>
+      <c r="B6" s="457"/>
       <c r="C6" s="227"/>
       <c r="D6" s="356"/>
       <c r="E6" s="354"/>
@@ -8997,7 +9018,7 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="311"/>
-      <c r="B7" s="441"/>
+      <c r="B7" s="457"/>
       <c r="C7" s="227"/>
       <c r="D7" s="356"/>
       <c r="E7" s="369"/>
@@ -9041,7 +9062,7 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="311"/>
-      <c r="B8" s="441"/>
+      <c r="B8" s="457"/>
       <c r="C8" s="227"/>
       <c r="D8" s="356"/>
       <c r="E8" s="354"/>
@@ -9085,7 +9106,7 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="311"/>
-      <c r="B9" s="441"/>
+      <c r="B9" s="457"/>
       <c r="C9" s="283"/>
       <c r="D9" s="356"/>
       <c r="E9" s="354"/>
@@ -9129,15 +9150,15 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="311"/>
-      <c r="B10" s="442"/>
-      <c r="C10" s="443"/>
-      <c r="D10" s="444"/>
-      <c r="E10" s="445"/>
-      <c r="F10" s="446"/>
-      <c r="G10" s="447"/>
-      <c r="H10" s="445"/>
-      <c r="I10" s="445"/>
-      <c r="J10" s="445"/>
+      <c r="B10" s="454"/>
+      <c r="C10" s="456"/>
+      <c r="D10" s="441"/>
+      <c r="E10" s="439"/>
+      <c r="F10" s="455"/>
+      <c r="G10" s="442"/>
+      <c r="H10" s="439"/>
+      <c r="I10" s="439"/>
+      <c r="J10" s="439"/>
       <c r="K10" s="312"/>
       <c r="L10" s="35"/>
       <c r="M10" s="35"/>
@@ -9173,7 +9194,7 @@
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="326"/>
-      <c r="B11" s="441"/>
+      <c r="B11" s="457"/>
       <c r="C11" s="227"/>
       <c r="D11" s="356"/>
       <c r="E11" s="354"/>
@@ -9217,7 +9238,7 @@
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="326"/>
-      <c r="B12" s="441"/>
+      <c r="B12" s="457"/>
       <c r="C12" s="227"/>
       <c r="D12" s="356"/>
       <c r="E12" s="354"/>
@@ -9261,7 +9282,7 @@
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="326"/>
-      <c r="B13" s="441"/>
+      <c r="B13" s="457"/>
       <c r="C13" s="227"/>
       <c r="D13" s="356"/>
       <c r="E13" s="354"/>
@@ -9305,7 +9326,7 @@
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="326"/>
-      <c r="B14" s="441"/>
+      <c r="B14" s="457"/>
       <c r="C14" s="227"/>
       <c r="D14" s="356"/>
       <c r="E14" s="354"/>
@@ -9349,7 +9370,7 @@
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="311"/>
-      <c r="B15" s="441"/>
+      <c r="B15" s="457"/>
       <c r="C15" s="227"/>
       <c r="D15" s="356"/>
       <c r="E15" s="354"/>
@@ -9393,7 +9414,7 @@
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" s="311"/>
-      <c r="B16" s="441"/>
+      <c r="B16" s="457"/>
       <c r="C16" s="283"/>
       <c r="D16" s="356"/>
       <c r="E16" s="354"/>
@@ -9437,15 +9458,15 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" s="311"/>
-      <c r="B17" s="442"/>
-      <c r="C17" s="443"/>
-      <c r="D17" s="444"/>
-      <c r="E17" s="445"/>
-      <c r="F17" s="446"/>
-      <c r="G17" s="447"/>
-      <c r="H17" s="445"/>
-      <c r="I17" s="445"/>
-      <c r="J17" s="445"/>
+      <c r="B17" s="454"/>
+      <c r="C17" s="456"/>
+      <c r="D17" s="441"/>
+      <c r="E17" s="439"/>
+      <c r="F17" s="455"/>
+      <c r="G17" s="442"/>
+      <c r="H17" s="439"/>
+      <c r="I17" s="439"/>
+      <c r="J17" s="439"/>
       <c r="K17" s="312"/>
       <c r="L17" s="35"/>
       <c r="M17" s="35"/>
@@ -9481,7 +9502,7 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" s="311"/>
-      <c r="B18" s="441"/>
+      <c r="B18" s="457"/>
       <c r="C18" s="227"/>
       <c r="D18" s="356"/>
       <c r="E18" s="354"/>
@@ -9525,7 +9546,7 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" s="311"/>
-      <c r="B19" s="441"/>
+      <c r="B19" s="457"/>
       <c r="C19" s="227"/>
       <c r="D19" s="356"/>
       <c r="E19" s="354"/>
@@ -9569,7 +9590,7 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" s="311"/>
-      <c r="B20" s="441"/>
+      <c r="B20" s="457"/>
       <c r="C20" s="227"/>
       <c r="D20" s="356"/>
       <c r="E20" s="354"/>
@@ -9613,7 +9634,7 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" s="311"/>
-      <c r="B21" s="441"/>
+      <c r="B21" s="457"/>
       <c r="C21" s="227"/>
       <c r="D21" s="356"/>
       <c r="E21" s="354"/>
@@ -9657,7 +9678,7 @@
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" s="311"/>
-      <c r="B22" s="441"/>
+      <c r="B22" s="457"/>
       <c r="C22" s="227"/>
       <c r="D22" s="356"/>
       <c r="E22" s="354"/>
@@ -9701,7 +9722,7 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" s="311"/>
-      <c r="B23" s="441"/>
+      <c r="B23" s="457"/>
       <c r="C23" s="350"/>
       <c r="D23" s="356"/>
       <c r="E23" s="354"/>
@@ -9745,15 +9766,15 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" s="311"/>
-      <c r="B24" s="442"/>
-      <c r="C24" s="443"/>
-      <c r="D24" s="444"/>
-      <c r="E24" s="445"/>
-      <c r="F24" s="446"/>
-      <c r="G24" s="447"/>
-      <c r="H24" s="445"/>
-      <c r="I24" s="445"/>
-      <c r="J24" s="445"/>
+      <c r="B24" s="454"/>
+      <c r="C24" s="456"/>
+      <c r="D24" s="441"/>
+      <c r="E24" s="439"/>
+      <c r="F24" s="455"/>
+      <c r="G24" s="442"/>
+      <c r="H24" s="439"/>
+      <c r="I24" s="439"/>
+      <c r="J24" s="439"/>
       <c r="K24" s="312"/>
       <c r="L24" s="35"/>
       <c r="M24" s="35"/>
@@ -9789,7 +9810,7 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" s="311"/>
-      <c r="B25" s="441"/>
+      <c r="B25" s="457"/>
       <c r="C25" s="227"/>
       <c r="D25" s="356"/>
       <c r="E25" s="354"/>
@@ -9833,7 +9854,7 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" s="311"/>
-      <c r="B26" s="441"/>
+      <c r="B26" s="457"/>
       <c r="C26" s="227"/>
       <c r="D26" s="356"/>
       <c r="E26" s="354"/>
@@ -9877,7 +9898,7 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" s="311"/>
-      <c r="B27" s="441"/>
+      <c r="B27" s="457"/>
       <c r="C27" s="227"/>
       <c r="D27" s="356"/>
       <c r="E27" s="354"/>
@@ -9921,7 +9942,7 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" s="311"/>
-      <c r="B28" s="441"/>
+      <c r="B28" s="457"/>
       <c r="C28" s="227"/>
       <c r="D28" s="356"/>
       <c r="E28" s="354"/>
@@ -9965,7 +9986,7 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" s="311"/>
-      <c r="B29" s="441"/>
+      <c r="B29" s="457"/>
       <c r="C29" s="227"/>
       <c r="D29" s="356"/>
       <c r="E29" s="354"/>
@@ -10009,7 +10030,7 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" s="311"/>
-      <c r="B30" s="441"/>
+      <c r="B30" s="457"/>
       <c r="C30" s="350"/>
       <c r="D30" s="356"/>
       <c r="E30" s="354"/>
@@ -10053,15 +10074,15 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" s="311"/>
-      <c r="B31" s="442"/>
-      <c r="C31" s="443"/>
-      <c r="D31" s="444"/>
-      <c r="E31" s="445"/>
-      <c r="F31" s="446"/>
-      <c r="G31" s="447"/>
-      <c r="H31" s="445"/>
-      <c r="I31" s="445"/>
-      <c r="J31" s="445"/>
+      <c r="B31" s="454"/>
+      <c r="C31" s="456"/>
+      <c r="D31" s="441"/>
+      <c r="E31" s="439"/>
+      <c r="F31" s="455"/>
+      <c r="G31" s="442"/>
+      <c r="H31" s="439"/>
+      <c r="I31" s="439"/>
+      <c r="J31" s="439"/>
       <c r="K31" s="312"/>
       <c r="L31" s="35"/>
       <c r="M31" s="35"/>
@@ -10097,7 +10118,7 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" s="311"/>
-      <c r="B32" s="441"/>
+      <c r="B32" s="457"/>
       <c r="C32" s="227"/>
       <c r="D32" s="356"/>
       <c r="E32" s="354"/>
@@ -10141,7 +10162,7 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" s="311"/>
-      <c r="B33" s="441"/>
+      <c r="B33" s="457"/>
       <c r="C33" s="227"/>
       <c r="D33" s="356"/>
       <c r="E33" s="354"/>
@@ -10185,7 +10206,7 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" s="311"/>
-      <c r="B34" s="441"/>
+      <c r="B34" s="457"/>
       <c r="C34" s="227"/>
       <c r="D34" s="356"/>
       <c r="E34" s="354"/>
@@ -10229,7 +10250,7 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" s="311"/>
-      <c r="B35" s="441"/>
+      <c r="B35" s="457"/>
       <c r="C35" s="227"/>
       <c r="D35" s="356"/>
       <c r="E35" s="354"/>
@@ -10273,7 +10294,7 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" s="311"/>
-      <c r="B36" s="441"/>
+      <c r="B36" s="457"/>
       <c r="C36" s="227"/>
       <c r="D36" s="356"/>
       <c r="E36" s="354"/>
@@ -10317,7 +10338,7 @@
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" s="311"/>
-      <c r="B37" s="441"/>
+      <c r="B37" s="457"/>
       <c r="C37" s="350"/>
       <c r="D37" s="356"/>
       <c r="E37" s="354"/>
@@ -10361,15 +10382,15 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" s="311"/>
-      <c r="B38" s="442"/>
-      <c r="C38" s="443"/>
-      <c r="D38" s="444"/>
-      <c r="E38" s="445"/>
-      <c r="F38" s="446"/>
-      <c r="G38" s="447"/>
-      <c r="H38" s="445"/>
-      <c r="I38" s="445"/>
-      <c r="J38" s="445"/>
+      <c r="B38" s="454"/>
+      <c r="C38" s="456"/>
+      <c r="D38" s="441"/>
+      <c r="E38" s="439"/>
+      <c r="F38" s="455"/>
+      <c r="G38" s="442"/>
+      <c r="H38" s="439"/>
+      <c r="I38" s="439"/>
+      <c r="J38" s="439"/>
       <c r="K38" s="312"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -10405,7 +10426,7 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" s="311"/>
-      <c r="B39" s="441"/>
+      <c r="B39" s="457"/>
       <c r="C39" s="227"/>
       <c r="D39" s="356"/>
       <c r="E39" s="354"/>
@@ -10449,7 +10470,7 @@
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" s="311"/>
-      <c r="B40" s="441"/>
+      <c r="B40" s="457"/>
       <c r="C40" s="227"/>
       <c r="D40" s="356"/>
       <c r="E40" s="354"/>
@@ -10493,7 +10514,7 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" s="311"/>
-      <c r="B41" s="441"/>
+      <c r="B41" s="457"/>
       <c r="C41" s="227"/>
       <c r="D41" s="356"/>
       <c r="E41" s="354"/>
@@ -10537,7 +10558,7 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" s="311"/>
-      <c r="B42" s="441"/>
+      <c r="B42" s="457"/>
       <c r="C42" s="227"/>
       <c r="D42" s="356"/>
       <c r="E42" s="354"/>
@@ -10581,7 +10602,7 @@
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" s="311"/>
-      <c r="B43" s="441"/>
+      <c r="B43" s="457"/>
       <c r="C43" s="227"/>
       <c r="D43" s="356"/>
       <c r="E43" s="354"/>
@@ -10625,7 +10646,7 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" s="311"/>
-      <c r="B44" s="441"/>
+      <c r="B44" s="457"/>
       <c r="C44" s="350"/>
       <c r="D44" s="356"/>
       <c r="E44" s="354"/>
@@ -10669,15 +10690,15 @@
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" s="311"/>
-      <c r="B45" s="442"/>
-      <c r="C45" s="443"/>
-      <c r="D45" s="444"/>
-      <c r="E45" s="445"/>
-      <c r="F45" s="446"/>
-      <c r="G45" s="447"/>
-      <c r="H45" s="445"/>
-      <c r="I45" s="445"/>
-      <c r="J45" s="445"/>
+      <c r="B45" s="454"/>
+      <c r="C45" s="456"/>
+      <c r="D45" s="441"/>
+      <c r="E45" s="439"/>
+      <c r="F45" s="455"/>
+      <c r="G45" s="442"/>
+      <c r="H45" s="439"/>
+      <c r="I45" s="439"/>
+      <c r="J45" s="439"/>
       <c r="K45" s="312"/>
       <c r="L45" s="35"/>
       <c r="M45" s="35"/>
@@ -10713,7 +10734,7 @@
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" s="311"/>
-      <c r="B46" s="441"/>
+      <c r="B46" s="457"/>
       <c r="C46" s="227"/>
       <c r="D46" s="356"/>
       <c r="E46" s="354"/>
@@ -10757,7 +10778,7 @@
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" s="311"/>
-      <c r="B47" s="441"/>
+      <c r="B47" s="457"/>
       <c r="C47" s="227"/>
       <c r="D47" s="356"/>
       <c r="E47" s="354"/>
@@ -10801,7 +10822,7 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" s="311"/>
-      <c r="B48" s="441"/>
+      <c r="B48" s="457"/>
       <c r="C48" s="227"/>
       <c r="D48" s="356"/>
       <c r="E48" s="354"/>
@@ -10845,7 +10866,7 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" s="311"/>
-      <c r="B49" s="441"/>
+      <c r="B49" s="457"/>
       <c r="C49" s="227"/>
       <c r="D49" s="356"/>
       <c r="E49" s="354"/>
@@ -10889,7 +10910,7 @@
     </row>
     <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" s="311"/>
-      <c r="B50" s="441"/>
+      <c r="B50" s="457"/>
       <c r="C50" s="227"/>
       <c r="D50" s="356"/>
       <c r="E50" s="354"/>
@@ -10933,7 +10954,7 @@
     </row>
     <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" s="311"/>
-      <c r="B51" s="441"/>
+      <c r="B51" s="457"/>
       <c r="C51" s="350"/>
       <c r="D51" s="356"/>
       <c r="E51" s="354"/>
@@ -10977,15 +10998,15 @@
     </row>
     <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" s="311"/>
-      <c r="B52" s="442"/>
-      <c r="C52" s="443"/>
-      <c r="D52" s="444"/>
-      <c r="E52" s="445"/>
-      <c r="F52" s="446"/>
-      <c r="G52" s="447"/>
-      <c r="H52" s="445"/>
-      <c r="I52" s="445"/>
-      <c r="J52" s="445"/>
+      <c r="B52" s="454"/>
+      <c r="C52" s="456"/>
+      <c r="D52" s="441"/>
+      <c r="E52" s="439"/>
+      <c r="F52" s="455"/>
+      <c r="G52" s="442"/>
+      <c r="H52" s="439"/>
+      <c r="I52" s="439"/>
+      <c r="J52" s="439"/>
       <c r="K52" s="312"/>
       <c r="L52" s="35"/>
       <c r="M52" s="35"/>
@@ -11021,7 +11042,7 @@
     </row>
     <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" s="311"/>
-      <c r="B53" s="441"/>
+      <c r="B53" s="457"/>
       <c r="C53" s="227"/>
       <c r="D53" s="356"/>
       <c r="E53" s="354"/>
@@ -11065,7 +11086,7 @@
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" s="311"/>
-      <c r="B54" s="441"/>
+      <c r="B54" s="457"/>
       <c r="C54" s="227"/>
       <c r="D54" s="356"/>
       <c r="E54" s="354"/>
@@ -11109,7 +11130,7 @@
     </row>
     <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" s="311"/>
-      <c r="B55" s="441"/>
+      <c r="B55" s="457"/>
       <c r="C55" s="227"/>
       <c r="D55" s="356"/>
       <c r="E55" s="354"/>
@@ -11153,7 +11174,7 @@
     </row>
     <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" s="311"/>
-      <c r="B56" s="441"/>
+      <c r="B56" s="457"/>
       <c r="C56" s="227"/>
       <c r="D56" s="356"/>
       <c r="E56" s="354"/>
@@ -11197,7 +11218,7 @@
     </row>
     <row r="57" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A57" s="311"/>
-      <c r="B57" s="441"/>
+      <c r="B57" s="457"/>
       <c r="C57" s="227"/>
       <c r="D57" s="356"/>
       <c r="E57" s="354"/>
@@ -11241,7 +11262,7 @@
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A58" s="311"/>
-      <c r="B58" s="441"/>
+      <c r="B58" s="457"/>
       <c r="C58" s="350"/>
       <c r="D58" s="356"/>
       <c r="E58" s="354"/>
@@ -11285,17 +11306,17 @@
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A59" s="311"/>
-      <c r="B59" s="448" t="s">
+      <c r="B59" s="458" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="449"/>
-      <c r="D59" s="450"/>
-      <c r="E59" s="451"/>
-      <c r="F59" s="452"/>
-      <c r="G59" s="453"/>
-      <c r="H59" s="451"/>
-      <c r="I59" s="451"/>
-      <c r="J59" s="451"/>
+      <c r="C59" s="459"/>
+      <c r="D59" s="460"/>
+      <c r="E59" s="461"/>
+      <c r="F59" s="462"/>
+      <c r="G59" s="463"/>
+      <c r="H59" s="461"/>
+      <c r="I59" s="461"/>
+      <c r="J59" s="461"/>
       <c r="K59" s="312"/>
       <c r="L59" s="35"/>
       <c r="M59" s="35"/>
@@ -11331,7 +11352,7 @@
     </row>
     <row r="60" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A60" s="311"/>
-      <c r="B60" s="454"/>
+      <c r="B60" s="449"/>
       <c r="C60" s="227"/>
       <c r="D60" s="355"/>
       <c r="E60" s="83"/>
@@ -11375,7 +11396,7 @@
     </row>
     <row r="61" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A61" s="311"/>
-      <c r="B61" s="454"/>
+      <c r="B61" s="449"/>
       <c r="C61" s="227"/>
       <c r="D61" s="355"/>
       <c r="E61" s="83"/>
@@ -11419,7 +11440,7 @@
     </row>
     <row r="62" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A62" s="311"/>
-      <c r="B62" s="454"/>
+      <c r="B62" s="449"/>
       <c r="C62" s="227"/>
       <c r="D62" s="355"/>
       <c r="E62" s="83"/>
@@ -11463,7 +11484,7 @@
     </row>
     <row r="63" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A63" s="311"/>
-      <c r="B63" s="454"/>
+      <c r="B63" s="449"/>
       <c r="C63" s="227"/>
       <c r="D63" s="355"/>
       <c r="E63" s="354"/>
@@ -11507,7 +11528,7 @@
     </row>
     <row r="64" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A64" s="311"/>
-      <c r="B64" s="454"/>
+      <c r="B64" s="449"/>
       <c r="C64" s="227"/>
       <c r="D64" s="355"/>
       <c r="E64" s="354"/>
@@ -11551,7 +11572,7 @@
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A65" s="311"/>
-      <c r="B65" s="454"/>
+      <c r="B65" s="449"/>
       <c r="C65" s="350"/>
       <c r="D65" s="355"/>
       <c r="E65" s="354"/>
@@ -11595,15 +11616,15 @@
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A66" s="311"/>
-      <c r="B66" s="442"/>
-      <c r="C66" s="455"/>
-      <c r="D66" s="444"/>
-      <c r="E66" s="445"/>
-      <c r="F66" s="446"/>
-      <c r="G66" s="447"/>
-      <c r="H66" s="445"/>
-      <c r="I66" s="445"/>
-      <c r="J66" s="445"/>
+      <c r="B66" s="454"/>
+      <c r="C66" s="440"/>
+      <c r="D66" s="441"/>
+      <c r="E66" s="439"/>
+      <c r="F66" s="455"/>
+      <c r="G66" s="442"/>
+      <c r="H66" s="439"/>
+      <c r="I66" s="439"/>
+      <c r="J66" s="439"/>
       <c r="K66" s="312"/>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
@@ -11639,7 +11660,7 @@
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A67" s="311"/>
-      <c r="B67" s="454"/>
+      <c r="B67" s="449"/>
       <c r="C67" s="227"/>
       <c r="D67" s="355"/>
       <c r="E67" s="83"/>
@@ -11683,7 +11704,7 @@
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A68" s="311"/>
-      <c r="B68" s="454"/>
+      <c r="B68" s="449"/>
       <c r="C68" s="227"/>
       <c r="D68" s="355"/>
       <c r="E68" s="354"/>
@@ -11727,7 +11748,7 @@
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A69" s="311"/>
-      <c r="B69" s="454"/>
+      <c r="B69" s="449"/>
       <c r="C69" s="227"/>
       <c r="D69" s="355"/>
       <c r="E69" s="354"/>
@@ -11771,7 +11792,7 @@
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A70" s="311"/>
-      <c r="B70" s="454"/>
+      <c r="B70" s="449"/>
       <c r="C70" s="227"/>
       <c r="D70" s="355"/>
       <c r="E70" s="354"/>
@@ -11815,7 +11836,7 @@
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A71" s="311"/>
-      <c r="B71" s="454"/>
+      <c r="B71" s="449"/>
       <c r="C71" s="227"/>
       <c r="D71" s="355"/>
       <c r="E71" s="83"/>
@@ -11859,7 +11880,7 @@
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A72" s="311"/>
-      <c r="B72" s="454"/>
+      <c r="B72" s="449"/>
       <c r="C72" s="350"/>
       <c r="D72" s="355"/>
       <c r="E72" s="354"/>
@@ -11903,15 +11924,15 @@
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A73" s="311"/>
-      <c r="B73" s="442"/>
-      <c r="C73" s="455"/>
-      <c r="D73" s="444"/>
-      <c r="E73" s="445"/>
-      <c r="F73" s="446"/>
-      <c r="G73" s="447"/>
-      <c r="H73" s="445"/>
-      <c r="I73" s="445"/>
-      <c r="J73" s="445"/>
+      <c r="B73" s="454"/>
+      <c r="C73" s="440"/>
+      <c r="D73" s="441"/>
+      <c r="E73" s="439"/>
+      <c r="F73" s="455"/>
+      <c r="G73" s="442"/>
+      <c r="H73" s="439"/>
+      <c r="I73" s="439"/>
+      <c r="J73" s="439"/>
       <c r="K73" s="312"/>
       <c r="L73" s="35"/>
       <c r="M73" s="35"/>
@@ -11947,7 +11968,7 @@
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A74" s="311"/>
-      <c r="B74" s="454"/>
+      <c r="B74" s="449"/>
       <c r="C74" s="227"/>
       <c r="D74" s="355"/>
       <c r="E74" s="83"/>
@@ -11991,7 +12012,7 @@
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A75" s="311"/>
-      <c r="B75" s="454"/>
+      <c r="B75" s="449"/>
       <c r="C75" s="227"/>
       <c r="D75" s="355"/>
       <c r="E75" s="83"/>
@@ -12035,7 +12056,7 @@
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A76" s="311"/>
-      <c r="B76" s="454"/>
+      <c r="B76" s="449"/>
       <c r="C76" s="227"/>
       <c r="D76" s="355"/>
       <c r="E76" s="354"/>
@@ -12079,7 +12100,7 @@
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A77" s="311"/>
-      <c r="B77" s="454"/>
+      <c r="B77" s="449"/>
       <c r="C77" s="227"/>
       <c r="D77" s="355"/>
       <c r="E77" s="354"/>
@@ -12123,7 +12144,7 @@
     </row>
     <row r="78" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A78" s="311"/>
-      <c r="B78" s="454"/>
+      <c r="B78" s="449"/>
       <c r="C78" s="227"/>
       <c r="D78" s="355"/>
       <c r="E78" s="354"/>
@@ -12167,7 +12188,7 @@
     </row>
     <row r="79" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A79" s="311"/>
-      <c r="B79" s="454"/>
+      <c r="B79" s="449"/>
       <c r="C79" s="350"/>
       <c r="D79" s="355"/>
       <c r="E79" s="354"/>
@@ -12211,15 +12232,15 @@
     </row>
     <row r="80" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A80" s="311"/>
-      <c r="B80" s="442"/>
-      <c r="C80" s="455"/>
-      <c r="D80" s="444"/>
-      <c r="E80" s="445"/>
-      <c r="F80" s="446"/>
-      <c r="G80" s="447"/>
-      <c r="H80" s="445"/>
-      <c r="I80" s="445"/>
-      <c r="J80" s="445"/>
+      <c r="B80" s="454"/>
+      <c r="C80" s="440"/>
+      <c r="D80" s="441"/>
+      <c r="E80" s="439"/>
+      <c r="F80" s="455"/>
+      <c r="G80" s="442"/>
+      <c r="H80" s="439"/>
+      <c r="I80" s="439"/>
+      <c r="J80" s="439"/>
       <c r="K80" s="312"/>
       <c r="L80" s="35"/>
       <c r="M80" s="35"/>
@@ -12255,7 +12276,7 @@
     </row>
     <row r="81" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A81" s="311"/>
-      <c r="B81" s="454"/>
+      <c r="B81" s="449"/>
       <c r="C81" s="227"/>
       <c r="D81" s="355"/>
       <c r="E81" s="354"/>
@@ -12299,7 +12320,7 @@
     </row>
     <row r="82" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A82" s="311"/>
-      <c r="B82" s="454"/>
+      <c r="B82" s="449"/>
       <c r="C82" s="227"/>
       <c r="D82" s="355"/>
       <c r="E82" s="354"/>
@@ -12343,7 +12364,7 @@
     </row>
     <row r="83" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A83" s="311"/>
-      <c r="B83" s="454"/>
+      <c r="B83" s="449"/>
       <c r="C83" s="227"/>
       <c r="D83" s="355"/>
       <c r="E83" s="226"/>
@@ -12387,7 +12408,7 @@
     </row>
     <row r="84" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A84" s="311"/>
-      <c r="B84" s="454"/>
+      <c r="B84" s="449"/>
       <c r="C84" s="227"/>
       <c r="D84" s="355"/>
       <c r="E84" s="354"/>
@@ -12431,7 +12452,7 @@
     </row>
     <row r="85" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A85" s="311"/>
-      <c r="B85" s="454"/>
+      <c r="B85" s="449"/>
       <c r="C85" s="227"/>
       <c r="D85" s="355"/>
       <c r="E85" s="354"/>
@@ -12475,7 +12496,7 @@
     </row>
     <row r="86" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A86" s="311"/>
-      <c r="B86" s="454"/>
+      <c r="B86" s="449"/>
       <c r="C86" s="350"/>
       <c r="D86" s="355"/>
       <c r="E86" s="354"/>
@@ -12519,15 +12540,15 @@
     </row>
     <row r="87" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A87" s="311"/>
-      <c r="B87" s="442"/>
-      <c r="C87" s="455"/>
-      <c r="D87" s="444"/>
-      <c r="E87" s="445"/>
-      <c r="F87" s="446"/>
-      <c r="G87" s="447"/>
-      <c r="H87" s="445"/>
-      <c r="I87" s="445"/>
-      <c r="J87" s="445"/>
+      <c r="B87" s="454"/>
+      <c r="C87" s="440"/>
+      <c r="D87" s="441"/>
+      <c r="E87" s="439"/>
+      <c r="F87" s="455"/>
+      <c r="G87" s="442"/>
+      <c r="H87" s="439"/>
+      <c r="I87" s="439"/>
+      <c r="J87" s="439"/>
       <c r="K87" s="312"/>
       <c r="L87" s="35"/>
       <c r="M87" s="35"/>
@@ -12563,7 +12584,7 @@
     </row>
     <row r="88" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A88" s="311"/>
-      <c r="B88" s="454"/>
+      <c r="B88" s="449"/>
       <c r="C88" s="227"/>
       <c r="D88" s="355"/>
       <c r="E88" s="354"/>
@@ -12607,7 +12628,7 @@
     </row>
     <row r="89" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A89" s="311"/>
-      <c r="B89" s="456"/>
+      <c r="B89" s="450"/>
       <c r="C89" s="227"/>
       <c r="D89" s="355"/>
       <c r="E89" s="354"/>
@@ -12651,7 +12672,7 @@
     </row>
     <row r="90" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A90" s="311"/>
-      <c r="B90" s="456"/>
+      <c r="B90" s="450"/>
       <c r="C90" s="227"/>
       <c r="D90" s="355"/>
       <c r="E90" s="354"/>
@@ -12695,7 +12716,7 @@
     </row>
     <row r="91" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A91" s="311"/>
-      <c r="B91" s="456"/>
+      <c r="B91" s="450"/>
       <c r="C91" s="227"/>
       <c r="D91" s="355"/>
       <c r="E91" s="354"/>
@@ -12739,7 +12760,7 @@
     </row>
     <row r="92" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A92" s="311"/>
-      <c r="B92" s="456"/>
+      <c r="B92" s="450"/>
       <c r="C92" s="227"/>
       <c r="D92" s="355"/>
       <c r="E92" s="354"/>
@@ -12783,7 +12804,7 @@
     </row>
     <row r="93" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A93" s="311"/>
-      <c r="B93" s="456"/>
+      <c r="B93" s="450"/>
       <c r="C93" s="350"/>
       <c r="D93" s="355"/>
       <c r="E93" s="354"/>
@@ -12827,15 +12848,15 @@
     </row>
     <row r="94" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A94" s="311"/>
-      <c r="B94" s="445"/>
-      <c r="C94" s="455"/>
-      <c r="D94" s="444"/>
-      <c r="E94" s="445"/>
-      <c r="F94" s="445"/>
-      <c r="G94" s="447"/>
-      <c r="H94" s="445"/>
-      <c r="I94" s="445"/>
-      <c r="J94" s="445"/>
+      <c r="B94" s="439"/>
+      <c r="C94" s="440"/>
+      <c r="D94" s="441"/>
+      <c r="E94" s="439"/>
+      <c r="F94" s="439"/>
+      <c r="G94" s="442"/>
+      <c r="H94" s="439"/>
+      <c r="I94" s="439"/>
+      <c r="J94" s="439"/>
       <c r="K94" s="312"/>
       <c r="L94" s="35"/>
       <c r="M94" s="35"/>
@@ -12871,7 +12892,7 @@
     </row>
     <row r="95" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A95" s="311"/>
-      <c r="B95" s="456"/>
+      <c r="B95" s="450"/>
       <c r="C95" s="227"/>
       <c r="D95" s="355"/>
       <c r="E95" s="354"/>
@@ -12915,7 +12936,7 @@
     </row>
     <row r="96" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A96" s="311"/>
-      <c r="B96" s="456"/>
+      <c r="B96" s="450"/>
       <c r="C96" s="227"/>
       <c r="D96" s="355"/>
       <c r="E96" s="354"/>
@@ -12959,7 +12980,7 @@
     </row>
     <row r="97" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A97" s="311"/>
-      <c r="B97" s="456"/>
+      <c r="B97" s="450"/>
       <c r="C97" s="227"/>
       <c r="D97" s="355"/>
       <c r="E97" s="354"/>
@@ -13003,7 +13024,7 @@
     </row>
     <row r="98" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A98" s="311"/>
-      <c r="B98" s="456"/>
+      <c r="B98" s="450"/>
       <c r="C98" s="227"/>
       <c r="D98" s="355"/>
       <c r="E98" s="354"/>
@@ -13047,7 +13068,7 @@
     </row>
     <row r="99" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A99" s="311"/>
-      <c r="B99" s="456"/>
+      <c r="B99" s="450"/>
       <c r="C99" s="227"/>
       <c r="D99" s="355"/>
       <c r="E99" s="354"/>
@@ -13091,7 +13112,7 @@
     </row>
     <row r="100" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A100" s="311"/>
-      <c r="B100" s="456"/>
+      <c r="B100" s="450"/>
       <c r="C100" s="350"/>
       <c r="D100" s="355"/>
       <c r="E100" s="354"/>
@@ -13135,15 +13156,15 @@
     </row>
     <row r="101" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A101" s="311"/>
-      <c r="B101" s="445"/>
-      <c r="C101" s="455"/>
-      <c r="D101" s="444"/>
-      <c r="E101" s="445"/>
-      <c r="F101" s="445"/>
-      <c r="G101" s="447"/>
-      <c r="H101" s="445"/>
-      <c r="I101" s="445"/>
-      <c r="J101" s="445"/>
+      <c r="B101" s="439"/>
+      <c r="C101" s="440"/>
+      <c r="D101" s="441"/>
+      <c r="E101" s="439"/>
+      <c r="F101" s="439"/>
+      <c r="G101" s="442"/>
+      <c r="H101" s="439"/>
+      <c r="I101" s="439"/>
+      <c r="J101" s="439"/>
       <c r="K101" s="312"/>
       <c r="L101" s="35"/>
       <c r="M101" s="35"/>
@@ -13179,7 +13200,7 @@
     </row>
     <row r="102" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A102" s="311"/>
-      <c r="B102" s="457"/>
+      <c r="B102" s="451"/>
       <c r="C102" s="227"/>
       <c r="D102" s="355"/>
       <c r="E102" s="354"/>
@@ -13223,7 +13244,7 @@
     </row>
     <row r="103" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A103" s="311"/>
-      <c r="B103" s="456"/>
+      <c r="B103" s="450"/>
       <c r="C103" s="227"/>
       <c r="D103" s="355"/>
       <c r="E103" s="354"/>
@@ -13267,7 +13288,7 @@
     </row>
     <row r="104" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A104" s="311"/>
-      <c r="B104" s="456"/>
+      <c r="B104" s="450"/>
       <c r="C104" s="227"/>
       <c r="D104" s="355"/>
       <c r="E104" s="354"/>
@@ -13311,7 +13332,7 @@
     </row>
     <row r="105" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A105" s="311"/>
-      <c r="B105" s="456"/>
+      <c r="B105" s="450"/>
       <c r="C105" s="227"/>
       <c r="D105" s="355"/>
       <c r="E105" s="354"/>
@@ -13355,7 +13376,7 @@
     </row>
     <row r="106" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A106" s="311"/>
-      <c r="B106" s="456"/>
+      <c r="B106" s="450"/>
       <c r="C106" s="227"/>
       <c r="D106" s="355"/>
       <c r="E106" s="354"/>
@@ -13399,7 +13420,7 @@
     </row>
     <row r="107" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A107" s="311"/>
-      <c r="B107" s="456"/>
+      <c r="B107" s="450"/>
       <c r="C107" s="350"/>
       <c r="D107" s="355"/>
       <c r="E107" s="354"/>
@@ -13443,17 +13464,17 @@
     </row>
     <row r="108" spans="1:42" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A108" s="311"/>
-      <c r="B108" s="458" t="s">
+      <c r="B108" s="452" t="s">
         <v>36</v>
       </c>
-      <c r="C108" s="458"/>
-      <c r="D108" s="458"/>
-      <c r="E108" s="458"/>
-      <c r="F108" s="458"/>
-      <c r="G108" s="459"/>
-      <c r="H108" s="458"/>
-      <c r="I108" s="458"/>
-      <c r="J108" s="458"/>
+      <c r="C108" s="452"/>
+      <c r="D108" s="452"/>
+      <c r="E108" s="452"/>
+      <c r="F108" s="452"/>
+      <c r="G108" s="453"/>
+      <c r="H108" s="452"/>
+      <c r="I108" s="452"/>
+      <c r="J108" s="452"/>
       <c r="K108" s="312"/>
       <c r="L108" s="35"/>
       <c r="M108" s="35"/>
@@ -13489,7 +13510,7 @@
     </row>
     <row r="109" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A109" s="311"/>
-      <c r="B109" s="456"/>
+      <c r="B109" s="450"/>
       <c r="C109" s="227"/>
       <c r="D109" s="355"/>
       <c r="E109" s="354"/>
@@ -13533,7 +13554,7 @@
     </row>
     <row r="110" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A110" s="311"/>
-      <c r="B110" s="456"/>
+      <c r="B110" s="450"/>
       <c r="C110" s="227"/>
       <c r="D110" s="355"/>
       <c r="E110" s="354"/>
@@ -13577,7 +13598,7 @@
     </row>
     <row r="111" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A111" s="311"/>
-      <c r="B111" s="456"/>
+      <c r="B111" s="450"/>
       <c r="C111" s="227"/>
       <c r="D111" s="355"/>
       <c r="E111" s="354"/>
@@ -13621,7 +13642,7 @@
     </row>
     <row r="112" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A112" s="311"/>
-      <c r="B112" s="456"/>
+      <c r="B112" s="450"/>
       <c r="C112" s="227"/>
       <c r="D112" s="355"/>
       <c r="E112" s="354"/>
@@ -13665,7 +13686,7 @@
     </row>
     <row r="113" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A113" s="311"/>
-      <c r="B113" s="456"/>
+      <c r="B113" s="450"/>
       <c r="C113" s="227"/>
       <c r="D113" s="355"/>
       <c r="E113" s="354"/>
@@ -13709,7 +13730,7 @@
     </row>
     <row r="114" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A114" s="311"/>
-      <c r="B114" s="456"/>
+      <c r="B114" s="450"/>
       <c r="C114" s="227"/>
       <c r="D114" s="355"/>
       <c r="E114" s="354"/>
@@ -13753,7 +13774,7 @@
     </row>
     <row r="115" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A115" s="311"/>
-      <c r="B115" s="456"/>
+      <c r="B115" s="450"/>
       <c r="C115" s="350"/>
       <c r="D115" s="355"/>
       <c r="E115" s="354"/>
@@ -13797,7 +13818,7 @@
     </row>
     <row r="116" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A116" s="311"/>
-      <c r="B116" s="456"/>
+      <c r="B116" s="450"/>
       <c r="C116" s="227"/>
       <c r="D116" s="355"/>
       <c r="E116" s="354"/>
@@ -13841,7 +13862,7 @@
     </row>
     <row r="117" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A117" s="311"/>
-      <c r="B117" s="456"/>
+      <c r="B117" s="450"/>
       <c r="C117" s="227"/>
       <c r="D117" s="355"/>
       <c r="E117" s="354"/>
@@ -13885,7 +13906,7 @@
     </row>
     <row r="118" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A118" s="311"/>
-      <c r="B118" s="456"/>
+      <c r="B118" s="450"/>
       <c r="C118" s="350"/>
       <c r="D118" s="355"/>
       <c r="E118" s="354"/>
@@ -13929,15 +13950,15 @@
     </row>
     <row r="119" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A119" s="311"/>
-      <c r="B119" s="445"/>
-      <c r="C119" s="455"/>
-      <c r="D119" s="444"/>
-      <c r="E119" s="445"/>
-      <c r="F119" s="445"/>
-      <c r="G119" s="447"/>
-      <c r="H119" s="445"/>
-      <c r="I119" s="445"/>
-      <c r="J119" s="445"/>
+      <c r="B119" s="439"/>
+      <c r="C119" s="440"/>
+      <c r="D119" s="441"/>
+      <c r="E119" s="439"/>
+      <c r="F119" s="439"/>
+      <c r="G119" s="442"/>
+      <c r="H119" s="439"/>
+      <c r="I119" s="439"/>
+      <c r="J119" s="439"/>
       <c r="K119" s="312"/>
       <c r="L119" s="35"/>
       <c r="M119" s="35"/>
@@ -13973,7 +13994,7 @@
     </row>
     <row r="120" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A120" s="311"/>
-      <c r="B120" s="456"/>
+      <c r="B120" s="450"/>
       <c r="C120" s="227"/>
       <c r="D120" s="355"/>
       <c r="E120" s="354"/>
@@ -14017,7 +14038,7 @@
     </row>
     <row r="121" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A121" s="35"/>
-      <c r="B121" s="456"/>
+      <c r="B121" s="450"/>
       <c r="C121" s="227"/>
       <c r="D121" s="355"/>
       <c r="E121" s="354"/>
@@ -14061,7 +14082,7 @@
     </row>
     <row r="122" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A122" s="35"/>
-      <c r="B122" s="456"/>
+      <c r="B122" s="450"/>
       <c r="C122" s="227"/>
       <c r="D122" s="355"/>
       <c r="E122" s="354"/>
@@ -14105,7 +14126,7 @@
     </row>
     <row r="123" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A123" s="35"/>
-      <c r="B123" s="456"/>
+      <c r="B123" s="450"/>
       <c r="C123" s="227"/>
       <c r="D123" s="355"/>
       <c r="E123" s="354"/>
@@ -14149,7 +14170,7 @@
     </row>
     <row r="124" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A124" s="35"/>
-      <c r="B124" s="456"/>
+      <c r="B124" s="450"/>
       <c r="C124" s="227"/>
       <c r="D124" s="355"/>
       <c r="E124" s="354"/>
@@ -14193,7 +14214,7 @@
     </row>
     <row r="125" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A125" s="35"/>
-      <c r="B125" s="456"/>
+      <c r="B125" s="450"/>
       <c r="C125" s="227"/>
       <c r="D125" s="355"/>
       <c r="E125" s="354"/>
@@ -14237,7 +14258,7 @@
     </row>
     <row r="126" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A126" s="35"/>
-      <c r="B126" s="456"/>
+      <c r="B126" s="450"/>
       <c r="C126" s="227"/>
       <c r="D126" s="355"/>
       <c r="E126" s="354"/>
@@ -14281,7 +14302,7 @@
     </row>
     <row r="127" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A127" s="35"/>
-      <c r="B127" s="456"/>
+      <c r="B127" s="450"/>
       <c r="C127" s="227"/>
       <c r="D127" s="355"/>
       <c r="E127" s="354"/>
@@ -14325,15 +14346,15 @@
     </row>
     <row r="128" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A128" s="311"/>
-      <c r="B128" s="445"/>
-      <c r="C128" s="455"/>
-      <c r="D128" s="444"/>
-      <c r="E128" s="445"/>
-      <c r="F128" s="445"/>
-      <c r="G128" s="447"/>
-      <c r="H128" s="445"/>
-      <c r="I128" s="445"/>
-      <c r="J128" s="445"/>
+      <c r="B128" s="439"/>
+      <c r="C128" s="440"/>
+      <c r="D128" s="441"/>
+      <c r="E128" s="439"/>
+      <c r="F128" s="439"/>
+      <c r="G128" s="442"/>
+      <c r="H128" s="439"/>
+      <c r="I128" s="439"/>
+      <c r="J128" s="439"/>
       <c r="K128" s="312"/>
       <c r="L128" s="35"/>
       <c r="M128" s="35"/>
@@ -14369,7 +14390,7 @@
     </row>
     <row r="129" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A129" s="311"/>
-      <c r="B129" s="456"/>
+      <c r="B129" s="450"/>
       <c r="C129" s="227"/>
       <c r="D129" s="355"/>
       <c r="E129" s="354"/>
@@ -14413,7 +14434,7 @@
     </row>
     <row r="130" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A130" s="35"/>
-      <c r="B130" s="456"/>
+      <c r="B130" s="450"/>
       <c r="C130" s="227"/>
       <c r="D130" s="355"/>
       <c r="E130" s="354"/>
@@ -14457,7 +14478,7 @@
     </row>
     <row r="131" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A131" s="35"/>
-      <c r="B131" s="456"/>
+      <c r="B131" s="450"/>
       <c r="C131" s="227"/>
       <c r="D131" s="355"/>
       <c r="E131" s="354"/>
@@ -14501,7 +14522,7 @@
     </row>
     <row r="132" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A132" s="35"/>
-      <c r="B132" s="456"/>
+      <c r="B132" s="450"/>
       <c r="C132" s="227"/>
       <c r="D132" s="355"/>
       <c r="E132" s="354"/>
@@ -14545,7 +14566,7 @@
     </row>
     <row r="133" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A133" s="35"/>
-      <c r="B133" s="456"/>
+      <c r="B133" s="450"/>
       <c r="C133" s="227"/>
       <c r="D133" s="355"/>
       <c r="E133" s="354"/>
@@ -14589,7 +14610,7 @@
     </row>
     <row r="134" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A134" s="35"/>
-      <c r="B134" s="456"/>
+      <c r="B134" s="450"/>
       <c r="C134" s="350"/>
       <c r="D134" s="355"/>
       <c r="E134" s="357"/>
@@ -14633,15 +14654,15 @@
     </row>
     <row r="135" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A135" s="311"/>
-      <c r="B135" s="445"/>
-      <c r="C135" s="455"/>
-      <c r="D135" s="444"/>
-      <c r="E135" s="445"/>
-      <c r="F135" s="445"/>
-      <c r="G135" s="447"/>
-      <c r="H135" s="445"/>
-      <c r="I135" s="445"/>
-      <c r="J135" s="445"/>
+      <c r="B135" s="439"/>
+      <c r="C135" s="440"/>
+      <c r="D135" s="441"/>
+      <c r="E135" s="439"/>
+      <c r="F135" s="439"/>
+      <c r="G135" s="442"/>
+      <c r="H135" s="439"/>
+      <c r="I135" s="439"/>
+      <c r="J135" s="439"/>
       <c r="K135" s="312"/>
       <c r="L135" s="35"/>
       <c r="M135" s="35"/>
@@ -14677,7 +14698,7 @@
     </row>
     <row r="136" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A136" s="311"/>
-      <c r="B136" s="454"/>
+      <c r="B136" s="449"/>
       <c r="C136" s="227"/>
       <c r="D136" s="355"/>
       <c r="E136" s="354"/>
@@ -14721,7 +14742,7 @@
     </row>
     <row r="137" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A137" s="327"/>
-      <c r="B137" s="454"/>
+      <c r="B137" s="449"/>
       <c r="C137" s="227"/>
       <c r="D137" s="355"/>
       <c r="E137" s="354"/>
@@ -14765,7 +14786,7 @@
     </row>
     <row r="138" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A138" s="35"/>
-      <c r="B138" s="454"/>
+      <c r="B138" s="449"/>
       <c r="C138" s="227"/>
       <c r="D138" s="355"/>
       <c r="E138" s="354"/>
@@ -14809,7 +14830,7 @@
     </row>
     <row r="139" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A139" s="35"/>
-      <c r="B139" s="454"/>
+      <c r="B139" s="449"/>
       <c r="C139" s="227"/>
       <c r="D139" s="355"/>
       <c r="E139" s="354"/>
@@ -14853,7 +14874,7 @@
     </row>
     <row r="140" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A140" s="35"/>
-      <c r="B140" s="454"/>
+      <c r="B140" s="449"/>
       <c r="C140" s="227"/>
       <c r="D140" s="355"/>
       <c r="E140" s="354"/>
@@ -14897,7 +14918,7 @@
     </row>
     <row r="141" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A141" s="35"/>
-      <c r="B141" s="454"/>
+      <c r="B141" s="449"/>
       <c r="C141" s="227"/>
       <c r="D141" s="355"/>
       <c r="E141" s="354"/>
@@ -14941,7 +14962,7 @@
     </row>
     <row r="142" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A142" s="35"/>
-      <c r="B142" s="454"/>
+      <c r="B142" s="449"/>
       <c r="C142" s="350"/>
       <c r="D142" s="355"/>
       <c r="E142" s="354"/>
@@ -14985,15 +15006,15 @@
     </row>
     <row r="143" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A143" s="311"/>
-      <c r="B143" s="445"/>
-      <c r="C143" s="455"/>
-      <c r="D143" s="444"/>
-      <c r="E143" s="445"/>
-      <c r="F143" s="445"/>
-      <c r="G143" s="447"/>
-      <c r="H143" s="445"/>
-      <c r="I143" s="445"/>
-      <c r="J143" s="445"/>
+      <c r="B143" s="439"/>
+      <c r="C143" s="440"/>
+      <c r="D143" s="441"/>
+      <c r="E143" s="439"/>
+      <c r="F143" s="439"/>
+      <c r="G143" s="442"/>
+      <c r="H143" s="439"/>
+      <c r="I143" s="439"/>
+      <c r="J143" s="439"/>
       <c r="K143" s="312"/>
       <c r="L143" s="35"/>
       <c r="M143" s="35"/>
@@ -15029,7 +15050,7 @@
     </row>
     <row r="144" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A144" s="311"/>
-      <c r="B144" s="454"/>
+      <c r="B144" s="449"/>
       <c r="C144" s="283"/>
       <c r="D144" s="350"/>
       <c r="E144" s="354"/>
@@ -15073,7 +15094,7 @@
     </row>
     <row r="145" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A145" s="35"/>
-      <c r="B145" s="454"/>
+      <c r="B145" s="449"/>
       <c r="C145" s="283"/>
       <c r="D145" s="350"/>
       <c r="E145" s="354"/>
@@ -15117,7 +15138,7 @@
     </row>
     <row r="146" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A146" s="35"/>
-      <c r="B146" s="454"/>
+      <c r="B146" s="449"/>
       <c r="C146" s="283"/>
       <c r="D146" s="350"/>
       <c r="E146" s="354"/>
@@ -15161,7 +15182,7 @@
     </row>
     <row r="147" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A147" s="35"/>
-      <c r="B147" s="454"/>
+      <c r="B147" s="449"/>
       <c r="C147" s="283"/>
       <c r="D147" s="350"/>
       <c r="E147" s="354"/>
@@ -15205,7 +15226,7 @@
     </row>
     <row r="148" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A148" s="35"/>
-      <c r="B148" s="454"/>
+      <c r="B148" s="449"/>
       <c r="C148" s="283"/>
       <c r="D148" s="350"/>
       <c r="E148" s="354"/>
@@ -15249,7 +15270,7 @@
     </row>
     <row r="149" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A149" s="35"/>
-      <c r="B149" s="454"/>
+      <c r="B149" s="449"/>
       <c r="C149" s="283"/>
       <c r="D149" s="350"/>
       <c r="E149" s="354"/>
@@ -15293,15 +15314,15 @@
     </row>
     <row r="150" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A150" s="311"/>
-      <c r="B150" s="445"/>
-      <c r="C150" s="455"/>
-      <c r="D150" s="444"/>
-      <c r="E150" s="445"/>
-      <c r="F150" s="445"/>
-      <c r="G150" s="447"/>
-      <c r="H150" s="445"/>
-      <c r="I150" s="445"/>
-      <c r="J150" s="445"/>
+      <c r="B150" s="439"/>
+      <c r="C150" s="440"/>
+      <c r="D150" s="441"/>
+      <c r="E150" s="439"/>
+      <c r="F150" s="439"/>
+      <c r="G150" s="442"/>
+      <c r="H150" s="439"/>
+      <c r="I150" s="439"/>
+      <c r="J150" s="439"/>
       <c r="K150" s="312"/>
       <c r="L150" s="35"/>
       <c r="M150" s="35"/>
@@ -15337,7 +15358,7 @@
     </row>
     <row r="151" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A151" s="311"/>
-      <c r="B151" s="454"/>
+      <c r="B151" s="449"/>
       <c r="C151" s="283"/>
       <c r="D151" s="355"/>
       <c r="E151" s="354"/>
@@ -15381,7 +15402,7 @@
     </row>
     <row r="152" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A152" s="35"/>
-      <c r="B152" s="454"/>
+      <c r="B152" s="449"/>
       <c r="C152" s="283"/>
       <c r="D152" s="355"/>
       <c r="E152" s="354"/>
@@ -15425,7 +15446,7 @@
     </row>
     <row r="153" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A153" s="35"/>
-      <c r="B153" s="454"/>
+      <c r="B153" s="449"/>
       <c r="C153" s="283"/>
       <c r="D153" s="355"/>
       <c r="E153" s="354"/>
@@ -15469,7 +15490,7 @@
     </row>
     <row r="154" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A154" s="35"/>
-      <c r="B154" s="454"/>
+      <c r="B154" s="449"/>
       <c r="C154" s="283"/>
       <c r="D154" s="355"/>
       <c r="E154" s="354"/>
@@ -15513,7 +15534,7 @@
     </row>
     <row r="155" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A155" s="35"/>
-      <c r="B155" s="454"/>
+      <c r="B155" s="449"/>
       <c r="C155" s="283"/>
       <c r="D155" s="355"/>
       <c r="E155" s="354"/>
@@ -15557,7 +15578,7 @@
     </row>
     <row r="156" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A156" s="35"/>
-      <c r="B156" s="454"/>
+      <c r="B156" s="449"/>
       <c r="C156" s="283"/>
       <c r="D156" s="355"/>
       <c r="E156" s="354"/>
@@ -15601,15 +15622,15 @@
     </row>
     <row r="157" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A157" s="39"/>
-      <c r="B157" s="445"/>
-      <c r="C157" s="455"/>
-      <c r="D157" s="444"/>
-      <c r="E157" s="445"/>
-      <c r="F157" s="445"/>
-      <c r="G157" s="447"/>
-      <c r="H157" s="445"/>
-      <c r="I157" s="445"/>
-      <c r="J157" s="445"/>
+      <c r="B157" s="439"/>
+      <c r="C157" s="440"/>
+      <c r="D157" s="441"/>
+      <c r="E157" s="439"/>
+      <c r="F157" s="439"/>
+      <c r="G157" s="442"/>
+      <c r="H157" s="439"/>
+      <c r="I157" s="439"/>
+      <c r="J157" s="439"/>
       <c r="K157" s="312"/>
       <c r="L157" s="35"/>
       <c r="M157" s="35"/>
@@ -15645,7 +15666,7 @@
     </row>
     <row r="158" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A158" s="39"/>
-      <c r="B158" s="454"/>
+      <c r="B158" s="449"/>
       <c r="C158" s="283"/>
       <c r="D158" s="350"/>
       <c r="E158" s="354"/>
@@ -15689,7 +15710,7 @@
     </row>
     <row r="159" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A159" s="39"/>
-      <c r="B159" s="454"/>
+      <c r="B159" s="449"/>
       <c r="C159" s="283"/>
       <c r="D159" s="350"/>
       <c r="E159" s="354"/>
@@ -15733,7 +15754,7 @@
     </row>
     <row r="160" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A160" s="39"/>
-      <c r="B160" s="454"/>
+      <c r="B160" s="449"/>
       <c r="C160" s="283"/>
       <c r="D160" s="350"/>
       <c r="E160" s="354"/>
@@ -15777,7 +15798,7 @@
     </row>
     <row r="161" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A161" s="39"/>
-      <c r="B161" s="454"/>
+      <c r="B161" s="449"/>
       <c r="C161" s="283"/>
       <c r="D161" s="350"/>
       <c r="E161" s="354"/>
@@ -15821,7 +15842,7 @@
     </row>
     <row r="162" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A162" s="39"/>
-      <c r="B162" s="454"/>
+      <c r="B162" s="449"/>
       <c r="C162" s="283"/>
       <c r="D162" s="350"/>
       <c r="E162" s="354"/>
@@ -15865,7 +15886,7 @@
     </row>
     <row r="163" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A163" s="39"/>
-      <c r="B163" s="454"/>
+      <c r="B163" s="449"/>
       <c r="C163" s="283"/>
       <c r="D163" s="350"/>
       <c r="E163" s="354"/>
@@ -15909,15 +15930,15 @@
     </row>
     <row r="164" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A164" s="39"/>
-      <c r="B164" s="447"/>
-      <c r="C164" s="463"/>
-      <c r="D164" s="464"/>
-      <c r="E164" s="447"/>
-      <c r="F164" s="447"/>
-      <c r="G164" s="447"/>
-      <c r="H164" s="447"/>
-      <c r="I164" s="447"/>
-      <c r="J164" s="447"/>
+      <c r="B164" s="442"/>
+      <c r="C164" s="443"/>
+      <c r="D164" s="444"/>
+      <c r="E164" s="442"/>
+      <c r="F164" s="442"/>
+      <c r="G164" s="442"/>
+      <c r="H164" s="442"/>
+      <c r="I164" s="442"/>
+      <c r="J164" s="442"/>
       <c r="K164" s="312"/>
       <c r="L164" s="35"/>
       <c r="M164" s="35"/>
@@ -15953,7 +15974,7 @@
     </row>
     <row r="165" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A165" s="39"/>
-      <c r="B165" s="465"/>
+      <c r="B165" s="445"/>
       <c r="C165" s="283"/>
       <c r="D165" s="350"/>
       <c r="E165" s="230"/>
@@ -15997,7 +16018,7 @@
     </row>
     <row r="166" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A166" s="39"/>
-      <c r="B166" s="465"/>
+      <c r="B166" s="445"/>
       <c r="C166" s="283"/>
       <c r="D166" s="350"/>
       <c r="E166" s="357"/>
@@ -16041,7 +16062,7 @@
     </row>
     <row r="167" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A167" s="39"/>
-      <c r="B167" s="465"/>
+      <c r="B167" s="445"/>
       <c r="C167" s="283"/>
       <c r="D167" s="350"/>
       <c r="E167" s="354"/>
@@ -16085,7 +16106,7 @@
     </row>
     <row r="168" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A168" s="39"/>
-      <c r="B168" s="465"/>
+      <c r="B168" s="445"/>
       <c r="C168" s="283"/>
       <c r="D168" s="350"/>
       <c r="E168" s="354"/>
@@ -16129,7 +16150,7 @@
     </row>
     <row r="169" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A169" s="39"/>
-      <c r="B169" s="465"/>
+      <c r="B169" s="445"/>
       <c r="C169" s="283"/>
       <c r="D169" s="350"/>
       <c r="E169" s="357"/>
@@ -16173,7 +16194,7 @@
     </row>
     <row r="170" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A170" s="39"/>
-      <c r="B170" s="465"/>
+      <c r="B170" s="445"/>
       <c r="C170" s="283"/>
       <c r="D170" s="350"/>
       <c r="E170" s="354"/>
@@ -16217,15 +16238,15 @@
     </row>
     <row r="171" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A171" s="39"/>
-      <c r="B171" s="447"/>
-      <c r="C171" s="463"/>
-      <c r="D171" s="464"/>
-      <c r="E171" s="447"/>
-      <c r="F171" s="447"/>
-      <c r="G171" s="447"/>
-      <c r="H171" s="447"/>
-      <c r="I171" s="447"/>
-      <c r="J171" s="447"/>
+      <c r="B171" s="442"/>
+      <c r="C171" s="443"/>
+      <c r="D171" s="444"/>
+      <c r="E171" s="442"/>
+      <c r="F171" s="442"/>
+      <c r="G171" s="442"/>
+      <c r="H171" s="442"/>
+      <c r="I171" s="442"/>
+      <c r="J171" s="442"/>
       <c r="K171" s="312"/>
       <c r="L171" s="35"/>
       <c r="M171" s="35"/>
@@ -16261,7 +16282,7 @@
     </row>
     <row r="172" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A172" s="39"/>
-      <c r="B172" s="466"/>
+      <c r="B172" s="446"/>
       <c r="C172" s="283"/>
       <c r="D172" s="350"/>
       <c r="E172" s="354"/>
@@ -16305,7 +16326,7 @@
     </row>
     <row r="173" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A173" s="39"/>
-      <c r="B173" s="467"/>
+      <c r="B173" s="447"/>
       <c r="C173" s="283"/>
       <c r="D173" s="350"/>
       <c r="E173" s="354"/>
@@ -16349,7 +16370,7 @@
     </row>
     <row r="174" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A174" s="39"/>
-      <c r="B174" s="467"/>
+      <c r="B174" s="447"/>
       <c r="C174" s="283"/>
       <c r="D174" s="350"/>
       <c r="E174" s="354"/>
@@ -16393,7 +16414,7 @@
     </row>
     <row r="175" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A175" s="39"/>
-      <c r="B175" s="467"/>
+      <c r="B175" s="447"/>
       <c r="C175" s="283"/>
       <c r="D175" s="350"/>
       <c r="E175" s="354"/>
@@ -16437,7 +16458,7 @@
     </row>
     <row r="176" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A176" s="39"/>
-      <c r="B176" s="467"/>
+      <c r="B176" s="447"/>
       <c r="C176" s="283"/>
       <c r="D176" s="350"/>
       <c r="E176" s="354"/>
@@ -16481,7 +16502,7 @@
     </row>
     <row r="177" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A177" s="39"/>
-      <c r="B177" s="468"/>
+      <c r="B177" s="448"/>
       <c r="C177" s="283"/>
       <c r="D177" s="350"/>
       <c r="E177" s="354"/>
@@ -16525,15 +16546,15 @@
     </row>
     <row r="178" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A178" s="39"/>
-      <c r="B178" s="445"/>
-      <c r="C178" s="455"/>
-      <c r="D178" s="444"/>
-      <c r="E178" s="445"/>
-      <c r="F178" s="445"/>
-      <c r="G178" s="447"/>
-      <c r="H178" s="445"/>
-      <c r="I178" s="445"/>
-      <c r="J178" s="445"/>
+      <c r="B178" s="439"/>
+      <c r="C178" s="440"/>
+      <c r="D178" s="441"/>
+      <c r="E178" s="439"/>
+      <c r="F178" s="439"/>
+      <c r="G178" s="442"/>
+      <c r="H178" s="439"/>
+      <c r="I178" s="439"/>
+      <c r="J178" s="439"/>
       <c r="K178" s="312"/>
       <c r="L178" s="35"/>
       <c r="M178" s="35"/>
@@ -16569,7 +16590,7 @@
     </row>
     <row r="179" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A179" s="39"/>
-      <c r="B179" s="460"/>
+      <c r="B179" s="436"/>
       <c r="C179" s="283"/>
       <c r="D179" s="350"/>
       <c r="E179" s="354"/>
@@ -16613,7 +16634,7 @@
     </row>
     <row r="180" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A180" s="39"/>
-      <c r="B180" s="461"/>
+      <c r="B180" s="437"/>
       <c r="C180" s="283"/>
       <c r="D180" s="350"/>
       <c r="E180" s="354"/>
@@ -16657,7 +16678,7 @@
     </row>
     <row r="181" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A181" s="39"/>
-      <c r="B181" s="461"/>
+      <c r="B181" s="437"/>
       <c r="C181" s="283"/>
       <c r="D181" s="350"/>
       <c r="E181" s="354"/>
@@ -16701,7 +16722,7 @@
     </row>
     <row r="182" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A182" s="39"/>
-      <c r="B182" s="461"/>
+      <c r="B182" s="437"/>
       <c r="C182" s="283"/>
       <c r="D182" s="355"/>
       <c r="E182" s="354"/>
@@ -16745,7 +16766,7 @@
     </row>
     <row r="183" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A183" s="39"/>
-      <c r="B183" s="461"/>
+      <c r="B183" s="437"/>
       <c r="C183" s="283"/>
       <c r="D183" s="355"/>
       <c r="E183" s="354"/>
@@ -16789,7 +16810,7 @@
     </row>
     <row r="184" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A184" s="39"/>
-      <c r="B184" s="462"/>
+      <c r="B184" s="438"/>
       <c r="C184" s="283"/>
       <c r="D184" s="355"/>
       <c r="E184" s="354"/>
@@ -16833,15 +16854,15 @@
     </row>
     <row r="185" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A185" s="39"/>
-      <c r="B185" s="445"/>
-      <c r="C185" s="455"/>
-      <c r="D185" s="444"/>
-      <c r="E185" s="445"/>
-      <c r="F185" s="445"/>
-      <c r="G185" s="447"/>
-      <c r="H185" s="445"/>
-      <c r="I185" s="445"/>
-      <c r="J185" s="445"/>
+      <c r="B185" s="439"/>
+      <c r="C185" s="440"/>
+      <c r="D185" s="441"/>
+      <c r="E185" s="439"/>
+      <c r="F185" s="439"/>
+      <c r="G185" s="442"/>
+      <c r="H185" s="439"/>
+      <c r="I185" s="439"/>
+      <c r="J185" s="439"/>
       <c r="K185" s="312"/>
       <c r="L185" s="35"/>
       <c r="M185" s="35"/>
@@ -16877,7 +16898,7 @@
     </row>
     <row r="186" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A186" s="39"/>
-      <c r="B186" s="460"/>
+      <c r="B186" s="436"/>
       <c r="C186" s="229"/>
       <c r="D186" s="355"/>
       <c r="E186" s="354"/>
@@ -16921,7 +16942,7 @@
     </row>
     <row r="187" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A187" s="39"/>
-      <c r="B187" s="461"/>
+      <c r="B187" s="437"/>
       <c r="C187" s="229"/>
       <c r="D187" s="355"/>
       <c r="E187" s="354"/>
@@ -16965,7 +16986,7 @@
     </row>
     <row r="188" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A188" s="39"/>
-      <c r="B188" s="461"/>
+      <c r="B188" s="437"/>
       <c r="C188" s="229"/>
       <c r="D188" s="355"/>
       <c r="E188" s="354"/>
@@ -17009,7 +17030,7 @@
     </row>
     <row r="189" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A189" s="39"/>
-      <c r="B189" s="461"/>
+      <c r="B189" s="437"/>
       <c r="C189" s="229"/>
       <c r="D189" s="355"/>
       <c r="E189" s="354"/>
@@ -17053,7 +17074,7 @@
     </row>
     <row r="190" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A190" s="39"/>
-      <c r="B190" s="461"/>
+      <c r="B190" s="437"/>
       <c r="C190" s="229"/>
       <c r="D190" s="355"/>
       <c r="E190" s="354"/>
@@ -17097,7 +17118,7 @@
     </row>
     <row r="191" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A191" s="39"/>
-      <c r="B191" s="462"/>
+      <c r="B191" s="438"/>
       <c r="C191" s="229"/>
       <c r="D191" s="355"/>
       <c r="E191" s="354"/>
@@ -17141,15 +17162,15 @@
     </row>
     <row r="192" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A192" s="39"/>
-      <c r="B192" s="445"/>
-      <c r="C192" s="455"/>
-      <c r="D192" s="444"/>
-      <c r="E192" s="445"/>
-      <c r="F192" s="445"/>
-      <c r="G192" s="447"/>
-      <c r="H192" s="445"/>
-      <c r="I192" s="445"/>
-      <c r="J192" s="445"/>
+      <c r="B192" s="439"/>
+      <c r="C192" s="440"/>
+      <c r="D192" s="441"/>
+      <c r="E192" s="439"/>
+      <c r="F192" s="439"/>
+      <c r="G192" s="442"/>
+      <c r="H192" s="439"/>
+      <c r="I192" s="439"/>
+      <c r="J192" s="439"/>
       <c r="K192" s="312"/>
       <c r="L192" s="35"/>
       <c r="M192" s="35"/>
@@ -18241,6 +18262,51 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B38:J38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="B53:B58"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:B65"/>
+    <mergeCell ref="B66:J66"/>
+    <mergeCell ref="B67:B72"/>
+    <mergeCell ref="B73:J73"/>
+    <mergeCell ref="B74:B79"/>
+    <mergeCell ref="B80:J80"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="B87:J87"/>
+    <mergeCell ref="B88:B93"/>
+    <mergeCell ref="B94:J94"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B101:J101"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="B108:J108"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="B119:J119"/>
+    <mergeCell ref="B120:B127"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="B129:B134"/>
+    <mergeCell ref="B135:J135"/>
+    <mergeCell ref="B136:B142"/>
+    <mergeCell ref="B143:J143"/>
+    <mergeCell ref="B144:B149"/>
+    <mergeCell ref="B150:J150"/>
+    <mergeCell ref="B151:B156"/>
+    <mergeCell ref="B157:J157"/>
+    <mergeCell ref="B158:B163"/>
     <mergeCell ref="B179:B184"/>
     <mergeCell ref="B185:J185"/>
     <mergeCell ref="B186:B191"/>
@@ -18250,51 +18316,6 @@
     <mergeCell ref="B171:J171"/>
     <mergeCell ref="B172:B177"/>
     <mergeCell ref="B178:J178"/>
-    <mergeCell ref="B144:B149"/>
-    <mergeCell ref="B150:J150"/>
-    <mergeCell ref="B151:B156"/>
-    <mergeCell ref="B157:J157"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="B128:J128"/>
-    <mergeCell ref="B129:B134"/>
-    <mergeCell ref="B135:J135"/>
-    <mergeCell ref="B136:B142"/>
-    <mergeCell ref="B143:J143"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="B108:J108"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="B119:J119"/>
-    <mergeCell ref="B120:B127"/>
-    <mergeCell ref="B87:J87"/>
-    <mergeCell ref="B88:B93"/>
-    <mergeCell ref="B94:J94"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="B101:J101"/>
-    <mergeCell ref="B67:B72"/>
-    <mergeCell ref="B73:J73"/>
-    <mergeCell ref="B74:B79"/>
-    <mergeCell ref="B80:J80"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="B52:J52"/>
-    <mergeCell ref="B53:B58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:B65"/>
-    <mergeCell ref="B66:J66"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:J45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B11:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18355,14 +18376,14 @@
       <c r="D2" s="360" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="482" t="s">
+      <c r="E2" s="473" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="483"/>
-      <c r="G2" s="469" t="s">
+      <c r="F2" s="474"/>
+      <c r="G2" s="476" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="470"/>
+      <c r="H2" s="477"/>
       <c r="I2" s="360" t="s">
         <v>44</v>
       </c>
@@ -18389,12 +18410,12 @@
       <c r="D3" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="471" t="s">
+      <c r="E3" s="478" t="s">
         <v>257</v>
       </c>
-      <c r="F3" s="471"/>
-      <c r="G3" s="472"/>
-      <c r="H3" s="472"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="471"/>
       <c r="I3" s="200"/>
       <c r="J3" s="270"/>
       <c r="K3" s="21"/>
@@ -18414,12 +18435,12 @@
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="31"/>
-      <c r="E4" s="480" t="s">
+      <c r="E4" s="475" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="480"/>
-      <c r="G4" s="472"/>
-      <c r="H4" s="472"/>
+      <c r="F4" s="475"/>
+      <c r="G4" s="471"/>
+      <c r="H4" s="471"/>
       <c r="I4" s="28"/>
       <c r="J4" s="212"/>
       <c r="K4" s="28"/>
@@ -18437,10 +18458,10 @@
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="480"/>
-      <c r="F5" s="480"/>
-      <c r="G5" s="472"/>
-      <c r="H5" s="472"/>
+      <c r="E5" s="475"/>
+      <c r="F5" s="475"/>
+      <c r="G5" s="471"/>
+      <c r="H5" s="471"/>
       <c r="I5" s="28"/>
       <c r="J5" s="212"/>
       <c r="K5" s="28"/>
@@ -18458,10 +18479,10 @@
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="480"/>
-      <c r="F6" s="480"/>
-      <c r="G6" s="472"/>
-      <c r="H6" s="472"/>
+      <c r="E6" s="475"/>
+      <c r="F6" s="475"/>
+      <c r="G6" s="471"/>
+      <c r="H6" s="471"/>
       <c r="I6" s="28"/>
       <c r="J6" s="212"/>
       <c r="K6" s="28"/>
@@ -18479,10 +18500,10 @@
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="480"/>
-      <c r="F7" s="480"/>
-      <c r="G7" s="472"/>
-      <c r="H7" s="472"/>
+      <c r="E7" s="475"/>
+      <c r="F7" s="475"/>
+      <c r="G7" s="471"/>
+      <c r="H7" s="471"/>
       <c r="I7" s="28"/>
       <c r="J7" s="212"/>
       <c r="K7" s="28"/>
@@ -18500,10 +18521,10 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="480"/>
-      <c r="F8" s="480"/>
-      <c r="G8" s="472"/>
-      <c r="H8" s="472"/>
+      <c r="E8" s="475"/>
+      <c r="F8" s="475"/>
+      <c r="G8" s="471"/>
+      <c r="H8" s="471"/>
       <c r="I8" s="28"/>
       <c r="J8" s="212"/>
       <c r="K8" s="28"/>
@@ -18521,10 +18542,10 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="480"/>
-      <c r="F9" s="480"/>
-      <c r="G9" s="472"/>
-      <c r="H9" s="472"/>
+      <c r="E9" s="475"/>
+      <c r="F9" s="475"/>
+      <c r="G9" s="471"/>
+      <c r="H9" s="471"/>
       <c r="I9" s="28"/>
       <c r="J9" s="212"/>
       <c r="K9" s="28"/>
@@ -18542,10 +18563,10 @@
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="480"/>
-      <c r="F10" s="480"/>
-      <c r="G10" s="472"/>
-      <c r="H10" s="472"/>
+      <c r="E10" s="475"/>
+      <c r="F10" s="475"/>
+      <c r="G10" s="471"/>
+      <c r="H10" s="471"/>
       <c r="I10" s="27"/>
       <c r="J10" s="212"/>
       <c r="K10" s="28"/>
@@ -18562,8 +18583,8 @@
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="92"/>
       <c r="D11" s="92"/>
-      <c r="E11" s="481"/>
-      <c r="F11" s="481"/>
+      <c r="E11" s="485"/>
+      <c r="F11" s="485"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="29"/>
@@ -18581,11 +18602,11 @@
     </row>
     <row r="12" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
-      <c r="C12" s="474" t="s">
+      <c r="C12" s="480" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="475"/>
-      <c r="E12" s="476"/>
+      <c r="D12" s="481"/>
+      <c r="E12" s="482"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="210" t="s">
@@ -18639,10 +18660,10 @@
       <c r="C14" s="361" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="477" t="s">
+      <c r="D14" s="483" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="478"/>
+      <c r="E14" s="484"/>
       <c r="F14" s="199" t="s">
         <v>50</v>
       </c>
@@ -18674,10 +18695,10 @@
         <v>236</v>
       </c>
       <c r="C15" s="359"/>
-      <c r="D15" s="485" t="s">
+      <c r="D15" s="472" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="485"/>
+      <c r="E15" s="472"/>
       <c r="F15" s="381" t="s">
         <v>238</v>
       </c>
@@ -18703,10 +18724,10 @@
         <v>239</v>
       </c>
       <c r="C16" s="359"/>
-      <c r="D16" s="479" t="s">
+      <c r="D16" s="469" t="s">
         <v>240</v>
       </c>
-      <c r="E16" s="479"/>
+      <c r="E16" s="469"/>
       <c r="F16" s="381" t="s">
         <v>238</v>
       </c>
@@ -18732,10 +18753,10 @@
         <v>241</v>
       </c>
       <c r="C17" s="359"/>
-      <c r="D17" s="473" t="s">
+      <c r="D17" s="479" t="s">
         <v>242</v>
       </c>
-      <c r="E17" s="473"/>
+      <c r="E17" s="479"/>
       <c r="F17" s="381" t="s">
         <v>238</v>
       </c>
@@ -18761,10 +18782,10 @@
         <v>247</v>
       </c>
       <c r="C18" s="359"/>
-      <c r="D18" s="479" t="s">
+      <c r="D18" s="469" t="s">
         <v>245</v>
       </c>
-      <c r="E18" s="479"/>
+      <c r="E18" s="469"/>
       <c r="F18" s="381" t="s">
         <v>238</v>
       </c>
@@ -18790,10 +18811,10 @@
         <v>244</v>
       </c>
       <c r="C19" s="359"/>
-      <c r="D19" s="479" t="s">
+      <c r="D19" s="469" t="s">
         <v>248</v>
       </c>
-      <c r="E19" s="479"/>
+      <c r="E19" s="469"/>
       <c r="F19" s="381" t="s">
         <v>238</v>
       </c>
@@ -18819,10 +18840,10 @@
         <v>249</v>
       </c>
       <c r="C20" s="359"/>
-      <c r="D20" s="479" t="s">
+      <c r="D20" s="469" t="s">
         <v>250</v>
       </c>
-      <c r="E20" s="479"/>
+      <c r="E20" s="469"/>
       <c r="F20" s="381"/>
       <c r="G20" s="359"/>
       <c r="H20" s="359" t="s">
@@ -18842,10 +18863,10 @@
         <v>252</v>
       </c>
       <c r="C21" s="359"/>
-      <c r="D21" s="479" t="s">
+      <c r="D21" s="469" t="s">
         <v>253</v>
       </c>
-      <c r="E21" s="479"/>
+      <c r="E21" s="469"/>
       <c r="F21" s="381" t="s">
         <v>238</v>
       </c>
@@ -18892,10 +18913,10 @@
         <v>258</v>
       </c>
       <c r="C23" s="359"/>
-      <c r="D23" s="479" t="s">
+      <c r="D23" s="469" t="s">
         <v>267</v>
       </c>
-      <c r="E23" s="479"/>
+      <c r="E23" s="469"/>
       <c r="F23" s="381" t="s">
         <v>238</v>
       </c>
@@ -18951,8 +18972,8 @@
     <row r="26" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
       <c r="C26" s="359"/>
-      <c r="D26" s="479"/>
-      <c r="E26" s="479"/>
+      <c r="D26" s="469"/>
+      <c r="E26" s="469"/>
       <c r="F26" s="381"/>
       <c r="G26" s="359"/>
       <c r="H26" s="359"/>
@@ -18968,8 +18989,8 @@
     <row r="27" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
       <c r="C27" s="359"/>
-      <c r="D27" s="479"/>
-      <c r="E27" s="479"/>
+      <c r="D27" s="469"/>
+      <c r="E27" s="469"/>
       <c r="F27" s="381"/>
       <c r="G27" s="359"/>
       <c r="H27" s="359"/>
@@ -18989,8 +19010,8 @@
     <row r="28" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
       <c r="C28" s="359"/>
-      <c r="D28" s="479"/>
-      <c r="E28" s="479"/>
+      <c r="D28" s="469"/>
+      <c r="E28" s="469"/>
       <c r="F28" s="381"/>
       <c r="G28" s="359"/>
       <c r="H28" s="359"/>
@@ -19010,8 +19031,8 @@
     <row r="29" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
       <c r="C29" s="359"/>
-      <c r="D29" s="479"/>
-      <c r="E29" s="479"/>
+      <c r="D29" s="469"/>
+      <c r="E29" s="469"/>
       <c r="F29" s="381"/>
       <c r="G29" s="359"/>
       <c r="H29" s="359"/>
@@ -19031,8 +19052,8 @@
     <row r="30" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
       <c r="C30" s="359"/>
-      <c r="D30" s="479"/>
-      <c r="E30" s="479"/>
+      <c r="D30" s="469"/>
+      <c r="E30" s="469"/>
       <c r="F30" s="381"/>
       <c r="G30" s="359"/>
       <c r="H30" s="359"/>
@@ -19073,8 +19094,8 @@
     <row r="32" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="33"/>
       <c r="C32" s="359"/>
-      <c r="D32" s="479"/>
-      <c r="E32" s="479"/>
+      <c r="D32" s="469"/>
+      <c r="E32" s="469"/>
       <c r="F32" s="381"/>
       <c r="G32" s="359"/>
       <c r="H32" s="359"/>
@@ -19094,8 +19115,8 @@
     <row r="33" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="359"/>
-      <c r="D33" s="479"/>
-      <c r="E33" s="479"/>
+      <c r="D33" s="469"/>
+      <c r="E33" s="469"/>
       <c r="F33" s="381"/>
       <c r="G33" s="359"/>
       <c r="H33" s="359"/>
@@ -19115,8 +19136,8 @@
     <row r="34" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="359"/>
-      <c r="D34" s="479"/>
-      <c r="E34" s="479"/>
+      <c r="D34" s="469"/>
+      <c r="E34" s="469"/>
       <c r="F34" s="381"/>
       <c r="G34" s="359"/>
       <c r="H34" s="359"/>
@@ -19136,8 +19157,8 @@
     <row r="35" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="33"/>
       <c r="C35" s="359"/>
-      <c r="D35" s="479"/>
-      <c r="E35" s="479"/>
+      <c r="D35" s="469"/>
+      <c r="E35" s="469"/>
       <c r="F35" s="381"/>
       <c r="G35" s="359"/>
       <c r="H35" s="359"/>
@@ -19157,8 +19178,8 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="33"/>
       <c r="C36" s="359"/>
-      <c r="D36" s="479"/>
-      <c r="E36" s="479"/>
+      <c r="D36" s="469"/>
+      <c r="E36" s="469"/>
       <c r="F36" s="381"/>
       <c r="G36" s="359"/>
       <c r="H36" s="359"/>
@@ -19178,8 +19199,8 @@
     <row r="37" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
       <c r="C37" s="359"/>
-      <c r="D37" s="479"/>
-      <c r="E37" s="479"/>
+      <c r="D37" s="469"/>
+      <c r="E37" s="469"/>
       <c r="F37" s="381"/>
       <c r="G37" s="359"/>
       <c r="H37" s="359"/>
@@ -19199,8 +19220,8 @@
     <row r="38" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="359"/>
-      <c r="D38" s="479"/>
-      <c r="E38" s="479"/>
+      <c r="D38" s="469"/>
+      <c r="E38" s="469"/>
       <c r="F38" s="359"/>
       <c r="G38" s="359"/>
       <c r="H38" s="359"/>
@@ -19220,8 +19241,8 @@
     <row r="39" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="33"/>
       <c r="C39" s="359"/>
-      <c r="D39" s="479"/>
-      <c r="E39" s="479"/>
+      <c r="D39" s="469"/>
+      <c r="E39" s="469"/>
       <c r="F39" s="359"/>
       <c r="G39" s="359"/>
       <c r="H39" s="359"/>
@@ -19241,8 +19262,8 @@
     <row r="40" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="34"/>
       <c r="C40" s="359"/>
-      <c r="D40" s="479"/>
-      <c r="E40" s="479"/>
+      <c r="D40" s="469"/>
+      <c r="E40" s="469"/>
       <c r="F40" s="359"/>
       <c r="G40" s="359"/>
       <c r="H40" s="359"/>
@@ -19262,8 +19283,8 @@
     <row r="41" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="34"/>
       <c r="C41" s="359"/>
-      <c r="D41" s="484"/>
-      <c r="E41" s="484"/>
+      <c r="D41" s="470"/>
+      <c r="E41" s="470"/>
       <c r="F41" s="359"/>
       <c r="G41" s="359"/>
       <c r="H41" s="359"/>
@@ -19283,8 +19304,8 @@
     <row r="42" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="34"/>
       <c r="C42" s="359"/>
-      <c r="D42" s="484"/>
-      <c r="E42" s="484"/>
+      <c r="D42" s="470"/>
+      <c r="E42" s="470"/>
       <c r="F42" s="359"/>
       <c r="G42" s="359"/>
       <c r="H42" s="359"/>
@@ -19304,8 +19325,8 @@
     <row r="43" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="34"/>
       <c r="C43" s="359"/>
-      <c r="D43" s="484"/>
-      <c r="E43" s="484"/>
+      <c r="D43" s="470"/>
+      <c r="E43" s="470"/>
       <c r="F43" s="359"/>
       <c r="G43" s="359"/>
       <c r="H43" s="359"/>
@@ -19326,8 +19347,8 @@
       <c r="B44" s="34"/>
       <c r="C44" s="359"/>
       <c r="D44" s="359"/>
-      <c r="E44" s="484"/>
-      <c r="F44" s="484"/>
+      <c r="E44" s="470"/>
+      <c r="F44" s="470"/>
       <c r="G44" s="359"/>
       <c r="H44" s="359"/>
       <c r="I44" s="359"/>
@@ -19346,8 +19367,8 @@
     <row r="45" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="34"/>
       <c r="C45" s="359"/>
-      <c r="D45" s="484"/>
-      <c r="E45" s="484"/>
+      <c r="D45" s="470"/>
+      <c r="E45" s="470"/>
       <c r="F45" s="359"/>
       <c r="G45" s="359"/>
       <c r="H45" s="359"/>
@@ -19367,8 +19388,8 @@
     <row r="46" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="34"/>
       <c r="C46" s="359"/>
-      <c r="D46" s="484"/>
-      <c r="E46" s="484"/>
+      <c r="D46" s="470"/>
+      <c r="E46" s="470"/>
       <c r="F46" s="359"/>
       <c r="G46" s="359"/>
       <c r="H46" s="359"/>
@@ -19388,8 +19409,8 @@
     <row r="47" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="34"/>
       <c r="C47" s="359"/>
-      <c r="D47" s="484"/>
-      <c r="E47" s="484"/>
+      <c r="D47" s="470"/>
+      <c r="E47" s="470"/>
       <c r="F47" s="359"/>
       <c r="G47" s="359"/>
       <c r="H47" s="359"/>
@@ -19409,8 +19430,8 @@
     <row r="48" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="359"/>
       <c r="C48" s="359"/>
-      <c r="D48" s="484"/>
-      <c r="E48" s="484"/>
+      <c r="D48" s="470"/>
+      <c r="E48" s="470"/>
       <c r="F48" s="359"/>
       <c r="G48" s="359"/>
       <c r="H48" s="359"/>
@@ -19430,8 +19451,8 @@
     <row r="49" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="359"/>
       <c r="C49" s="359"/>
-      <c r="D49" s="484"/>
-      <c r="E49" s="484"/>
+      <c r="D49" s="470"/>
+      <c r="E49" s="470"/>
       <c r="F49" s="359"/>
       <c r="G49" s="359"/>
       <c r="H49" s="359"/>
@@ -19451,8 +19472,8 @@
     <row r="50" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="359"/>
       <c r="C50" s="359"/>
-      <c r="D50" s="484"/>
-      <c r="E50" s="484"/>
+      <c r="D50" s="470"/>
+      <c r="E50" s="470"/>
       <c r="F50" s="359"/>
       <c r="G50" s="359"/>
       <c r="H50" s="359"/>
@@ -19472,8 +19493,8 @@
     <row r="51" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="359"/>
       <c r="C51" s="359"/>
-      <c r="D51" s="484"/>
-      <c r="E51" s="484"/>
+      <c r="D51" s="470"/>
+      <c r="E51" s="470"/>
       <c r="F51" s="359"/>
       <c r="G51" s="359"/>
       <c r="H51" s="359"/>
@@ -19493,8 +19514,8 @@
     <row r="52" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="359"/>
       <c r="C52" s="359"/>
-      <c r="D52" s="484"/>
-      <c r="E52" s="484"/>
+      <c r="D52" s="470"/>
+      <c r="E52" s="470"/>
       <c r="F52" s="359"/>
       <c r="G52" s="359"/>
       <c r="H52" s="359"/>
@@ -19641,6 +19662,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D37:E37"/>
@@ -19657,45 +19717,6 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19724,14 +19745,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="511" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="487"/>
-      <c r="C1" s="487"/>
-      <c r="D1" s="487"/>
-      <c r="E1" s="487"/>
-      <c r="F1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="513"/>
       <c r="G1" s="68"/>
       <c r="H1" s="35"/>
     </row>
@@ -19745,11 +19766,11 @@
       <c r="C2" s="352" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="489" t="s">
+      <c r="D2" s="514" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="489"/>
-      <c r="F2" s="490"/>
+      <c r="E2" s="514"/>
+      <c r="F2" s="515"/>
       <c r="G2" s="82"/>
       <c r="H2" s="35"/>
     </row>
@@ -19759,9 +19780,9 @@
       </c>
       <c r="B3" s="112"/>
       <c r="C3" s="209"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="492"/>
-      <c r="F3" s="493"/>
+      <c r="D3" s="516"/>
+      <c r="E3" s="517"/>
+      <c r="F3" s="518"/>
       <c r="G3" s="68"/>
       <c r="H3" s="35"/>
     </row>
@@ -19771,9 +19792,9 @@
       </c>
       <c r="B4" s="112"/>
       <c r="C4" s="209"/>
-      <c r="D4" s="494"/>
-      <c r="E4" s="495"/>
-      <c r="F4" s="496"/>
+      <c r="D4" s="495"/>
+      <c r="E4" s="496"/>
+      <c r="F4" s="497"/>
       <c r="G4" s="68"/>
       <c r="H4" s="35"/>
     </row>
@@ -19783,9 +19804,9 @@
       </c>
       <c r="B5" s="112"/>
       <c r="C5" s="209"/>
-      <c r="D5" s="494"/>
-      <c r="E5" s="495"/>
-      <c r="F5" s="496"/>
+      <c r="D5" s="495"/>
+      <c r="E5" s="496"/>
+      <c r="F5" s="497"/>
       <c r="G5" s="68"/>
       <c r="H5" s="35"/>
     </row>
@@ -19795,9 +19816,9 @@
       </c>
       <c r="B6" s="220"/>
       <c r="C6" s="209"/>
-      <c r="D6" s="494"/>
-      <c r="E6" s="495"/>
-      <c r="F6" s="496"/>
+      <c r="D6" s="495"/>
+      <c r="E6" s="496"/>
+      <c r="F6" s="497"/>
       <c r="G6" s="68"/>
       <c r="H6" s="35"/>
     </row>
@@ -19805,9 +19826,9 @@
       <c r="A7" s="78"/>
       <c r="B7" s="218"/>
       <c r="C7" s="209"/>
-      <c r="D7" s="497"/>
-      <c r="E7" s="497"/>
-      <c r="F7" s="497"/>
+      <c r="D7" s="498"/>
+      <c r="E7" s="498"/>
+      <c r="F7" s="498"/>
       <c r="G7" s="203"/>
       <c r="H7" s="35"/>
     </row>
@@ -19822,73 +19843,73 @@
       <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="498"/>
-      <c r="B9" s="500"/>
-      <c r="C9" s="502" t="str">
+      <c r="A9" s="499"/>
+      <c r="B9" s="501"/>
+      <c r="C9" s="503" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="504" t="s">
+      <c r="D9" s="505" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="506"/>
-      <c r="F9" s="508"/>
+      <c r="E9" s="507"/>
+      <c r="F9" s="509"/>
       <c r="G9" s="68"/>
       <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="499"/>
-      <c r="B10" s="501"/>
-      <c r="C10" s="503"/>
-      <c r="D10" s="505"/>
-      <c r="E10" s="507"/>
-      <c r="F10" s="509"/>
+      <c r="A10" s="500"/>
+      <c r="B10" s="502"/>
+      <c r="C10" s="504"/>
+      <c r="D10" s="506"/>
+      <c r="E10" s="508"/>
+      <c r="F10" s="510"/>
       <c r="G10" s="68"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="510" t="s">
+      <c r="A11" s="486" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="511"/>
-      <c r="C11" s="512"/>
-      <c r="D11" s="511"/>
-      <c r="E11" s="438"/>
-      <c r="F11" s="513"/>
+      <c r="B11" s="487"/>
+      <c r="C11" s="488"/>
+      <c r="D11" s="487"/>
+      <c r="E11" s="466"/>
+      <c r="F11" s="489"/>
       <c r="G11" s="82"/>
       <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="514" t="s">
+      <c r="A12" s="490" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="417" t="s">
+      <c r="B12" s="400" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="515" t="s">
+      <c r="C12" s="491" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="516"/>
-      <c r="E12" s="517" t="s">
+      <c r="D12" s="492"/>
+      <c r="E12" s="493" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="518" t="s">
+      <c r="F12" s="494" t="s">
         <v>63</v>
       </c>
       <c r="G12" s="82"/>
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="514"/>
-      <c r="B13" s="417"/>
+      <c r="A13" s="490"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="215" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="517"/>
-      <c r="F13" s="518"/>
+      <c r="E13" s="493"/>
+      <c r="F13" s="494"/>
       <c r="G13" s="82"/>
       <c r="H13" s="35"/>
     </row>
@@ -20864,12 +20885,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
@@ -20878,11 +20898,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20894,7 +20915,7 @@
   <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -20942,14 +20963,14 @@
       <c r="D2" s="360" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="482" t="s">
+      <c r="E2" s="473" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="483"/>
-      <c r="G2" s="469" t="s">
+      <c r="F2" s="474"/>
+      <c r="G2" s="476" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="470"/>
+      <c r="H2" s="477"/>
       <c r="I2" s="360" t="s">
         <v>44</v>
       </c>
@@ -20975,12 +20996,12 @@
       <c r="D3" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="E3" s="471" t="s">
+      <c r="E3" s="478" t="s">
         <v>262</v>
       </c>
-      <c r="F3" s="471"/>
-      <c r="G3" s="472"/>
-      <c r="H3" s="472"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="471"/>
       <c r="I3" s="200"/>
       <c r="J3" s="270"/>
       <c r="K3" s="21"/>
@@ -20997,10 +21018,10 @@
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="31"/>
-      <c r="E4" s="480"/>
-      <c r="F4" s="480"/>
-      <c r="G4" s="472"/>
-      <c r="H4" s="472"/>
+      <c r="E4" s="475"/>
+      <c r="F4" s="475"/>
+      <c r="G4" s="471"/>
+      <c r="H4" s="471"/>
       <c r="I4" s="28"/>
       <c r="J4" s="212"/>
       <c r="K4" s="21"/>
@@ -21017,10 +21038,10 @@
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="480"/>
-      <c r="F5" s="480"/>
-      <c r="G5" s="472"/>
-      <c r="H5" s="472"/>
+      <c r="E5" s="475"/>
+      <c r="F5" s="475"/>
+      <c r="G5" s="471"/>
+      <c r="H5" s="471"/>
       <c r="I5" s="28"/>
       <c r="J5" s="212"/>
       <c r="K5" s="21"/>
@@ -21037,10 +21058,10 @@
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="480"/>
-      <c r="F6" s="480"/>
-      <c r="G6" s="472"/>
-      <c r="H6" s="472"/>
+      <c r="E6" s="475"/>
+      <c r="F6" s="475"/>
+      <c r="G6" s="471"/>
+      <c r="H6" s="471"/>
       <c r="I6" s="28"/>
       <c r="J6" s="212"/>
       <c r="K6" s="21"/>
@@ -21057,10 +21078,10 @@
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
       <c r="D7" s="31"/>
-      <c r="E7" s="480"/>
-      <c r="F7" s="480"/>
-      <c r="G7" s="472"/>
-      <c r="H7" s="472"/>
+      <c r="E7" s="475"/>
+      <c r="F7" s="475"/>
+      <c r="G7" s="471"/>
+      <c r="H7" s="471"/>
       <c r="I7" s="28"/>
       <c r="J7" s="212"/>
       <c r="K7" s="21"/>
@@ -21077,10 +21098,10 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="480"/>
-      <c r="F8" s="480"/>
-      <c r="G8" s="472"/>
-      <c r="H8" s="472"/>
+      <c r="E8" s="475"/>
+      <c r="F8" s="475"/>
+      <c r="G8" s="471"/>
+      <c r="H8" s="471"/>
       <c r="I8" s="28"/>
       <c r="J8" s="212"/>
       <c r="K8" s="21"/>
@@ -21097,10 +21118,10 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="480"/>
-      <c r="F9" s="480"/>
-      <c r="G9" s="472"/>
-      <c r="H9" s="472"/>
+      <c r="E9" s="475"/>
+      <c r="F9" s="475"/>
+      <c r="G9" s="471"/>
+      <c r="H9" s="471"/>
       <c r="I9" s="28"/>
       <c r="J9" s="212"/>
       <c r="K9" s="21"/>
@@ -21116,8 +21137,8 @@
     <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="92"/>
       <c r="D10" s="92"/>
-      <c r="E10" s="481"/>
-      <c r="F10" s="481"/>
+      <c r="E10" s="485"/>
+      <c r="F10" s="485"/>
       <c r="G10" s="26"/>
       <c r="H10" s="26"/>
       <c r="I10" s="29"/>
@@ -21134,11 +21155,11 @@
     </row>
     <row r="11" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
-      <c r="C11" s="474" t="s">
+      <c r="C11" s="480" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="475"/>
-      <c r="E11" s="476"/>
+      <c r="D11" s="481"/>
+      <c r="E11" s="482"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
       <c r="H11" s="210" t="s">
@@ -21184,10 +21205,10 @@
       <c r="C13" s="361" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="477" t="s">
+      <c r="D13" s="483" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="478"/>
+      <c r="E13" s="484"/>
       <c r="F13" s="199" t="s">
         <v>50</v>
       </c>
@@ -21218,10 +21239,10 @@
         <v>263</v>
       </c>
       <c r="C14" s="359"/>
-      <c r="D14" s="485" t="s">
+      <c r="D14" s="472" t="s">
         <v>264</v>
       </c>
-      <c r="E14" s="485"/>
+      <c r="E14" s="472"/>
       <c r="F14" s="379" t="s">
         <v>238</v>
       </c>
@@ -21246,10 +21267,10 @@
         <v>265</v>
       </c>
       <c r="C15" s="359"/>
-      <c r="D15" s="479" t="s">
+      <c r="D15" s="469" t="s">
         <v>266</v>
       </c>
-      <c r="E15" s="479"/>
+      <c r="E15" s="469"/>
       <c r="F15" s="379" t="s">
         <v>238</v>
       </c>
@@ -21270,13 +21291,19 @@
       <c r="S15" s="359"/>
     </row>
     <row r="16" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="260"/>
+      <c r="B16" s="260" t="s">
+        <v>268</v>
+      </c>
       <c r="C16" s="359"/>
-      <c r="D16" s="473"/>
-      <c r="E16" s="473"/>
+      <c r="D16" s="479" t="s">
+        <v>269</v>
+      </c>
+      <c r="E16" s="479"/>
       <c r="F16" s="379"/>
       <c r="G16" s="359"/>
-      <c r="H16" s="359"/>
+      <c r="H16" s="359" t="s">
+        <v>246</v>
+      </c>
       <c r="I16" s="359"/>
       <c r="J16" s="367"/>
       <c r="K16" s="359"/>
@@ -21290,13 +21317,19 @@
       <c r="S16" s="359"/>
     </row>
     <row r="17" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33"/>
+      <c r="B17" s="33" t="s">
+        <v>270</v>
+      </c>
       <c r="C17" s="359"/>
-      <c r="D17" s="479"/>
-      <c r="E17" s="479"/>
+      <c r="D17" s="469" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="469"/>
       <c r="F17" s="379"/>
       <c r="G17" s="359"/>
-      <c r="H17" s="359"/>
+      <c r="H17" s="359" t="s">
+        <v>254</v>
+      </c>
       <c r="I17" s="359"/>
       <c r="J17" s="367"/>
       <c r="K17" s="359"/>
@@ -21310,13 +21343,19 @@
       <c r="S17" s="359"/>
     </row>
     <row r="18" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
+      <c r="B18" s="33" t="s">
+        <v>272</v>
+      </c>
       <c r="C18" s="359"/>
-      <c r="D18" s="473"/>
-      <c r="E18" s="473"/>
+      <c r="D18" s="479" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="479"/>
       <c r="F18" s="379"/>
       <c r="G18" s="359"/>
-      <c r="H18" s="359"/>
+      <c r="H18" s="359" t="s">
+        <v>274</v>
+      </c>
       <c r="I18" s="359"/>
       <c r="J18" s="367"/>
       <c r="K18" s="359"/>
@@ -21332,8 +21371,8 @@
     <row r="19" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="33"/>
       <c r="C19" s="359"/>
-      <c r="D19" s="479"/>
-      <c r="E19" s="479"/>
+      <c r="D19" s="469"/>
+      <c r="E19" s="469"/>
       <c r="F19" s="379"/>
       <c r="G19" s="359"/>
       <c r="H19" s="359"/>
@@ -21348,8 +21387,8 @@
     <row r="20" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="33"/>
       <c r="C20" s="359"/>
-      <c r="D20" s="479"/>
-      <c r="E20" s="479"/>
+      <c r="D20" s="469"/>
+      <c r="E20" s="469"/>
       <c r="F20" s="379"/>
       <c r="G20" s="359"/>
       <c r="H20" s="359"/>
@@ -21364,8 +21403,8 @@
     <row r="21" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="33"/>
       <c r="C21" s="359"/>
-      <c r="D21" s="479"/>
-      <c r="E21" s="479"/>
+      <c r="D21" s="469"/>
+      <c r="E21" s="469"/>
       <c r="F21" s="379"/>
       <c r="G21" s="359"/>
       <c r="H21" s="359"/>
@@ -21427,8 +21466,8 @@
     <row r="25" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
       <c r="C25" s="359"/>
-      <c r="D25" s="479"/>
-      <c r="E25" s="479"/>
+      <c r="D25" s="469"/>
+      <c r="E25" s="469"/>
       <c r="F25" s="379"/>
       <c r="G25" s="359"/>
       <c r="H25" s="359"/>
@@ -21459,8 +21498,8 @@
     <row r="27" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
       <c r="C27" s="359"/>
-      <c r="D27" s="479"/>
-      <c r="E27" s="479"/>
+      <c r="D27" s="469"/>
+      <c r="E27" s="469"/>
       <c r="F27" s="379"/>
       <c r="G27" s="359"/>
       <c r="H27" s="359"/>
@@ -21491,8 +21530,8 @@
     <row r="29" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
       <c r="C29" s="359"/>
-      <c r="D29" s="479"/>
-      <c r="E29" s="479"/>
+      <c r="D29" s="469"/>
+      <c r="E29" s="469"/>
       <c r="F29" s="379"/>
       <c r="G29" s="359"/>
       <c r="H29" s="359"/>
@@ -21523,8 +21562,8 @@
     <row r="31" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="33"/>
       <c r="C31" s="359"/>
-      <c r="D31" s="479"/>
-      <c r="E31" s="479"/>
+      <c r="D31" s="469"/>
+      <c r="E31" s="469"/>
       <c r="F31" s="379"/>
       <c r="G31" s="359"/>
       <c r="H31" s="359"/>
@@ -21563,8 +21602,8 @@
     <row r="33" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="33"/>
       <c r="C33" s="359"/>
-      <c r="D33" s="479"/>
-      <c r="E33" s="479"/>
+      <c r="D33" s="469"/>
+      <c r="E33" s="469"/>
       <c r="F33" s="379"/>
       <c r="G33" s="359"/>
       <c r="H33" s="359"/>
@@ -21583,8 +21622,8 @@
     <row r="34" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="33"/>
       <c r="C34" s="359"/>
-      <c r="D34" s="479"/>
-      <c r="E34" s="479"/>
+      <c r="D34" s="469"/>
+      <c r="E34" s="469"/>
       <c r="F34" s="379"/>
       <c r="G34" s="359"/>
       <c r="H34" s="359"/>
@@ -21643,8 +21682,8 @@
     <row r="37" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="33"/>
       <c r="C37" s="359"/>
-      <c r="D37" s="479"/>
-      <c r="E37" s="479"/>
+      <c r="D37" s="469"/>
+      <c r="E37" s="469"/>
       <c r="F37" s="379"/>
       <c r="G37" s="359"/>
       <c r="H37" s="359"/>
@@ -21663,8 +21702,8 @@
     <row r="38" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="33"/>
       <c r="C38" s="359"/>
-      <c r="D38" s="479"/>
-      <c r="E38" s="479"/>
+      <c r="D38" s="469"/>
+      <c r="E38" s="469"/>
       <c r="F38" s="379"/>
       <c r="G38" s="359"/>
       <c r="H38" s="359"/>
@@ -21685,10 +21724,10 @@
         <v>65</v>
       </c>
       <c r="C39" s="359"/>
-      <c r="D39" s="479" t="s">
+      <c r="D39" s="469" t="s">
         <v>65</v>
       </c>
-      <c r="E39" s="479"/>
+      <c r="E39" s="469"/>
       <c r="F39" s="359" t="s">
         <v>65</v>
       </c>
@@ -21713,10 +21752,10 @@
         <v>65</v>
       </c>
       <c r="C40" s="359"/>
-      <c r="D40" s="479" t="s">
+      <c r="D40" s="469" t="s">
         <v>66</v>
       </c>
-      <c r="E40" s="479"/>
+      <c r="E40" s="469"/>
       <c r="F40" s="359" t="s">
         <v>65</v>
       </c>
@@ -21745,10 +21784,10 @@
         <v>65</v>
       </c>
       <c r="C41" s="359"/>
-      <c r="D41" s="479" t="s">
+      <c r="D41" s="469" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="479"/>
+      <c r="E41" s="469"/>
       <c r="F41" s="359" t="s">
         <v>65</v>
       </c>
@@ -21777,10 +21816,10 @@
         <v>65</v>
       </c>
       <c r="C42" s="359"/>
-      <c r="D42" s="479" t="s">
+      <c r="D42" s="469" t="s">
         <v>65</v>
       </c>
-      <c r="E42" s="479"/>
+      <c r="E42" s="469"/>
       <c r="F42" s="359" t="s">
         <v>65</v>
       </c>
@@ -21809,10 +21848,10 @@
         <v>65</v>
       </c>
       <c r="C43" s="359"/>
-      <c r="D43" s="479" t="s">
+      <c r="D43" s="469" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="479"/>
+      <c r="E43" s="469"/>
       <c r="F43" s="359" t="s">
         <v>65</v>
       </c>
@@ -21839,10 +21878,10 @@
     <row r="44" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="33"/>
       <c r="C44" s="359"/>
-      <c r="D44" s="479" t="s">
+      <c r="D44" s="469" t="s">
         <v>65</v>
       </c>
-      <c r="E44" s="479"/>
+      <c r="E44" s="469"/>
       <c r="F44" s="359"/>
       <c r="G44" s="359"/>
       <c r="H44" s="359" t="s">
@@ -21863,8 +21902,8 @@
     <row r="45" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="33"/>
       <c r="C45" s="359"/>
-      <c r="D45" s="479"/>
-      <c r="E45" s="479"/>
+      <c r="D45" s="469"/>
+      <c r="E45" s="469"/>
       <c r="F45" s="359"/>
       <c r="G45" s="359"/>
       <c r="H45" s="359"/>
@@ -21883,8 +21922,8 @@
     <row r="46" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="34"/>
       <c r="C46" s="359"/>
-      <c r="D46" s="479"/>
-      <c r="E46" s="479"/>
+      <c r="D46" s="469"/>
+      <c r="E46" s="469"/>
       <c r="F46" s="359"/>
       <c r="G46" s="359"/>
       <c r="H46" s="359"/>
@@ -21903,8 +21942,8 @@
     <row r="47" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="34"/>
       <c r="C47" s="359"/>
-      <c r="D47" s="484"/>
-      <c r="E47" s="484"/>
+      <c r="D47" s="470"/>
+      <c r="E47" s="470"/>
       <c r="F47" s="359"/>
       <c r="G47" s="359"/>
       <c r="H47" s="359"/>
@@ -21923,8 +21962,8 @@
     <row r="48" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="34"/>
       <c r="C48" s="359"/>
-      <c r="D48" s="484"/>
-      <c r="E48" s="484"/>
+      <c r="D48" s="470"/>
+      <c r="E48" s="470"/>
       <c r="F48" s="359"/>
       <c r="G48" s="359"/>
       <c r="H48" s="359"/>
@@ -21943,8 +21982,8 @@
     <row r="49" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="34"/>
       <c r="C49" s="359"/>
-      <c r="D49" s="484"/>
-      <c r="E49" s="484"/>
+      <c r="D49" s="470"/>
+      <c r="E49" s="470"/>
       <c r="F49" s="359"/>
       <c r="G49" s="359"/>
       <c r="H49" s="359"/>
@@ -21964,8 +22003,8 @@
       <c r="B50" s="34"/>
       <c r="C50" s="359"/>
       <c r="D50" s="359"/>
-      <c r="E50" s="484"/>
-      <c r="F50" s="484"/>
+      <c r="E50" s="470"/>
+      <c r="F50" s="470"/>
       <c r="G50" s="359"/>
       <c r="H50" s="359"/>
       <c r="I50" s="359"/>
@@ -21983,8 +22022,8 @@
     <row r="51" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="34"/>
       <c r="C51" s="359"/>
-      <c r="D51" s="484"/>
-      <c r="E51" s="484"/>
+      <c r="D51" s="470"/>
+      <c r="E51" s="470"/>
       <c r="F51" s="359"/>
       <c r="G51" s="359"/>
       <c r="H51" s="359"/>
@@ -22003,8 +22042,8 @@
     <row r="52" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="34"/>
       <c r="C52" s="359"/>
-      <c r="D52" s="484"/>
-      <c r="E52" s="484"/>
+      <c r="D52" s="470"/>
+      <c r="E52" s="470"/>
       <c r="F52" s="359"/>
       <c r="G52" s="359"/>
       <c r="H52" s="359"/>
@@ -22023,8 +22062,8 @@
     <row r="53" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="34"/>
       <c r="C53" s="359"/>
-      <c r="D53" s="484"/>
-      <c r="E53" s="484"/>
+      <c r="D53" s="470"/>
+      <c r="E53" s="470"/>
       <c r="F53" s="359"/>
       <c r="G53" s="359"/>
       <c r="H53" s="359"/>
@@ -22043,8 +22082,8 @@
     <row r="54" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="359"/>
       <c r="C54" s="359"/>
-      <c r="D54" s="484"/>
-      <c r="E54" s="484"/>
+      <c r="D54" s="470"/>
+      <c r="E54" s="470"/>
       <c r="F54" s="359"/>
       <c r="G54" s="359"/>
       <c r="H54" s="359"/>
@@ -22063,8 +22102,8 @@
     <row r="55" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="359"/>
       <c r="C55" s="359"/>
-      <c r="D55" s="484"/>
-      <c r="E55" s="484"/>
+      <c r="D55" s="470"/>
+      <c r="E55" s="470"/>
       <c r="F55" s="359"/>
       <c r="G55" s="359"/>
       <c r="H55" s="359"/>
@@ -22083,8 +22122,8 @@
     <row r="56" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="359"/>
       <c r="C56" s="359"/>
-      <c r="D56" s="484"/>
-      <c r="E56" s="484"/>
+      <c r="D56" s="470"/>
+      <c r="E56" s="470"/>
       <c r="F56" s="359"/>
       <c r="G56" s="359"/>
       <c r="H56" s="359"/>
@@ -22103,8 +22142,8 @@
     <row r="57" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="359"/>
       <c r="C57" s="359"/>
-      <c r="D57" s="484"/>
-      <c r="E57" s="484"/>
+      <c r="D57" s="470"/>
+      <c r="E57" s="470"/>
       <c r="F57" s="359"/>
       <c r="G57" s="359"/>
       <c r="H57" s="359"/>
@@ -22123,8 +22162,8 @@
     <row r="58" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="359"/>
       <c r="C58" s="359"/>
-      <c r="D58" s="484"/>
-      <c r="E58" s="484"/>
+      <c r="D58" s="470"/>
+      <c r="E58" s="470"/>
       <c r="F58" s="359"/>
       <c r="G58" s="359"/>
       <c r="H58" s="359"/>
@@ -22262,28 +22301,25 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="E50:F50"/>
     <mergeCell ref="D39:E39"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
@@ -22298,25 +22334,28 @@
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22346,14 +22385,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="511" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="487"/>
-      <c r="C1" s="487"/>
-      <c r="D1" s="487"/>
-      <c r="E1" s="487"/>
-      <c r="F1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="513"/>
       <c r="G1" s="68"/>
       <c r="H1" s="35"/>
     </row>
@@ -22367,11 +22406,11 @@
       <c r="C2" s="352" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="489" t="s">
+      <c r="D2" s="514" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="489"/>
-      <c r="F2" s="490"/>
+      <c r="E2" s="514"/>
+      <c r="F2" s="515"/>
       <c r="G2" s="82"/>
       <c r="H2" s="35"/>
     </row>
@@ -22379,9 +22418,9 @@
       <c r="A3" s="73"/>
       <c r="B3" s="112"/>
       <c r="C3" s="209"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="492"/>
-      <c r="F3" s="493"/>
+      <c r="D3" s="516"/>
+      <c r="E3" s="517"/>
+      <c r="F3" s="518"/>
       <c r="G3" s="68"/>
       <c r="H3" s="35"/>
     </row>
@@ -22389,9 +22428,9 @@
       <c r="A4" s="73"/>
       <c r="B4" s="112"/>
       <c r="C4" s="209"/>
-      <c r="D4" s="494"/>
-      <c r="E4" s="495"/>
-      <c r="F4" s="496"/>
+      <c r="D4" s="495"/>
+      <c r="E4" s="496"/>
+      <c r="F4" s="497"/>
       <c r="G4" s="68"/>
       <c r="H4" s="35"/>
     </row>
@@ -22399,9 +22438,9 @@
       <c r="A5" s="73"/>
       <c r="B5" s="112"/>
       <c r="C5" s="209"/>
-      <c r="D5" s="494"/>
-      <c r="E5" s="495"/>
-      <c r="F5" s="496"/>
+      <c r="D5" s="495"/>
+      <c r="E5" s="496"/>
+      <c r="F5" s="497"/>
       <c r="G5" s="68"/>
       <c r="H5" s="35"/>
     </row>
@@ -22409,9 +22448,9 @@
       <c r="A6" s="73"/>
       <c r="B6" s="220"/>
       <c r="C6" s="209"/>
-      <c r="D6" s="494"/>
-      <c r="E6" s="495"/>
-      <c r="F6" s="496"/>
+      <c r="D6" s="495"/>
+      <c r="E6" s="496"/>
+      <c r="F6" s="497"/>
       <c r="G6" s="68"/>
       <c r="H6" s="35"/>
     </row>
@@ -22419,9 +22458,9 @@
       <c r="A7" s="78"/>
       <c r="B7" s="218"/>
       <c r="C7" s="209"/>
-      <c r="D7" s="497"/>
-      <c r="E7" s="497"/>
-      <c r="F7" s="497"/>
+      <c r="D7" s="498"/>
+      <c r="E7" s="498"/>
+      <c r="F7" s="498"/>
       <c r="G7" s="203"/>
       <c r="H7" s="35"/>
     </row>
@@ -22436,73 +22475,73 @@
       <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="498"/>
-      <c r="B9" s="500"/>
-      <c r="C9" s="502" t="str">
+      <c r="A9" s="499"/>
+      <c r="B9" s="501"/>
+      <c r="C9" s="503" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="504" t="s">
+      <c r="D9" s="505" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="506"/>
-      <c r="F9" s="508"/>
+      <c r="E9" s="507"/>
+      <c r="F9" s="509"/>
       <c r="G9" s="68"/>
       <c r="H9" s="35"/>
     </row>
     <row r="10" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="499"/>
-      <c r="B10" s="501"/>
-      <c r="C10" s="503"/>
-      <c r="D10" s="505"/>
-      <c r="E10" s="507"/>
-      <c r="F10" s="509"/>
+      <c r="A10" s="500"/>
+      <c r="B10" s="502"/>
+      <c r="C10" s="504"/>
+      <c r="D10" s="506"/>
+      <c r="E10" s="508"/>
+      <c r="F10" s="510"/>
       <c r="G10" s="68"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="1:8" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="510" t="s">
+      <c r="A11" s="486" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="511"/>
-      <c r="C11" s="512"/>
-      <c r="D11" s="511"/>
-      <c r="E11" s="438"/>
-      <c r="F11" s="513"/>
+      <c r="B11" s="487"/>
+      <c r="C11" s="488"/>
+      <c r="D11" s="487"/>
+      <c r="E11" s="466"/>
+      <c r="F11" s="489"/>
       <c r="G11" s="82"/>
       <c r="H11" s="35"/>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="514" t="s">
+      <c r="A12" s="490" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="417" t="s">
+      <c r="B12" s="400" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="515" t="s">
+      <c r="C12" s="491" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="516"/>
-      <c r="E12" s="517" t="s">
+      <c r="D12" s="492"/>
+      <c r="E12" s="493" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="518" t="s">
+      <c r="F12" s="494" t="s">
         <v>63</v>
       </c>
       <c r="G12" s="82"/>
       <c r="H12" s="35"/>
     </row>
     <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="514"/>
-      <c r="B13" s="417"/>
+      <c r="A13" s="490"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="215" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="517"/>
-      <c r="F13" s="518"/>
+      <c r="E13" s="493"/>
+      <c r="F13" s="494"/>
       <c r="G13" s="82"/>
       <c r="H13" s="35"/>
     </row>
@@ -23378,12 +23417,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -23391,12 +23430,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -23457,14 +23496,14 @@
       <c r="D2" s="360" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="482" t="s">
+      <c r="E2" s="473" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="483"/>
-      <c r="G2" s="469" t="s">
+      <c r="F2" s="474"/>
+      <c r="G2" s="476" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="470"/>
+      <c r="H2" s="477"/>
       <c r="I2" s="360" t="s">
         <v>44</v>
       </c>
@@ -23487,10 +23526,10 @@
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
       <c r="D3" s="31"/>
-      <c r="E3" s="471"/>
-      <c r="F3" s="471"/>
-      <c r="G3" s="472"/>
-      <c r="H3" s="472"/>
+      <c r="E3" s="478"/>
+      <c r="F3" s="478"/>
+      <c r="G3" s="471"/>
+      <c r="H3" s="471"/>
       <c r="I3" s="200"/>
       <c r="J3" s="221"/>
       <c r="K3" s="21"/>
@@ -23508,10 +23547,10 @@
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="31"/>
-      <c r="E4" s="480"/>
-      <c r="F4" s="480"/>
-      <c r="G4" s="472"/>
-      <c r="H4" s="472"/>
+      <c r="E4" s="475"/>
+      <c r="F4" s="475"/>
+      <c r="G4" s="471"/>
+      <c r="H4" s="471"/>
       <c r="I4" s="28"/>
       <c r="J4" s="212"/>
       <c r="K4" s="28"/>
@@ -23529,10 +23568,10 @@
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="31"/>
-      <c r="E5" s="480"/>
-      <c r="F5" s="480"/>
-      <c r="G5" s="472"/>
-      <c r="H5" s="472"/>
+      <c r="E5" s="475"/>
+      <c r="F5" s="475"/>
+      <c r="G5" s="471"/>
+      <c r="H5" s="471"/>
       <c r="I5" s="28"/>
       <c r="J5" s="212"/>
       <c r="K5" s="28"/>
@@ -23550,10 +23589,10 @@
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
       <c r="D6" s="31"/>
-      <c r="E6" s="480"/>
-      <c r="F6" s="480"/>
-      <c r="G6" s="472"/>
-      <c r="H6" s="472"/>
+      <c r="E6" s="475"/>
+      <c r="F6" s="475"/>
+      <c r="G6" s="471"/>
+      <c r="H6" s="471"/>
       <c r="I6" s="28"/>
       <c r="J6" s="212"/>
       <c r="K6" s="28"/>
@@ -23569,8 +23608,8 @@
     </row>
     <row r="7" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="31"/>
-      <c r="G7" s="472"/>
-      <c r="H7" s="472"/>
+      <c r="G7" s="471"/>
+      <c r="H7" s="471"/>
       <c r="I7" s="28"/>
       <c r="J7" s="212"/>
       <c r="K7" s="28"/>
@@ -23588,10 +23627,10 @@
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="480"/>
-      <c r="F8" s="480"/>
-      <c r="G8" s="472"/>
-      <c r="H8" s="472"/>
+      <c r="E8" s="475"/>
+      <c r="F8" s="475"/>
+      <c r="G8" s="471"/>
+      <c r="H8" s="471"/>
       <c r="I8" s="28"/>
       <c r="J8" s="212"/>
       <c r="K8" s="28"/>
@@ -23609,10 +23648,10 @@
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
       <c r="D9" s="31"/>
-      <c r="E9" s="480"/>
-      <c r="F9" s="480"/>
-      <c r="G9" s="472"/>
-      <c r="H9" s="472"/>
+      <c r="E9" s="475"/>
+      <c r="F9" s="475"/>
+      <c r="G9" s="471"/>
+      <c r="H9" s="471"/>
       <c r="I9" s="28"/>
       <c r="J9" s="212"/>
       <c r="K9" s="28"/>
@@ -23630,10 +23669,10 @@
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
-      <c r="E10" s="480"/>
-      <c r="F10" s="480"/>
-      <c r="G10" s="472"/>
-      <c r="H10" s="472"/>
+      <c r="E10" s="475"/>
+      <c r="F10" s="475"/>
+      <c r="G10" s="471"/>
+      <c r="H10" s="471"/>
       <c r="I10" s="27"/>
       <c r="J10" s="212"/>
       <c r="K10" s="28"/>
@@ -23650,8 +23689,8 @@
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C11" s="92"/>
       <c r="D11" s="92"/>
-      <c r="E11" s="481"/>
-      <c r="F11" s="481"/>
+      <c r="E11" s="485"/>
+      <c r="F11" s="485"/>
       <c r="G11" s="26"/>
       <c r="H11" s="26"/>
       <c r="I11" s="29"/>
@@ -23669,11 +23708,11 @@
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="93"/>
-      <c r="C12" s="474" t="s">
+      <c r="C12" s="480" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="475"/>
-      <c r="E12" s="476"/>
+      <c r="D12" s="481"/>
+      <c r="E12" s="482"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="210" t="s">
@@ -23727,10 +23766,10 @@
       <c r="C14" s="361" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="477" t="s">
+      <c r="D14" s="483" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="478"/>
+      <c r="E14" s="484"/>
       <c r="F14" s="199" t="s">
         <v>50</v>
       </c>
@@ -23760,8 +23799,8 @@
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="279"/>
       <c r="C15" s="366"/>
-      <c r="D15" s="520"/>
-      <c r="E15" s="520"/>
+      <c r="D15" s="528"/>
+      <c r="E15" s="528"/>
       <c r="F15" s="275"/>
       <c r="G15" s="276"/>
       <c r="H15" s="276"/>
@@ -23781,8 +23820,8 @@
     <row r="16" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="279"/>
       <c r="C16" s="366"/>
-      <c r="D16" s="521"/>
-      <c r="E16" s="521"/>
+      <c r="D16" s="519"/>
+      <c r="E16" s="519"/>
       <c r="F16" s="275"/>
       <c r="G16" s="276"/>
       <c r="H16" s="276"/>
@@ -23802,8 +23841,8 @@
     <row r="17" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="279"/>
       <c r="C17" s="366"/>
-      <c r="D17" s="522"/>
-      <c r="E17" s="522"/>
+      <c r="D17" s="529"/>
+      <c r="E17" s="529"/>
       <c r="F17" s="275"/>
       <c r="G17" s="276"/>
       <c r="H17" s="276"/>
@@ -23823,8 +23862,8 @@
     <row r="18" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="272"/>
       <c r="C18" s="276"/>
-      <c r="D18" s="523"/>
-      <c r="E18" s="523"/>
+      <c r="D18" s="527"/>
+      <c r="E18" s="527"/>
       <c r="F18" s="275"/>
       <c r="G18" s="276"/>
       <c r="H18" s="276"/>
@@ -23844,8 +23883,8 @@
     <row r="19" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="272"/>
       <c r="C19" s="276"/>
-      <c r="D19" s="524"/>
-      <c r="E19" s="524"/>
+      <c r="D19" s="526"/>
+      <c r="E19" s="526"/>
       <c r="F19" s="275"/>
       <c r="G19" s="276"/>
       <c r="H19" s="276"/>
@@ -23865,8 +23904,8 @@
     <row r="20" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="272"/>
       <c r="C20" s="276"/>
-      <c r="D20" s="524"/>
-      <c r="E20" s="524"/>
+      <c r="D20" s="526"/>
+      <c r="E20" s="526"/>
       <c r="F20" s="275"/>
       <c r="G20" s="276"/>
       <c r="H20" s="276"/>
@@ -23916,8 +23955,8 @@
     <row r="23" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="272"/>
       <c r="C23" s="276"/>
-      <c r="D23" s="523"/>
-      <c r="E23" s="523"/>
+      <c r="D23" s="527"/>
+      <c r="E23" s="527"/>
       <c r="F23" s="275"/>
       <c r="G23" s="276"/>
       <c r="H23" s="276"/>
@@ -23933,8 +23972,8 @@
     <row r="24" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="272"/>
       <c r="C24" s="276"/>
-      <c r="D24" s="524"/>
-      <c r="E24" s="524"/>
+      <c r="D24" s="526"/>
+      <c r="E24" s="526"/>
       <c r="F24" s="275"/>
       <c r="G24" s="276"/>
       <c r="H24" s="276"/>
@@ -23950,8 +23989,8 @@
     <row r="25" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="272"/>
       <c r="C25" s="276"/>
-      <c r="D25" s="524"/>
-      <c r="E25" s="524"/>
+      <c r="D25" s="526"/>
+      <c r="E25" s="526"/>
       <c r="F25" s="275"/>
       <c r="G25" s="276"/>
       <c r="H25" s="276"/>
@@ -24009,8 +24048,8 @@
     <row r="28" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="272"/>
       <c r="C28" s="276"/>
-      <c r="D28" s="523"/>
-      <c r="E28" s="523"/>
+      <c r="D28" s="527"/>
+      <c r="E28" s="527"/>
       <c r="F28" s="275"/>
       <c r="G28" s="276"/>
       <c r="H28" s="276"/>
@@ -24030,8 +24069,8 @@
     <row r="29" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="272"/>
       <c r="C29" s="276"/>
-      <c r="D29" s="524"/>
-      <c r="E29" s="524"/>
+      <c r="D29" s="526"/>
+      <c r="E29" s="526"/>
       <c r="F29" s="275"/>
       <c r="G29" s="276"/>
       <c r="H29" s="276"/>
@@ -24051,8 +24090,8 @@
     <row r="30" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="272"/>
       <c r="C30" s="276"/>
-      <c r="D30" s="524"/>
-      <c r="E30" s="524"/>
+      <c r="D30" s="526"/>
+      <c r="E30" s="526"/>
       <c r="F30" s="275"/>
       <c r="G30" s="276"/>
       <c r="H30" s="276"/>
@@ -24114,8 +24153,8 @@
     <row r="33" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="272"/>
       <c r="C33" s="276"/>
-      <c r="D33" s="523"/>
-      <c r="E33" s="523"/>
+      <c r="D33" s="527"/>
+      <c r="E33" s="527"/>
       <c r="F33" s="275"/>
       <c r="G33" s="276"/>
       <c r="H33" s="276"/>
@@ -24135,8 +24174,8 @@
     <row r="34" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="272"/>
       <c r="C34" s="276"/>
-      <c r="D34" s="524"/>
-      <c r="E34" s="524"/>
+      <c r="D34" s="526"/>
+      <c r="E34" s="526"/>
       <c r="F34" s="275"/>
       <c r="G34" s="276"/>
       <c r="H34" s="276"/>
@@ -24156,8 +24195,8 @@
     <row r="35" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="272"/>
       <c r="C35" s="276"/>
-      <c r="D35" s="524"/>
-      <c r="E35" s="524"/>
+      <c r="D35" s="526"/>
+      <c r="E35" s="526"/>
       <c r="F35" s="275"/>
       <c r="G35" s="276"/>
       <c r="H35" s="276"/>
@@ -24219,8 +24258,8 @@
     <row r="38" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="272"/>
       <c r="C38" s="276"/>
-      <c r="D38" s="523"/>
-      <c r="E38" s="523"/>
+      <c r="D38" s="527"/>
+      <c r="E38" s="527"/>
       <c r="F38" s="275"/>
       <c r="G38" s="276"/>
       <c r="H38" s="276"/>
@@ -24240,8 +24279,8 @@
     <row r="39" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="272"/>
       <c r="C39" s="276"/>
-      <c r="D39" s="524"/>
-      <c r="E39" s="524"/>
+      <c r="D39" s="526"/>
+      <c r="E39" s="526"/>
       <c r="F39" s="275"/>
       <c r="G39" s="276"/>
       <c r="H39" s="276"/>
@@ -24261,8 +24300,8 @@
     <row r="40" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="272"/>
       <c r="C40" s="276"/>
-      <c r="D40" s="524"/>
-      <c r="E40" s="524"/>
+      <c r="D40" s="526"/>
+      <c r="E40" s="526"/>
       <c r="F40" s="275"/>
       <c r="G40" s="276"/>
       <c r="H40" s="276"/>
@@ -24324,8 +24363,8 @@
     <row r="43" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="272"/>
       <c r="C43" s="276"/>
-      <c r="D43" s="526"/>
-      <c r="E43" s="526"/>
+      <c r="D43" s="524"/>
+      <c r="E43" s="524"/>
       <c r="F43" s="296"/>
       <c r="G43" s="276"/>
       <c r="H43" s="276"/>
@@ -24345,8 +24384,8 @@
     <row r="44" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="272"/>
       <c r="C44" s="276"/>
-      <c r="D44" s="524"/>
-      <c r="E44" s="524"/>
+      <c r="D44" s="526"/>
+      <c r="E44" s="526"/>
       <c r="F44" s="296"/>
       <c r="G44" s="276"/>
       <c r="H44" s="276"/>
@@ -24366,8 +24405,8 @@
     <row r="45" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B45" s="272"/>
       <c r="C45" s="276"/>
-      <c r="D45" s="524"/>
-      <c r="E45" s="524"/>
+      <c r="D45" s="526"/>
+      <c r="E45" s="526"/>
       <c r="F45" s="296"/>
       <c r="G45" s="276"/>
       <c r="H45" s="276"/>
@@ -24429,8 +24468,8 @@
     <row r="48" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="279"/>
       <c r="C48" s="366"/>
-      <c r="D48" s="528"/>
-      <c r="E48" s="528"/>
+      <c r="D48" s="521"/>
+      <c r="E48" s="521"/>
       <c r="F48" s="275"/>
       <c r="G48" s="276"/>
       <c r="H48" s="276"/>
@@ -24450,8 +24489,8 @@
     <row r="49" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="272"/>
       <c r="C49" s="276"/>
-      <c r="D49" s="526"/>
-      <c r="E49" s="526"/>
+      <c r="D49" s="524"/>
+      <c r="E49" s="524"/>
       <c r="F49" s="275"/>
       <c r="G49" s="276"/>
       <c r="H49" s="276"/>
@@ -24471,8 +24510,8 @@
     <row r="50" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="272"/>
       <c r="C50" s="276"/>
-      <c r="D50" s="524"/>
-      <c r="E50" s="524"/>
+      <c r="D50" s="526"/>
+      <c r="E50" s="526"/>
       <c r="F50" s="275"/>
       <c r="G50" s="276"/>
       <c r="H50" s="276"/>
@@ -24492,8 +24531,8 @@
     <row r="51" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="272"/>
       <c r="C51" s="276"/>
-      <c r="D51" s="524"/>
-      <c r="E51" s="524"/>
+      <c r="D51" s="526"/>
+      <c r="E51" s="526"/>
       <c r="F51" s="275"/>
       <c r="G51" s="276"/>
       <c r="H51" s="276"/>
@@ -24550,8 +24589,8 @@
     <row r="54" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="272"/>
       <c r="C54" s="276"/>
-      <c r="D54" s="526"/>
-      <c r="E54" s="526"/>
+      <c r="D54" s="524"/>
+      <c r="E54" s="524"/>
       <c r="F54" s="275"/>
       <c r="G54" s="276"/>
       <c r="H54" s="276"/>
@@ -24566,8 +24605,8 @@
     <row r="55" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="272"/>
       <c r="C55" s="276"/>
-      <c r="D55" s="524"/>
-      <c r="E55" s="524"/>
+      <c r="D55" s="526"/>
+      <c r="E55" s="526"/>
       <c r="F55" s="275"/>
       <c r="G55" s="276"/>
       <c r="H55" s="276"/>
@@ -24581,8 +24620,8 @@
     <row r="56" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="272"/>
       <c r="C56" s="276"/>
-      <c r="D56" s="524"/>
-      <c r="E56" s="524"/>
+      <c r="D56" s="526"/>
+      <c r="E56" s="526"/>
       <c r="F56" s="275"/>
       <c r="G56" s="276"/>
       <c r="H56" s="276"/>
@@ -24626,8 +24665,8 @@
     <row r="59" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="272"/>
       <c r="C59" s="276"/>
-      <c r="D59" s="526"/>
-      <c r="E59" s="526"/>
+      <c r="D59" s="524"/>
+      <c r="E59" s="524"/>
       <c r="F59" s="275"/>
       <c r="G59" s="276"/>
       <c r="H59" s="276"/>
@@ -24641,8 +24680,8 @@
     <row r="60" spans="2:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B60" s="273"/>
       <c r="C60" s="277"/>
-      <c r="D60" s="524"/>
-      <c r="E60" s="524"/>
+      <c r="D60" s="526"/>
+      <c r="E60" s="526"/>
       <c r="F60" s="275"/>
       <c r="G60" s="277"/>
       <c r="H60" s="276"/>
@@ -24652,8 +24691,8 @@
     <row r="61" spans="2:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B61" s="273"/>
       <c r="C61" s="277"/>
-      <c r="D61" s="524"/>
-      <c r="E61" s="524"/>
+      <c r="D61" s="526"/>
+      <c r="E61" s="526"/>
       <c r="F61" s="275"/>
       <c r="G61" s="277"/>
       <c r="H61" s="276"/>
@@ -24685,8 +24724,8 @@
     <row r="64" spans="2:20" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B64" s="273"/>
       <c r="C64" s="277"/>
-      <c r="D64" s="526"/>
-      <c r="E64" s="526"/>
+      <c r="D64" s="524"/>
+      <c r="E64" s="524"/>
       <c r="F64" s="275"/>
       <c r="G64" s="277"/>
       <c r="H64" s="276"/>
@@ -24696,8 +24735,8 @@
     <row r="65" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B65" s="273"/>
       <c r="C65" s="277"/>
-      <c r="D65" s="524"/>
-      <c r="E65" s="524"/>
+      <c r="D65" s="526"/>
+      <c r="E65" s="526"/>
       <c r="F65" s="275"/>
       <c r="G65" s="277"/>
       <c r="H65" s="276"/>
@@ -24707,8 +24746,8 @@
     <row r="66" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B66" s="273"/>
       <c r="C66" s="277"/>
-      <c r="D66" s="524"/>
-      <c r="E66" s="524"/>
+      <c r="D66" s="526"/>
+      <c r="E66" s="526"/>
       <c r="F66" s="275"/>
       <c r="G66" s="277"/>
       <c r="H66" s="276"/>
@@ -24740,8 +24779,8 @@
     <row r="69" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B69" s="273"/>
       <c r="C69" s="277"/>
-      <c r="D69" s="526"/>
-      <c r="E69" s="526"/>
+      <c r="D69" s="524"/>
+      <c r="E69" s="524"/>
       <c r="F69" s="275"/>
       <c r="G69" s="277"/>
       <c r="H69" s="276"/>
@@ -24751,8 +24790,8 @@
     <row r="70" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B70" s="273"/>
       <c r="C70" s="277"/>
-      <c r="D70" s="524"/>
-      <c r="E70" s="524"/>
+      <c r="D70" s="526"/>
+      <c r="E70" s="526"/>
       <c r="F70" s="275"/>
       <c r="G70" s="277"/>
       <c r="H70" s="276"/>
@@ -24762,8 +24801,8 @@
     <row r="71" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B71" s="273"/>
       <c r="C71" s="277"/>
-      <c r="D71" s="524"/>
-      <c r="E71" s="524"/>
+      <c r="D71" s="526"/>
+      <c r="E71" s="526"/>
       <c r="F71" s="275"/>
       <c r="G71" s="277"/>
       <c r="H71" s="276"/>
@@ -24795,8 +24834,8 @@
     <row r="74" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B74" s="280"/>
       <c r="C74" s="278"/>
-      <c r="D74" s="521"/>
-      <c r="E74" s="521"/>
+      <c r="D74" s="519"/>
+      <c r="E74" s="519"/>
       <c r="F74" s="275"/>
       <c r="G74" s="277"/>
       <c r="H74" s="276"/>
@@ -24806,8 +24845,8 @@
     <row r="75" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B75" s="273"/>
       <c r="C75" s="277"/>
-      <c r="D75" s="529"/>
-      <c r="E75" s="529"/>
+      <c r="D75" s="522"/>
+      <c r="E75" s="522"/>
       <c r="F75" s="275"/>
       <c r="G75" s="277"/>
       <c r="H75" s="375"/>
@@ -24817,8 +24856,8 @@
     <row r="76" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B76" s="273"/>
       <c r="C76" s="277"/>
-      <c r="D76" s="529"/>
-      <c r="E76" s="529"/>
+      <c r="D76" s="522"/>
+      <c r="E76" s="522"/>
       <c r="F76" s="275"/>
       <c r="G76" s="277"/>
       <c r="H76" s="375"/>
@@ -24828,8 +24867,8 @@
     <row r="77" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B77" s="273"/>
       <c r="C77" s="277"/>
-      <c r="D77" s="530"/>
-      <c r="E77" s="530"/>
+      <c r="D77" s="523"/>
+      <c r="E77" s="523"/>
       <c r="F77" s="275"/>
       <c r="G77" s="277"/>
       <c r="H77" s="375"/>
@@ -24839,8 +24878,8 @@
     <row r="78" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="273"/>
       <c r="C78" s="277"/>
-      <c r="D78" s="530"/>
-      <c r="E78" s="530"/>
+      <c r="D78" s="523"/>
+      <c r="E78" s="523"/>
       <c r="F78" s="275"/>
       <c r="G78" s="277"/>
       <c r="H78" s="375"/>
@@ -24850,8 +24889,8 @@
     <row r="79" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B79" s="280"/>
       <c r="C79" s="278"/>
-      <c r="D79" s="521"/>
-      <c r="E79" s="521"/>
+      <c r="D79" s="519"/>
+      <c r="E79" s="519"/>
       <c r="F79" s="275"/>
       <c r="G79" s="277"/>
       <c r="H79" s="375"/>
@@ -24861,8 +24900,8 @@
     <row r="80" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B80" s="273"/>
       <c r="C80" s="277"/>
-      <c r="D80" s="527"/>
-      <c r="E80" s="527"/>
+      <c r="D80" s="520"/>
+      <c r="E80" s="520"/>
       <c r="F80" s="275"/>
       <c r="G80" s="277"/>
       <c r="H80" s="375"/>
@@ -24872,8 +24911,8 @@
     <row r="81" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B81" s="280"/>
       <c r="C81" s="278"/>
-      <c r="D81" s="521"/>
-      <c r="E81" s="521"/>
+      <c r="D81" s="519"/>
+      <c r="E81" s="519"/>
       <c r="F81" s="275"/>
       <c r="G81" s="277"/>
       <c r="H81" s="375"/>
@@ -24883,8 +24922,8 @@
     <row r="82" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B82" s="280"/>
       <c r="C82" s="278"/>
-      <c r="D82" s="521"/>
-      <c r="E82" s="521"/>
+      <c r="D82" s="519"/>
+      <c r="E82" s="519"/>
       <c r="F82" s="336"/>
       <c r="G82" s="277"/>
       <c r="H82" s="375"/>
@@ -24892,71 +24931,151 @@
       <c r="J82" s="376"/>
     </row>
     <row r="83" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D83" s="484"/>
-      <c r="E83" s="484"/>
+      <c r="D83" s="470"/>
+      <c r="E83" s="470"/>
     </row>
     <row r="84" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D84" s="484"/>
-      <c r="E84" s="484"/>
+      <c r="D84" s="470"/>
+      <c r="E84" s="470"/>
     </row>
     <row r="85" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D85" s="484"/>
-      <c r="E85" s="484"/>
+      <c r="D85" s="470"/>
+      <c r="E85" s="470"/>
     </row>
     <row r="86" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D86" s="484"/>
-      <c r="E86" s="484"/>
+      <c r="D86" s="470"/>
+      <c r="E86" s="470"/>
     </row>
     <row r="87" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D87" s="484"/>
-      <c r="E87" s="484"/>
+      <c r="D87" s="470"/>
+      <c r="E87" s="470"/>
     </row>
     <row r="88" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D88" s="484"/>
-      <c r="E88" s="484"/>
+      <c r="D88" s="470"/>
+      <c r="E88" s="470"/>
     </row>
     <row r="89" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D89" s="484"/>
-      <c r="E89" s="484"/>
+      <c r="D89" s="470"/>
+      <c r="E89" s="470"/>
     </row>
     <row r="90" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D90" s="484"/>
-      <c r="E90" s="484"/>
+      <c r="D90" s="470"/>
+      <c r="E90" s="470"/>
     </row>
     <row r="91" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D91" s="484"/>
-      <c r="E91" s="484"/>
+      <c r="D91" s="470"/>
+      <c r="E91" s="470"/>
     </row>
     <row r="92" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D92" s="519"/>
-      <c r="E92" s="519"/>
+      <c r="D92" s="530"/>
+      <c r="E92" s="530"/>
     </row>
     <row r="93" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D93" s="519"/>
-      <c r="E93" s="519"/>
+      <c r="D93" s="530"/>
+      <c r="E93" s="530"/>
     </row>
     <row r="94" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D94" s="519"/>
-      <c r="E94" s="519"/>
+      <c r="D94" s="530"/>
+      <c r="E94" s="530"/>
     </row>
     <row r="95" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D95" s="484"/>
-      <c r="E95" s="484"/>
+      <c r="D95" s="470"/>
+      <c r="E95" s="470"/>
     </row>
     <row r="96" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D96" s="484"/>
-      <c r="E96" s="484"/>
+      <c r="D96" s="470"/>
+      <c r="E96" s="470"/>
     </row>
     <row r="97" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D97" s="484"/>
-      <c r="E97" s="484"/>
+      <c r="D97" s="470"/>
+      <c r="E97" s="470"/>
     </row>
     <row r="98" spans="4:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D98" s="484"/>
-      <c r="E98" s="484"/>
+      <c r="D98" s="470"/>
+      <c r="E98" s="470"/>
     </row>
   </sheetData>
   <mergeCells count="104">
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D55:E55"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="D80:E80"/>
     <mergeCell ref="D81:E81"/>
@@ -24981,86 +25100,6 @@
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25088,14 +25127,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="486" t="s">
+      <c r="A1" s="511" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="487"/>
-      <c r="C1" s="487"/>
-      <c r="D1" s="487"/>
-      <c r="E1" s="487"/>
-      <c r="F1" s="488"/>
+      <c r="B1" s="512"/>
+      <c r="C1" s="512"/>
+      <c r="D1" s="512"/>
+      <c r="E1" s="512"/>
+      <c r="F1" s="513"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="99" t="s">
@@ -25107,51 +25146,51 @@
       <c r="C2" s="352" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="489" t="s">
+      <c r="D2" s="514" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="489"/>
-      <c r="F2" s="490"/>
+      <c r="E2" s="514"/>
+      <c r="F2" s="515"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73"/>
       <c r="B3" s="339"/>
       <c r="C3" s="209"/>
-      <c r="D3" s="491"/>
-      <c r="E3" s="492"/>
-      <c r="F3" s="493"/>
+      <c r="D3" s="516"/>
+      <c r="E3" s="517"/>
+      <c r="F3" s="518"/>
     </row>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="73"/>
       <c r="B4" s="339"/>
       <c r="C4" s="209"/>
-      <c r="D4" s="494"/>
-      <c r="E4" s="495"/>
-      <c r="F4" s="496"/>
+      <c r="D4" s="495"/>
+      <c r="E4" s="496"/>
+      <c r="F4" s="497"/>
     </row>
     <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="73"/>
       <c r="B5" s="339"/>
       <c r="C5" s="209"/>
-      <c r="D5" s="494"/>
-      <c r="E5" s="495"/>
-      <c r="F5" s="496"/>
+      <c r="D5" s="495"/>
+      <c r="E5" s="496"/>
+      <c r="F5" s="497"/>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="73"/>
       <c r="B6" s="339"/>
       <c r="C6" s="209"/>
-      <c r="D6" s="494"/>
-      <c r="E6" s="495"/>
-      <c r="F6" s="496"/>
+      <c r="D6" s="495"/>
+      <c r="E6" s="496"/>
+      <c r="F6" s="497"/>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78"/>
       <c r="B7" s="339"/>
       <c r="C7" s="209"/>
-      <c r="D7" s="497"/>
-      <c r="E7" s="497"/>
-      <c r="F7" s="497"/>
+      <c r="D7" s="498"/>
+      <c r="E7" s="498"/>
+      <c r="F7" s="498"/>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="73"/>
@@ -25162,70 +25201,70 @@
       <c r="F8" s="342"/>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="498" t="s">
+      <c r="A9" s="499" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="532" t="str">
+      <c r="B9" s="531" t="str">
         <f>IF((SUM(B3:B7)=0),"",SUM(B3:B7))</f>
         <v/>
       </c>
-      <c r="C9" s="502" t="str">
+      <c r="C9" s="503" t="str">
         <f>IF((SUM(C3:C7)=0),"",SUM(C3:C7))</f>
         <v/>
       </c>
-      <c r="D9" s="504" t="s">
+      <c r="D9" s="505" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="536"/>
-      <c r="F9" s="534"/>
+      <c r="E9" s="535"/>
+      <c r="F9" s="533"/>
     </row>
     <row r="10" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="499"/>
-      <c r="B10" s="533"/>
-      <c r="C10" s="503"/>
-      <c r="D10" s="505"/>
-      <c r="E10" s="537"/>
-      <c r="F10" s="535"/>
+      <c r="A10" s="500"/>
+      <c r="B10" s="532"/>
+      <c r="C10" s="504"/>
+      <c r="D10" s="506"/>
+      <c r="E10" s="536"/>
+      <c r="F10" s="534"/>
     </row>
     <row r="11" spans="1:6" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="510" t="s">
+      <c r="A11" s="486" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="511"/>
-      <c r="C11" s="512"/>
-      <c r="D11" s="511"/>
-      <c r="E11" s="438"/>
-      <c r="F11" s="513"/>
+      <c r="B11" s="487"/>
+      <c r="C11" s="488"/>
+      <c r="D11" s="487"/>
+      <c r="E11" s="466"/>
+      <c r="F11" s="489"/>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="514" t="s">
+      <c r="A12" s="490" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="417" t="s">
+      <c r="B12" s="400" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="515" t="s">
+      <c r="C12" s="491" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="516"/>
-      <c r="E12" s="517" t="s">
+      <c r="D12" s="492"/>
+      <c r="E12" s="493" t="s">
         <v>71</v>
       </c>
-      <c r="F12" s="531" t="s">
+      <c r="F12" s="537" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="514"/>
-      <c r="B13" s="417"/>
+      <c r="A13" s="490"/>
+      <c r="B13" s="400"/>
       <c r="C13" s="215" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="100" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="517"/>
-      <c r="F13" s="531"/>
+      <c r="E13" s="493"/>
+      <c r="F13" s="537"/>
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="201">
@@ -26134,12 +26173,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
@@ -26147,12 +26186,12 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26201,14 +26240,14 @@
       <c r="C2" s="373" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="538" t="s">
+      <c r="D2" s="557" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="539"/>
-      <c r="F2" s="540" t="s">
+      <c r="E2" s="558"/>
+      <c r="F2" s="559" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="539"/>
+      <c r="G2" s="558"/>
       <c r="H2" s="373" t="s">
         <v>91</v>
       </c>
@@ -26230,14 +26269,14 @@
       <c r="C3" s="124" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="541" t="s">
+      <c r="D3" s="560" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="541"/>
-      <c r="F3" s="542" t="s">
+      <c r="E3" s="560"/>
+      <c r="F3" s="561" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="543"/>
+      <c r="G3" s="562"/>
       <c r="H3" s="125"/>
       <c r="I3" s="123"/>
       <c r="J3" s="126"/>
@@ -26251,10 +26290,10 @@
       <c r="A4" s="122"/>
       <c r="B4" s="123"/>
       <c r="C4" s="374"/>
-      <c r="D4" s="543"/>
-      <c r="E4" s="543"/>
-      <c r="F4" s="542"/>
-      <c r="G4" s="543"/>
+      <c r="D4" s="562"/>
+      <c r="E4" s="562"/>
+      <c r="F4" s="561"/>
+      <c r="G4" s="562"/>
       <c r="H4" s="125"/>
       <c r="I4" s="123"/>
       <c r="J4" s="128"/>
@@ -26317,10 +26356,10 @@
     </row>
     <row r="8" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="369"/>
-      <c r="B8" s="544" t="s">
+      <c r="B8" s="549" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="545"/>
+      <c r="C8" s="550"/>
       <c r="D8" s="133"/>
       <c r="E8" s="133"/>
       <c r="F8" s="138"/>
@@ -26358,10 +26397,10 @@
       <c r="B10" s="143" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="546" t="s">
+      <c r="C10" s="551" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="547"/>
+      <c r="D10" s="552"/>
       <c r="E10" s="372" t="s">
         <v>54</v>
       </c>
@@ -26390,16 +26429,16 @@
     </row>
     <row r="11" spans="1:15" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="121"/>
-      <c r="B11" s="548" t="s">
+      <c r="B11" s="553" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="548"/>
-      <c r="D11" s="549"/>
-      <c r="E11" s="550"/>
-      <c r="F11" s="551"/>
-      <c r="G11" s="550"/>
-      <c r="H11" s="550"/>
-      <c r="I11" s="550"/>
+      <c r="C11" s="553"/>
+      <c r="D11" s="554"/>
+      <c r="E11" s="555"/>
+      <c r="F11" s="556"/>
+      <c r="G11" s="555"/>
+      <c r="H11" s="555"/>
+      <c r="I11" s="555"/>
       <c r="J11" s="147"/>
       <c r="K11" s="147"/>
       <c r="L11" s="369"/>
@@ -26447,10 +26486,10 @@
       <c r="B13" s="371" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="552" t="s">
+      <c r="C13" s="540" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="552"/>
+      <c r="D13" s="540"/>
       <c r="E13" s="148">
         <v>5</v>
       </c>
@@ -26534,10 +26573,10 @@
       <c r="B16" s="371" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="552" t="s">
+      <c r="C16" s="540" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="552"/>
+      <c r="D16" s="540"/>
       <c r="E16" s="148">
         <v>15</v>
       </c>
@@ -26605,10 +26644,10 @@
       <c r="B19" s="154" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="552" t="s">
+      <c r="C19" s="540" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="553"/>
+      <c r="D19" s="538"/>
       <c r="E19" s="148">
         <v>44</v>
       </c>
@@ -26649,10 +26688,10 @@
       <c r="B21" s="371" t="s">
         <v>123</v>
       </c>
-      <c r="C21" s="554" t="s">
+      <c r="C21" s="543" t="s">
         <v>124</v>
       </c>
-      <c r="D21" s="555"/>
+      <c r="D21" s="544"/>
       <c r="E21" s="148">
         <v>32</v>
       </c>
@@ -26672,10 +26711,10 @@
     <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="369"/>
       <c r="B22" s="369"/>
-      <c r="C22" s="552" t="s">
+      <c r="C22" s="540" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="553"/>
+      <c r="D22" s="538"/>
       <c r="E22" s="369">
         <v>20</v>
       </c>
@@ -26695,10 +26734,10 @@
     <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="370"/>
       <c r="B23" s="371"/>
-      <c r="C23" s="552" t="s">
+      <c r="C23" s="540" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="553"/>
+      <c r="D23" s="538"/>
       <c r="E23" s="370">
         <v>9</v>
       </c>
@@ -26718,10 +26757,10 @@
     <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="370"/>
       <c r="B24" s="371"/>
-      <c r="C24" s="552" t="s">
+      <c r="C24" s="540" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="553"/>
+      <c r="D24" s="538"/>
       <c r="E24" s="370">
         <v>25</v>
       </c>
@@ -26741,10 +26780,10 @@
     <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="370"/>
       <c r="B25" s="371"/>
-      <c r="C25" s="552" t="s">
+      <c r="C25" s="540" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="552"/>
+      <c r="D25" s="540"/>
       <c r="E25" s="370">
         <v>27</v>
       </c>
@@ -26764,10 +26803,10 @@
     <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="370"/>
       <c r="B26" s="371"/>
-      <c r="C26" s="552" t="s">
+      <c r="C26" s="540" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="553"/>
+      <c r="D26" s="538"/>
       <c r="E26" s="370">
         <v>17</v>
       </c>
@@ -26786,16 +26825,16 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="370"/>
-      <c r="B27" s="556" t="s">
+      <c r="B27" s="539" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="557"/>
-      <c r="D27" s="558"/>
-      <c r="E27" s="559"/>
-      <c r="F27" s="560"/>
-      <c r="G27" s="559"/>
-      <c r="H27" s="559"/>
-      <c r="I27" s="559"/>
+      <c r="C27" s="545"/>
+      <c r="D27" s="546"/>
+      <c r="E27" s="547"/>
+      <c r="F27" s="548"/>
+      <c r="G27" s="547"/>
+      <c r="H27" s="547"/>
+      <c r="I27" s="547"/>
       <c r="J27" s="155"/>
       <c r="K27" s="155"/>
       <c r="L27" s="369"/>
@@ -26825,10 +26864,10 @@
       <c r="B29" s="369" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="554" t="s">
+      <c r="C29" s="543" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="554"/>
+      <c r="D29" s="543"/>
       <c r="E29" s="369">
         <v>26</v>
       </c>
@@ -26848,10 +26887,10 @@
     <row r="30" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="370"/>
       <c r="B30" s="371"/>
-      <c r="C30" s="552" t="s">
+      <c r="C30" s="540" t="s">
         <v>133</v>
       </c>
-      <c r="D30" s="553"/>
+      <c r="D30" s="538"/>
       <c r="E30" s="148" t="s">
         <v>134</v>
       </c>
@@ -26869,10 +26908,10 @@
     <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="370"/>
       <c r="B31" s="371"/>
-      <c r="C31" s="552" t="s">
+      <c r="C31" s="540" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="553"/>
+      <c r="D31" s="538"/>
       <c r="E31" s="148">
         <v>24</v>
       </c>
@@ -26892,10 +26931,10 @@
     <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="370"/>
       <c r="B32" s="371"/>
-      <c r="C32" s="552" t="s">
+      <c r="C32" s="540" t="s">
         <v>136</v>
       </c>
-      <c r="D32" s="553"/>
+      <c r="D32" s="538"/>
       <c r="E32" s="148">
         <v>40</v>
       </c>
@@ -26913,10 +26952,10 @@
     <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="370"/>
       <c r="B33" s="371"/>
-      <c r="C33" s="552" t="s">
+      <c r="C33" s="540" t="s">
         <v>137</v>
       </c>
-      <c r="D33" s="553"/>
+      <c r="D33" s="538"/>
       <c r="E33" s="148">
         <v>29</v>
       </c>
@@ -26934,10 +26973,10 @@
     <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="370"/>
       <c r="B34" s="371"/>
-      <c r="C34" s="552" t="s">
+      <c r="C34" s="540" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="553"/>
+      <c r="D34" s="538"/>
       <c r="E34" s="148">
         <v>22</v>
       </c>
@@ -26955,10 +26994,10 @@
     <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="370"/>
       <c r="B35" s="371"/>
-      <c r="C35" s="552" t="s">
+      <c r="C35" s="540" t="s">
         <v>139</v>
       </c>
-      <c r="D35" s="553"/>
+      <c r="D35" s="538"/>
       <c r="E35" s="148">
         <v>32</v>
       </c>
@@ -27012,10 +27051,10 @@
     <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="370"/>
       <c r="B38" s="154"/>
-      <c r="C38" s="554" t="s">
+      <c r="C38" s="543" t="s">
         <v>140</v>
       </c>
-      <c r="D38" s="555"/>
+      <c r="D38" s="544"/>
       <c r="E38" s="148">
         <v>12</v>
       </c>
@@ -27035,8 +27074,8 @@
     <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="370"/>
       <c r="B39" s="154"/>
-      <c r="C39" s="552"/>
-      <c r="D39" s="553"/>
+      <c r="C39" s="540"/>
+      <c r="D39" s="538"/>
       <c r="E39" s="148"/>
       <c r="F39" s="138"/>
       <c r="G39" s="152"/>
@@ -27052,10 +27091,10 @@
     <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="370"/>
       <c r="B40" s="371"/>
-      <c r="C40" s="552" t="s">
+      <c r="C40" s="540" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="553"/>
+      <c r="D40" s="538"/>
       <c r="E40" s="148">
         <v>32</v>
       </c>
@@ -27159,16 +27198,16 @@
     </row>
     <row r="46" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="370"/>
-      <c r="B46" s="556" t="s">
+      <c r="B46" s="539" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="556"/>
-      <c r="D46" s="556"/>
-      <c r="E46" s="556"/>
-      <c r="F46" s="556"/>
-      <c r="G46" s="556"/>
-      <c r="H46" s="556"/>
-      <c r="I46" s="556"/>
+      <c r="C46" s="539"/>
+      <c r="D46" s="539"/>
+      <c r="E46" s="539"/>
+      <c r="F46" s="539"/>
+      <c r="G46" s="539"/>
+      <c r="H46" s="539"/>
+      <c r="I46" s="539"/>
       <c r="J46" s="159"/>
       <c r="K46" s="159"/>
       <c r="L46" s="370"/>
@@ -27181,10 +27220,10 @@
         <v>107</v>
       </c>
       <c r="B47" s="371"/>
-      <c r="C47" s="552" t="s">
+      <c r="C47" s="540" t="s">
         <v>143</v>
       </c>
-      <c r="D47" s="552"/>
+      <c r="D47" s="540"/>
       <c r="E47" s="148">
         <v>11</v>
       </c>
@@ -27206,8 +27245,8 @@
     <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="370"/>
       <c r="B48" s="154"/>
-      <c r="C48" s="552"/>
-      <c r="D48" s="552"/>
+      <c r="C48" s="540"/>
+      <c r="D48" s="540"/>
       <c r="E48" s="148"/>
       <c r="F48" s="138"/>
       <c r="G48" s="152"/>
@@ -27225,10 +27264,10 @@
         <v>107</v>
       </c>
       <c r="B49" s="371"/>
-      <c r="C49" s="552" t="s">
+      <c r="C49" s="540" t="s">
         <v>144</v>
       </c>
-      <c r="D49" s="552"/>
+      <c r="D49" s="540"/>
       <c r="E49" s="148">
         <v>10</v>
       </c>
@@ -27250,8 +27289,8 @@
     <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="370"/>
       <c r="B50" s="154"/>
-      <c r="C50" s="552"/>
-      <c r="D50" s="552"/>
+      <c r="C50" s="540"/>
+      <c r="D50" s="540"/>
       <c r="E50" s="148"/>
       <c r="F50" s="138"/>
       <c r="G50" s="152"/>
@@ -27284,8 +27323,8 @@
     <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="369"/>
       <c r="B52" s="371"/>
-      <c r="C52" s="552"/>
-      <c r="D52" s="553"/>
+      <c r="C52" s="540"/>
+      <c r="D52" s="538"/>
       <c r="E52" s="370"/>
       <c r="F52" s="160"/>
       <c r="G52" s="370"/>
@@ -27317,16 +27356,16 @@
     </row>
     <row r="54" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="370"/>
-      <c r="B54" s="556" t="s">
+      <c r="B54" s="539" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="556"/>
-      <c r="D54" s="556"/>
-      <c r="E54" s="556"/>
-      <c r="F54" s="556"/>
-      <c r="G54" s="556"/>
-      <c r="H54" s="556"/>
-      <c r="I54" s="556"/>
+      <c r="C54" s="539"/>
+      <c r="D54" s="539"/>
+      <c r="E54" s="539"/>
+      <c r="F54" s="539"/>
+      <c r="G54" s="539"/>
+      <c r="H54" s="539"/>
+      <c r="I54" s="539"/>
       <c r="J54" s="159"/>
       <c r="K54" s="159"/>
       <c r="L54" s="370"/>
@@ -27337,10 +27376,10 @@
     <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="370"/>
       <c r="B55" s="371"/>
-      <c r="C55" s="552" t="s">
+      <c r="C55" s="540" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="553"/>
+      <c r="D55" s="538"/>
       <c r="E55" s="161">
         <v>26</v>
       </c>
@@ -27360,10 +27399,10 @@
     <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="370"/>
       <c r="B56" s="154"/>
-      <c r="C56" s="552" t="s">
+      <c r="C56" s="540" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="552"/>
+      <c r="D56" s="540"/>
       <c r="E56" s="161">
         <v>55</v>
       </c>
@@ -27399,16 +27438,16 @@
     </row>
     <row r="58" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="370"/>
-      <c r="B58" s="556" t="s">
+      <c r="B58" s="539" t="s">
         <v>148</v>
       </c>
-      <c r="C58" s="556"/>
-      <c r="D58" s="556"/>
-      <c r="E58" s="556"/>
-      <c r="F58" s="556"/>
-      <c r="G58" s="556"/>
-      <c r="H58" s="556"/>
-      <c r="I58" s="556"/>
+      <c r="C58" s="539"/>
+      <c r="D58" s="539"/>
+      <c r="E58" s="539"/>
+      <c r="F58" s="539"/>
+      <c r="G58" s="539"/>
+      <c r="H58" s="539"/>
+      <c r="I58" s="539"/>
       <c r="J58" s="159"/>
       <c r="K58" s="159"/>
       <c r="L58" s="370"/>
@@ -27421,10 +27460,10 @@
       <c r="B59" s="371" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="552" t="s">
+      <c r="C59" s="540" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="552"/>
+      <c r="D59" s="540"/>
       <c r="E59" s="148">
         <v>32</v>
       </c>
@@ -27444,10 +27483,10 @@
     <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="369"/>
       <c r="B60" s="369"/>
-      <c r="C60" s="553" t="s">
+      <c r="C60" s="538" t="s">
         <v>150</v>
       </c>
-      <c r="D60" s="553"/>
+      <c r="D60" s="538"/>
       <c r="E60" s="148">
         <v>50</v>
       </c>
@@ -27467,10 +27506,10 @@
     <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="369"/>
       <c r="B61" s="369"/>
-      <c r="C61" s="553" t="s">
+      <c r="C61" s="538" t="s">
         <v>152</v>
       </c>
-      <c r="D61" s="553"/>
+      <c r="D61" s="538"/>
       <c r="E61" s="148">
         <v>16</v>
       </c>
@@ -27511,10 +27550,10 @@
     <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="369"/>
       <c r="B63" s="369"/>
-      <c r="C63" s="553" t="s">
+      <c r="C63" s="538" t="s">
         <v>153</v>
       </c>
-      <c r="D63" s="553"/>
+      <c r="D63" s="538"/>
       <c r="E63" s="148">
         <v>14</v>
       </c>
@@ -27643,10 +27682,10 @@
       <c r="B68" s="371" t="s">
         <v>102</v>
       </c>
-      <c r="C68" s="552" t="s">
+      <c r="C68" s="540" t="s">
         <v>159</v>
       </c>
-      <c r="D68" s="552"/>
+      <c r="D68" s="540"/>
       <c r="E68" s="148">
         <v>28</v>
       </c>
@@ -27728,16 +27767,16 @@
     </row>
     <row r="71" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="370"/>
-      <c r="B71" s="556" t="s">
+      <c r="B71" s="539" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="556"/>
-      <c r="D71" s="556"/>
-      <c r="E71" s="556"/>
-      <c r="F71" s="556"/>
-      <c r="G71" s="556"/>
-      <c r="H71" s="556"/>
-      <c r="I71" s="556"/>
+      <c r="C71" s="539"/>
+      <c r="D71" s="539"/>
+      <c r="E71" s="539"/>
+      <c r="F71" s="539"/>
+      <c r="G71" s="539"/>
+      <c r="H71" s="539"/>
+      <c r="I71" s="539"/>
       <c r="J71" s="131"/>
       <c r="K71" s="131"/>
       <c r="L71" s="370"/>
@@ -27753,10 +27792,10 @@
     <row r="72" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="370"/>
       <c r="B72" s="370"/>
-      <c r="C72" s="553" t="s">
+      <c r="C72" s="538" t="s">
         <v>164</v>
       </c>
-      <c r="D72" s="553"/>
+      <c r="D72" s="538"/>
       <c r="E72" s="370">
         <v>20</v>
       </c>
@@ -27783,10 +27822,10 @@
       <c r="B73" s="371" t="s">
         <v>102</v>
       </c>
-      <c r="C73" s="553" t="s">
+      <c r="C73" s="538" t="s">
         <v>166</v>
       </c>
-      <c r="D73" s="553"/>
+      <c r="D73" s="538"/>
       <c r="E73" s="370">
         <v>16</v>
       </c>
@@ -27880,16 +27919,16 @@
     </row>
     <row r="77" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="370"/>
-      <c r="B77" s="556" t="s">
+      <c r="B77" s="539" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="556"/>
-      <c r="D77" s="556"/>
-      <c r="E77" s="556"/>
-      <c r="F77" s="556"/>
-      <c r="G77" s="556"/>
-      <c r="H77" s="556"/>
-      <c r="I77" s="556"/>
+      <c r="C77" s="539"/>
+      <c r="D77" s="539"/>
+      <c r="E77" s="539"/>
+      <c r="F77" s="539"/>
+      <c r="G77" s="539"/>
+      <c r="H77" s="539"/>
+      <c r="I77" s="539"/>
       <c r="J77" s="159"/>
       <c r="K77" s="159"/>
       <c r="L77" s="370"/>
@@ -27905,15 +27944,15 @@
     <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="370"/>
       <c r="B78" s="370"/>
-      <c r="C78" s="552" t="s">
+      <c r="C78" s="540" t="s">
         <v>170</v>
       </c>
-      <c r="D78" s="552"/>
-      <c r="E78" s="552"/>
-      <c r="F78" s="552"/>
-      <c r="G78" s="552"/>
-      <c r="H78" s="552"/>
-      <c r="I78" s="552"/>
+      <c r="D78" s="540"/>
+      <c r="E78" s="540"/>
+      <c r="F78" s="540"/>
+      <c r="G78" s="540"/>
+      <c r="H78" s="540"/>
+      <c r="I78" s="540"/>
       <c r="J78" s="131"/>
       <c r="K78" s="131"/>
       <c r="L78" s="370"/>
@@ -27929,13 +27968,13 @@
     <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="370"/>
       <c r="B79" s="370"/>
-      <c r="C79" s="561"/>
-      <c r="D79" s="561"/>
-      <c r="E79" s="561"/>
-      <c r="F79" s="561"/>
-      <c r="G79" s="561"/>
-      <c r="H79" s="561"/>
-      <c r="I79" s="561"/>
+      <c r="C79" s="541"/>
+      <c r="D79" s="541"/>
+      <c r="E79" s="541"/>
+      <c r="F79" s="541"/>
+      <c r="G79" s="541"/>
+      <c r="H79" s="541"/>
+      <c r="I79" s="541"/>
       <c r="J79" s="131"/>
       <c r="K79" s="131"/>
       <c r="L79" s="370"/>
@@ -27975,10 +28014,10 @@
         <v>171</v>
       </c>
       <c r="B81" s="170"/>
-      <c r="C81" s="562" t="s">
+      <c r="C81" s="542" t="s">
         <v>172</v>
       </c>
-      <c r="D81" s="562"/>
+      <c r="D81" s="542"/>
       <c r="E81" s="170"/>
       <c r="F81" s="170"/>
       <c r="G81" s="170"/>
@@ -28017,63 +28056,86 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="C78:I78"/>
-    <mergeCell ref="C79:I79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="B71:I71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="B54:I54"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="B46:I46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="B46:I46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="B71:I71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="B77:I77"/>
+    <mergeCell ref="C78:I78"/>
+    <mergeCell ref="C79:I79"/>
+    <mergeCell ref="C81:D81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="9d8ac2f3-6a14-4865-bb23-fc45479f0d06">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100B8D9964B2276D74DB02A1C08F4EF5649" ma:contentTypeVersion="3" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="3c79f91ed31c1f0c784324ebb7f2fba8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9d8ac2f3-6a14-4865-bb23-fc45479f0d06" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4970c376837a35b11232fcf574238a8b" ns2:_="">
     <xsd:import namespace="9d8ac2f3-6a14-4865-bb23-fc45479f0d06"/>
@@ -28227,43 +28289,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="9d8ac2f3-6a14-4865-bb23-fc45479f0d06">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F307465-E603-4C2B-B833-85968FBDECC3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9d8ac2f3-6a14-4865-bb23-fc45479f0d06"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -28285,9 +28314,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58957FBC-4CB2-4E5D-9BCC-B24CB64EA848}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F307465-E603-4C2B-B833-85968FBDECC3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9d8ac2f3-6a14-4865-bb23-fc45479f0d06"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>